--- a/DDAf_2023_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -2285,7 +2285,7 @@
         <v>0.38508343696594</v>
       </c>
       <c r="G39" s="12">
-        <v>5.0865202310800004E-3</v>
+        <v>5.0865202210800004E-3</v>
       </c>
       <c r="H39" s="13">
         <v>0.80325865745544001</v>

--- a/DDAf_2023_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab16.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8B308C-CD0D-414C-AC17-DFE64CFE2415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{894C1497-03D0-4E18-A0B4-87207045F116}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab16'!$A$2:$C$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab16'!$A$1:$G$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab16'!$A$2:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab16'!$A$1:$G$103</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="168">
   <si>
     <t>Tableau 16 : Bien-être subjectif</t>
   </si>
@@ -424,7 +436,7 @@
     <t>CEEAC</t>
   </si>
   <si>
-    <t>CÉDÉAO</t>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
@@ -502,9 +514,6 @@
     <t>RDM, États fragiles</t>
   </si>
   <si>
-    <t>États extrêmement fragiles</t>
-  </si>
-  <si>
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
@@ -512,9 +521,6 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
-  </si>
-  <si>
-    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Base de données en ligne du World Happiness Report 2021.</t>
@@ -538,25 +544,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -846,153 +846,137 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1030,7 +1014,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1042,7 +1026,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1089,6 +1073,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1124,6 +1125,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1275,24 +1293,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCEC877-74C5-4637-BC14-EC4D16DBAC16}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="45" customWidth="1"/>
     <col min="4" max="8" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1382,158 +1399,158 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>4.3961148262023899</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>0.27959516644478</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>0.77762728929519997</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>0.59668242931366</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>-0.19073791801930001</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>0.75909769535064997</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>3.51178050041199</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>0.27342551946639998</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>0.73487991094589</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>0.71631354093552002</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>-0.13053622841840001</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>0.78970539569855003</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>3.8691236972808798</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>0.34816244244576</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>0.53669703006743996</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>0.76486420631409002</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>3.5968194715699999E-3</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>0.54895609617232999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>4.9321327209472701</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>0.38412275910378002</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>0.58727473020554</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>0.86981022357940996</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>7.2745017707349993E-2</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>0.74230372905731001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>4.45101022720337</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>0.24754208326339999</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>0.64791953563689997</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>0.66568195819855003</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>-0.1038801819086</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>0.74057030677794999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>4.9468007087707502</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>0.29427647590637002</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>0.82033777236937999</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>0.75694626569748003</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>-1.4951311983200001E-2</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>0.89105033874511996</v>
       </c>
     </row>
@@ -1541,7 +1558,7 @@
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="15">
@@ -1564,132 +1581,132 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>3.1598021984100302</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>0.34573638439178001</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>0.70257276296616</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>0.64330297708510997</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <v>-8.6957644670999992E-3</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>0.71724265813828003</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>4.1370679855346699</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>0.31579726636409999</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>0.67887047529221001</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>0.69711082279682002</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <v>-7.2315399302200004E-2</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>0.74840805530548005</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>3.7752830982208301</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>0.36276659369469</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>0.66644150018692005</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>0.64639860391616999</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>-2.38761659712E-2</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>0.48471522331237998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>5.2410778999328604</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>0.38647896051406999</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>0.62961465120315996</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>0.67450916767119995</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>4.9266181886200001E-2</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>0.72004663944243996</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>3.4758620262146001</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>0.59933549165725997</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>0.61386519670485995</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>0.64525234699249001</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>7.2786100208760002E-2</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>0.31958913803101002</v>
       </c>
     </row>
@@ -1697,7 +1714,7 @@
       <c r="A17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="12">
@@ -1723,7 +1740,7 @@
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="12">
@@ -1749,7 +1766,7 @@
       <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="15">
@@ -1775,7 +1792,7 @@
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -1801,7 +1818,7 @@
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="12">
@@ -1824,314 +1841,314 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="C22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>4.4544387885502399</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>0.43298660005841999</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>0.62651640176773005</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>0.66149245841162996</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>-3.8594042083999998E-3</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>0.60318732261658004</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>4.6086163520812997</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>0.33616289496422003</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>0.73622173070908004</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>0.53826153278350997</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>7.7253080904480007E-2</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="19">
         <v>0.63201296329498002</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="20" t="s">
+      <c r="C25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="20" t="s">
+      <c r="C26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>4.5492196083068901</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>0.25151434540749001</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>0.66938865184784002</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>0.76869428157805997</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <v>0.18849685788154999</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>0.82313758134841997</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>4.5465841293334996</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>0.29698041081429</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>0.73343485593795998</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>0.70203447341919001</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <v>0.25996959209442</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>0.67371761798858998</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>4.3390874862670898</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>0.30395966768264998</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>0.72319465875625999</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <v>0.54953521490097001</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <v>-1.24686546624E-2</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>0.70061010122298994</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>6.0153002738952699</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>0.13840179145336001</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>0.76698446273804</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>0.84259808063507002</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="18">
         <v>-3.6692719906600002E-2</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <v>0.89256596565247004</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>3.2681522369384801</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>0.41766768693924</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>0.73606795072555997</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="18">
         <v>0.86899918317795</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="18">
         <v>6.4065881073469999E-2</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>0.48945823311806003</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="20" t="s">
+      <c r="C32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>4.6679410934448304</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>0.19328223168850001</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>0.89142316579819003</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <v>0.91732281446456998</v>
       </c>
-      <c r="G33" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="20">
+      <c r="G33" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="19">
         <v>0.59441655874251997</v>
       </c>
     </row>
@@ -2162,106 +2179,106 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="18">
         <v>4.13867282867432</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>0.30272498726844999</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>0.54084503650664995</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <v>0.39009580016135997</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="18">
         <v>-6.3394643366300005E-2</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="19">
         <v>0.81061553955078003</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="18">
         <v>3.78568410873413</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>0.27111792564392001</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>0.68553310632705999</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <v>0.83034348487854004</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="18">
         <v>0.29527199268340998</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="19">
         <v>0.73981708288193004</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="18">
         <v>4.6409096717834499</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>0.42470666766166998</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>0.69894886016846003</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>0.68748211860657005</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="18">
         <v>0.14711755514145</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="19">
         <v>0.80046117305756004</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <v>4.3069809350100403</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="25">
         <v>0.31398930874738001</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="25">
         <v>0.70614951307122997</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="25">
         <v>0.68648891557347003</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="25">
         <v>0.10217988242706</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <v>0.70123958858576996</v>
       </c>
     </row>
@@ -2269,7 +2286,7 @@
       <c r="A39" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="12">
@@ -2292,28 +2309,28 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="18">
         <v>4.4723968505859402</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>0.44203358888625999</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="18">
         <v>0.59890866279601995</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="18">
         <v>0.76955032348633001</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="18">
         <v>-0.1123419776559</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="19">
         <v>0.67272549867630005</v>
       </c>
     </row>
@@ -2321,7 +2338,7 @@
       <c r="A41" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="12">
@@ -2347,7 +2364,7 @@
       <c r="A42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="12">
@@ -2370,210 +2387,210 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="18">
         <v>4.8026175498962402</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <v>0.25643119215964999</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="18">
         <v>0.58718240261078003</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="18">
         <v>0.81899523735045998</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="18">
         <v>-0.22857755422590001</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="19">
         <v>0.55252009630203003</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="18">
         <v>4.7308111190795898</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <v>0.43877434730530002</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="18">
         <v>0.58463388681411999</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="18">
         <v>0.66775810718535999</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="18">
         <v>-0.2018142342567</v>
       </c>
-      <c r="H44" s="20">
+      <c r="H44" s="19">
         <v>0.71901321411133001</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="25">
         <v>4.7055490811665903</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="25">
         <v>0.33548547079166002</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="25">
         <v>0.62604026993116002</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="25">
         <v>0.67180943489074996</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="25">
         <v>-0.1186961256123</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="26">
         <v>0.72872312863667998</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="18">
         <v>4.4077458381652797</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>0.30451244115829001</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="18">
         <v>0.60858464241027999</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="18">
         <v>0.78311467170714999</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="18">
         <v>-8.3488710224599999E-2</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="19">
         <v>0.50663608312607</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="18">
         <v>4.7408928871154803</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="18">
         <v>0.36477538943290999</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="18">
         <v>0.69092589616776001</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="18">
         <v>0.67754685878753995</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="18">
         <v>-4.0898942388999998E-3</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="19">
         <v>0.68310236930847001</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="20" t="s">
+      <c r="C48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="18">
         <v>5.2565035820007298</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>0.33991909027099998</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="18">
         <v>0.69264692068099998</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="18">
         <v>0.76999801397323997</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="18">
         <v>1.5563689172270001E-2</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="19">
         <v>0.61310631036758001</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="18">
         <v>5.1636271476745597</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="18">
         <v>0.40072327852249001</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="18">
         <v>0.77281618118286</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="18">
         <v>0.67659527063369995</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="18">
         <v>0.41018047928809998</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="19">
         <v>0.69387012720107999</v>
       </c>
     </row>
@@ -2604,132 +2621,132 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="18">
         <v>4.7676844596862802</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="18">
         <v>0.47338843345642001</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="18">
         <v>0.68464690446854004</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="18">
         <v>0.69139909744262995</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="18">
         <v>9.6817240118980005E-2</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="19">
         <v>0.65512418746947998</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H53" s="20" t="s">
+      <c r="C53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="18">
         <v>5.12146091461182</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="18">
         <v>0.38913258910178999</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="18">
         <v>0.63560897111893</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="18">
         <v>0.70587456226348999</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="18">
         <v>5.0611626356840002E-2</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="19">
         <v>0.71247375011444003</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="18">
         <v>4.9879918098449698</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>0.35776451230049</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="18">
         <v>0.71152269840240001</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="18">
         <v>0.67040508985518998</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="18">
         <v>-3.7851758301299998E-2</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="19">
         <v>0.75455808639526001</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="18">
         <v>5.00354433059693</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>0.30443826317786998</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="18">
         <v>0.8159151673317</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="18">
         <v>0.83136188983917003</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="18">
         <v>2.5959890335799998E-2</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="19">
         <v>0.67695873975753995</v>
       </c>
     </row>
@@ -2737,7 +2754,7 @@
       <c r="A57" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C57" s="12">
@@ -2760,54 +2777,54 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="18">
         <v>5.4887366294860902</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="18">
         <v>0.33192583918571</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="18">
         <v>0.78897303342819003</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="18">
         <v>0.75884175300598</v>
       </c>
-      <c r="G58" s="19">
+      <c r="G58" s="18">
         <v>-1.88039150089E-2</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="19">
         <v>0.68761408329009999</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="18">
         <v>3.4473814964294398</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D59" s="18">
         <v>0.43813446164130998</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="18">
         <v>0.51337522268294999</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="18">
         <v>0.71776956319809004</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G59" s="18">
         <v>7.405570149422E-2</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <v>0.61077976226806996</v>
       </c>
     </row>
@@ -2838,1120 +2855,1088 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="24"/>
-      <c r="B61" s="25" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="25">
         <v>4.8759611203120299</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D61" s="25">
         <v>0.36286149575159998</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="25">
         <v>0.68938373602353997</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="25">
         <v>0.72593139226619996</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G61" s="25">
         <v>6.8674253693849996E-2</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="26">
         <v>0.65499373124196003</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="30"/>
-      <c r="B62" s="31" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="31">
         <v>4.5010495896035101</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="31">
         <v>0.34835901127217</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="31">
         <v>0.67362115738240003</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="31">
         <v>0.69406166419070003</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="31">
         <v>7.7786147490999996E-3</v>
       </c>
-      <c r="H62" s="33">
+      <c r="H62" s="32">
         <v>0.68738903327191003</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="31">
         <v>5.8937654735845202</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="31">
         <v>0.29445539704627</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="31">
         <v>0.72120975095916995</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="31">
         <v>0.82816123142154996</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="31">
         <v>-4.7972306924999996E-3</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H63" s="32">
         <v>0.85064957885567005</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="35">
         <v>5.81057410654814</v>
       </c>
-      <c r="D64" s="36">
+      <c r="D64" s="35">
         <v>0.31562309938928002</v>
       </c>
-      <c r="E64" s="36">
+      <c r="E64" s="35">
         <v>0.79166778533354998</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="35">
         <v>0.83994708372199001</v>
       </c>
-      <c r="G64" s="36">
+      <c r="G64" s="35">
         <v>-5.37682564362E-2</v>
       </c>
-      <c r="H64" s="37">
+      <c r="H64" s="36">
         <v>0.81971818726996004</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="34"/>
-      <c r="B65" s="38" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="38">
         <v>4.9294316598347301</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="38">
         <v>0.34192826792045999</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E65" s="38">
         <v>0.68142292455390996</v>
       </c>
-      <c r="F65" s="39">
+      <c r="F65" s="38">
         <v>0.79051817102092004</v>
       </c>
-      <c r="G65" s="39">
+      <c r="G65" s="38">
         <v>9.0366121813919995E-2</v>
       </c>
-      <c r="H65" s="40">
+      <c r="H65" s="39">
         <v>0.77680288255215002</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="34"/>
-      <c r="B66" s="41" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="41">
         <v>5.47416517520562</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>0.31080036394058003</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="41">
         <v>0.70677966129394998</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="41">
         <v>0.78775943873020005</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="41">
         <v>-1.1224706609000001E-3</v>
       </c>
-      <c r="H66" s="43">
+      <c r="H66" s="42">
         <v>0.80146210678876995</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="34"/>
-      <c r="B67" s="38" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="39">
+      <c r="C67" s="38">
         <v>4.4254035022523697</v>
       </c>
-      <c r="D67" s="39">
+      <c r="D67" s="38">
         <v>0.33511081337929</v>
       </c>
-      <c r="E67" s="39">
+      <c r="E67" s="38">
         <v>0.68409664101070999</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F67" s="38">
         <v>0.69834480186303005</v>
       </c>
-      <c r="G67" s="39">
+      <c r="G67" s="38">
         <v>8.3654248703500002E-3</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="39">
         <v>0.69900141656398995</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="34"/>
-      <c r="B68" s="38" t="s">
+      <c r="A68" s="33"/>
+      <c r="B68" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="39">
+      <c r="C68" s="38">
         <v>4.6771178245544398</v>
       </c>
-      <c r="D68" s="39">
+      <c r="D68" s="38">
         <v>0.36442494595593</v>
       </c>
-      <c r="E68" s="39">
+      <c r="E68" s="38">
         <v>0.67578378319739996</v>
       </c>
-      <c r="F68" s="39">
+      <c r="F68" s="38">
         <v>0.70023567703637002</v>
       </c>
-      <c r="G68" s="39">
+      <c r="G68" s="38">
         <v>1.269218447574E-2</v>
       </c>
-      <c r="H68" s="40">
+      <c r="H68" s="39">
         <v>0.65311868895184</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="34"/>
-      <c r="B69" s="38" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="38">
         <v>3.80553929011027</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D69" s="38">
         <v>0.38176717857519998</v>
       </c>
-      <c r="E69" s="39">
+      <c r="E69" s="38">
         <v>0.68433807293574</v>
       </c>
-      <c r="F69" s="39">
+      <c r="F69" s="38">
         <v>0.69854482511678995</v>
       </c>
-      <c r="G69" s="39">
+      <c r="G69" s="38">
         <v>0.14850977100432</v>
       </c>
-      <c r="H69" s="40">
+      <c r="H69" s="39">
         <v>0.62416533132394003</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="34"/>
-      <c r="B70" s="38" t="s">
+      <c r="A70" s="33"/>
+      <c r="B70" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="38">
         <v>4.2493401898278096</v>
       </c>
-      <c r="D70" s="39">
+      <c r="D70" s="38">
         <v>0.42404866880841002</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="38">
         <v>0.63335554467306998</v>
       </c>
-      <c r="F70" s="39">
+      <c r="F70" s="38">
         <v>0.65266532699266999</v>
       </c>
-      <c r="G70" s="39">
+      <c r="G70" s="38">
         <v>-1.45191817234E-2</v>
       </c>
-      <c r="H70" s="40">
+      <c r="H70" s="39">
         <v>0.60737610856692004</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="34"/>
-      <c r="B71" s="38" t="s">
+      <c r="A71" s="33"/>
+      <c r="B71" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="38">
         <v>4.8759611203120299</v>
       </c>
-      <c r="D71" s="39">
+      <c r="D71" s="38">
         <v>0.36286149575159998</v>
       </c>
-      <c r="E71" s="39">
+      <c r="E71" s="38">
         <v>0.68938373602353997</v>
       </c>
-      <c r="F71" s="39">
+      <c r="F71" s="38">
         <v>0.72593139226619996</v>
       </c>
-      <c r="G71" s="39">
+      <c r="G71" s="38">
         <v>6.8674253693849996E-2</v>
       </c>
-      <c r="H71" s="40">
+      <c r="H71" s="39">
         <v>0.65499373124196003</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="34"/>
-      <c r="B72" s="38" t="s">
+      <c r="A72" s="33"/>
+      <c r="B72" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="38">
         <v>4.2266583045323696</v>
       </c>
-      <c r="D72" s="39">
+      <c r="D72" s="38">
         <v>0.33109540492296002</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="38">
         <v>0.68660712242125999</v>
       </c>
-      <c r="F72" s="39">
+      <c r="F72" s="38">
         <v>0.65360676248867999</v>
       </c>
-      <c r="G72" s="39">
+      <c r="G72" s="38">
         <v>0.13304734043777</v>
       </c>
-      <c r="H72" s="40">
+      <c r="H72" s="39">
         <v>0.70986185471217</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="34"/>
-      <c r="B73" s="38" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="38">
         <v>4.2953600883483896</v>
       </c>
-      <c r="D73" s="39">
+      <c r="D73" s="38">
         <v>0.30745846728484</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E73" s="38">
         <v>0.68341097434361997</v>
       </c>
-      <c r="F73" s="39">
+      <c r="F73" s="38">
         <v>0.69573907256126</v>
       </c>
-      <c r="G73" s="39">
+      <c r="G73" s="38">
         <v>-2.2094141412500001E-2</v>
       </c>
-      <c r="H73" s="40">
+      <c r="H73" s="39">
         <v>0.74125167131423997</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="34"/>
-      <c r="B74" s="38" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C74" s="38">
         <v>4.7521795272827196</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D74" s="38">
         <v>0.31417584717274</v>
       </c>
-      <c r="E74" s="39">
+      <c r="E74" s="38">
         <v>0.63146659135817995</v>
       </c>
-      <c r="F74" s="39">
+      <c r="F74" s="38">
         <v>0.65226125717162997</v>
       </c>
-      <c r="G74" s="39">
+      <c r="G74" s="38">
         <v>-0.1199669552036</v>
       </c>
-      <c r="H74" s="40">
+      <c r="H74" s="39">
         <v>0.73992265462874995</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="34"/>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="33"/>
+      <c r="B75" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="41">
         <v>4.36348533630371</v>
       </c>
-      <c r="D75" s="42">
+      <c r="D75" s="41">
         <v>0.37599344551563002</v>
       </c>
-      <c r="E75" s="42">
+      <c r="E75" s="41">
         <v>0.58289593458176003</v>
       </c>
-      <c r="F75" s="42">
+      <c r="F75" s="41">
         <v>0.62217588722705996</v>
       </c>
-      <c r="G75" s="42">
+      <c r="G75" s="41">
         <v>-4.7488834708900002E-2</v>
       </c>
-      <c r="H75" s="43">
+      <c r="H75" s="42">
         <v>0.74845960736274997</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="34"/>
-      <c r="B76" s="38" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="38">
         <v>5.2974608209398104</v>
       </c>
-      <c r="D76" s="39">
+      <c r="D76" s="38">
         <v>0.27688116828601</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E76" s="38">
         <v>0.80787382523218998</v>
       </c>
-      <c r="F76" s="39">
+      <c r="F76" s="38">
         <v>0.90529201428095996</v>
       </c>
-      <c r="G76" s="39">
+      <c r="G76" s="38">
         <v>0.15577804669737999</v>
       </c>
-      <c r="H76" s="40">
+      <c r="H76" s="39">
         <v>0.80503916740418002</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="34"/>
-      <c r="B77" s="38" t="s">
+      <c r="A77" s="33"/>
+      <c r="B77" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="38">
         <v>5.7807843901894298</v>
       </c>
-      <c r="D77" s="39">
+      <c r="D77" s="38">
         <v>0.34246559305625002</v>
       </c>
-      <c r="E77" s="39">
+      <c r="E77" s="38">
         <v>0.78337996656244002</v>
       </c>
-      <c r="F77" s="39">
+      <c r="F77" s="38">
         <v>0.82115121863105001</v>
       </c>
-      <c r="G77" s="39">
+      <c r="G77" s="38">
         <v>-7.9019971699899993E-2</v>
       </c>
-      <c r="H77" s="40">
+      <c r="H77" s="39">
         <v>0.84066569805144997</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="34"/>
-      <c r="B78" s="38" t="s">
+      <c r="A78" s="33"/>
+      <c r="B78" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C78" s="39">
+      <c r="C78" s="38">
         <v>6.63210845876623</v>
       </c>
-      <c r="D78" s="39">
+      <c r="D78" s="38">
         <v>0.26171017962472998</v>
       </c>
-      <c r="E78" s="39">
+      <c r="E78" s="38">
         <v>0.72895898642363</v>
       </c>
-      <c r="F78" s="39">
+      <c r="F78" s="38">
         <v>0.84827943863692001</v>
       </c>
-      <c r="G78" s="39">
+      <c r="G78" s="38">
         <v>-6.9803458862699994E-2</v>
       </c>
-      <c r="H78" s="40">
+      <c r="H78" s="39">
         <v>0.92041287819544004</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="34"/>
-      <c r="B79" s="41" t="s">
+      <c r="A79" s="33"/>
+      <c r="B79" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C79" s="41">
         <v>6.7058766641114902</v>
       </c>
-      <c r="D79" s="42">
+      <c r="D79" s="41">
         <v>0.25869547458071002</v>
       </c>
-      <c r="E79" s="42">
+      <c r="E79" s="41">
         <v>0.74332317160933004</v>
       </c>
-      <c r="F79" s="42">
+      <c r="F79" s="41">
         <v>0.84906931770475003</v>
       </c>
-      <c r="G79" s="42">
+      <c r="G79" s="41">
         <v>-4.5367373263900002E-2</v>
       </c>
-      <c r="H79" s="43">
+      <c r="H79" s="42">
         <v>0.91787829681446997</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="34"/>
-      <c r="B80" s="38" t="s">
+      <c r="A80" s="33"/>
+      <c r="B80" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="39">
+      <c r="C80" s="38">
         <v>4.7378838062286404</v>
       </c>
-      <c r="D80" s="39">
+      <c r="D80" s="38">
         <v>0.35468596778810002</v>
       </c>
-      <c r="E80" s="39">
+      <c r="E80" s="38">
         <v>0.65414738655089999</v>
       </c>
-      <c r="F80" s="39">
+      <c r="F80" s="38">
         <v>0.60277544334530997</v>
       </c>
-      <c r="G80" s="39">
+      <c r="G80" s="38">
         <v>-5.3916466713400002E-2</v>
       </c>
-      <c r="H80" s="40">
+      <c r="H80" s="39">
         <v>0.74378209561109998</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="34"/>
-      <c r="B81" s="38" t="s">
+      <c r="A81" s="33"/>
+      <c r="B81" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="39">
-        <v>5.6594903048346996</v>
-      </c>
-      <c r="D81" s="39">
-        <v>0.28630470440667999</v>
-      </c>
-      <c r="E81" s="39">
-        <v>0.69542780693840001</v>
-      </c>
-      <c r="F81" s="39">
-        <v>0.81030523075776995</v>
-      </c>
-      <c r="G81" s="39">
-        <v>3.4878488410900002E-3</v>
-      </c>
-      <c r="H81" s="40">
-        <v>0.85935812837936998</v>
+      <c r="C81" s="38">
+        <v>5.6880283885532004</v>
+      </c>
+      <c r="D81" s="38">
+        <v>0.28688974595731997</v>
+      </c>
+      <c r="E81" s="38">
+        <v>0.70067042774624</v>
+      </c>
+      <c r="F81" s="38">
+        <v>0.81780119405852003</v>
+      </c>
+      <c r="G81" s="38">
+        <v>1.0651915230680001E-2</v>
+      </c>
+      <c r="H81" s="39">
+        <v>0.85871295796500002</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="34"/>
-      <c r="B82" s="38" t="s">
+      <c r="A82" s="33"/>
+      <c r="B82" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="39">
+      <c r="C82" s="38">
         <v>4.4524682118342502</v>
       </c>
-      <c r="D82" s="39">
+      <c r="D82" s="38">
         <v>0.34706117403813003</v>
       </c>
-      <c r="E82" s="39">
+      <c r="E82" s="38">
         <v>0.67761577704013998</v>
       </c>
-      <c r="F82" s="39">
+      <c r="F82" s="38">
         <v>0.71278704282564997</v>
       </c>
-      <c r="G82" s="39">
+      <c r="G82" s="38">
         <v>2.1118091822070001E-2</v>
       </c>
-      <c r="H82" s="40">
+      <c r="H82" s="39">
         <v>0.67582122561258995</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="34"/>
-      <c r="B83" s="41" t="s">
+      <c r="A83" s="33"/>
+      <c r="B83" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="42">
-        <v>5.9370554504187201</v>
-      </c>
-      <c r="D83" s="42">
-        <v>0.29597805391301002</v>
-      </c>
-      <c r="E83" s="42">
-        <v>0.72602615808393001</v>
-      </c>
-      <c r="F83" s="42">
-        <v>0.83146070980507003</v>
-      </c>
-      <c r="G83" s="42">
-        <v>-6.3281693020000003E-3</v>
-      </c>
-      <c r="H83" s="43">
-        <v>0.84904039035672996</v>
+      <c r="C83" s="41">
+        <v>5.9344607211731297</v>
+      </c>
+      <c r="D83" s="41">
+        <v>0.29596852726407002</v>
+      </c>
+      <c r="E83" s="41">
+        <v>0.72531761560175001</v>
+      </c>
+      <c r="F83" s="41">
+        <v>0.83021046958126998</v>
+      </c>
+      <c r="G83" s="41">
+        <v>-7.8531057103000002E-3</v>
+      </c>
+      <c r="H83" s="42">
+        <v>0.84905462474613003</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="34"/>
-      <c r="B84" s="38" t="s">
+      <c r="A84" s="33"/>
+      <c r="B84" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="39">
+      <c r="C84" s="38">
         <v>4.3069960162753196</v>
       </c>
-      <c r="D84" s="39">
+      <c r="D84" s="38">
         <v>0.38772175354617</v>
       </c>
-      <c r="E84" s="39">
+      <c r="E84" s="38">
         <v>0.65726315975188998</v>
       </c>
-      <c r="F84" s="39">
+      <c r="F84" s="38">
         <v>0.68544396332332003</v>
       </c>
-      <c r="G84" s="39">
+      <c r="G84" s="38">
         <v>6.5942420526160006E-2</v>
       </c>
-      <c r="H84" s="40">
+      <c r="H84" s="39">
         <v>0.64318074924604995</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="34"/>
-      <c r="B85" s="38" t="s">
+      <c r="A85" s="33"/>
+      <c r="B85" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="38">
         <v>3.34463914235433</v>
       </c>
-      <c r="D85" s="39">
+      <c r="D85" s="38">
         <v>0.45270189146201001</v>
       </c>
-      <c r="E85" s="39">
+      <c r="E85" s="38">
         <v>0.42121085524558999</v>
       </c>
-      <c r="F85" s="39">
+      <c r="F85" s="38">
         <v>0.49774508674939</v>
       </c>
-      <c r="G85" s="39">
+      <c r="G85" s="38">
         <v>-7.01120607555E-2</v>
       </c>
-      <c r="H85" s="40">
+      <c r="H85" s="39">
         <v>0.58464284737905003</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="34"/>
-      <c r="B86" s="38" t="s">
+      <c r="A86" s="33"/>
+      <c r="B86" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="39">
+      <c r="C86" s="38">
         <v>4.5986801385879499</v>
       </c>
-      <c r="D86" s="39">
+      <c r="D86" s="38">
         <v>0.32320380881429001</v>
       </c>
-      <c r="E86" s="39">
+      <c r="E86" s="38">
         <v>0.67545933127403002</v>
       </c>
-      <c r="F86" s="39">
+      <c r="F86" s="38">
         <v>0.68152459114789998</v>
       </c>
-      <c r="G86" s="39">
+      <c r="G86" s="38">
         <v>-1.16575255292E-2</v>
       </c>
-      <c r="H86" s="40">
+      <c r="H86" s="39">
         <v>0.69564319849014</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="34"/>
-      <c r="B87" s="38" t="s">
+      <c r="A87" s="33"/>
+      <c r="B87" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="39">
+      <c r="C87" s="38">
         <v>5.2181411286195098</v>
       </c>
-      <c r="D87" s="39">
+      <c r="D87" s="38">
         <v>0.32408747387428999</v>
       </c>
-      <c r="E87" s="39">
+      <c r="E87" s="38">
         <v>0.74854329725107005</v>
       </c>
-      <c r="F87" s="39">
+      <c r="F87" s="38">
         <v>0.83754287660121995</v>
       </c>
-      <c r="G87" s="39">
+      <c r="G87" s="38">
         <v>0.11965743316492999</v>
       </c>
-      <c r="H87" s="40">
+      <c r="H87" s="39">
         <v>0.77719107270240995</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="34"/>
-      <c r="B88" s="38" t="s">
+      <c r="A88" s="33"/>
+      <c r="B88" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C88" s="39">
+      <c r="C88" s="38">
         <v>4.8548019329706804</v>
       </c>
-      <c r="D88" s="39">
+      <c r="D88" s="38">
         <v>0.29444008817275003</v>
       </c>
-      <c r="E88" s="39">
+      <c r="E88" s="38">
         <v>0.72474690278371001</v>
       </c>
-      <c r="F88" s="39">
+      <c r="F88" s="38">
         <v>0.76601386070250999</v>
       </c>
-      <c r="G88" s="39">
+      <c r="G88" s="38">
         <v>-0.1116196359508</v>
       </c>
-      <c r="H88" s="40">
+      <c r="H88" s="39">
         <v>0.81460414330164999</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="34"/>
-      <c r="B89" s="38" t="s">
+      <c r="A89" s="33"/>
+      <c r="B89" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C89" s="39">
+      <c r="C89" s="38">
         <v>5.6058396233452701</v>
       </c>
-      <c r="D89" s="39">
+      <c r="D89" s="38">
         <v>0.30603572981698002</v>
       </c>
-      <c r="E89" s="39">
+      <c r="E89" s="38">
         <v>0.69415176595960004</v>
       </c>
-      <c r="F89" s="39">
+      <c r="F89" s="38">
         <v>0.80976122534937001</v>
       </c>
-      <c r="G89" s="39">
+      <c r="G89" s="38">
         <v>-5.18470891079E-2</v>
       </c>
-      <c r="H89" s="40">
+      <c r="H89" s="39">
         <v>0.84154251383411005</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="34"/>
-      <c r="B90" s="41" t="s">
+      <c r="A90" s="33"/>
+      <c r="B90" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C90" s="42">
+      <c r="C90" s="41">
         <v>6.6837128003438302</v>
       </c>
-      <c r="D90" s="42">
+      <c r="D90" s="41">
         <v>0.25683281852139001</v>
       </c>
-      <c r="E90" s="42">
+      <c r="E90" s="41">
         <v>0.74765062597063003</v>
       </c>
-      <c r="F90" s="42">
+      <c r="F90" s="41">
         <v>0.86471313767962998</v>
       </c>
-      <c r="G90" s="42">
+      <c r="G90" s="41">
         <v>-2.5535291112500001E-2</v>
       </c>
-      <c r="H90" s="43">
+      <c r="H90" s="42">
         <v>0.91585633489820995</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="34"/>
-      <c r="B91" s="38" t="s">
+      <c r="A91" s="33"/>
+      <c r="B91" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C91" s="39">
+      <c r="C91" s="38">
         <v>4.3115492853625099</v>
       </c>
-      <c r="D91" s="39">
+      <c r="D91" s="38">
         <v>0.36660103499889002</v>
       </c>
-      <c r="E91" s="39">
+      <c r="E91" s="38">
         <v>0.66614309056052001</v>
       </c>
-      <c r="F91" s="39">
+      <c r="F91" s="38">
         <v>0.68185059880387999</v>
       </c>
-      <c r="G91" s="39">
+      <c r="G91" s="38">
         <v>4.3668594797729998E-2</v>
       </c>
-      <c r="H91" s="40">
+      <c r="H91" s="39">
         <v>0.66145415244431005</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="34"/>
-      <c r="B92" s="38" t="s">
+      <c r="A92" s="33"/>
+      <c r="B92" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C92" s="39">
+      <c r="C92" s="38">
         <v>4.4545014169481103</v>
       </c>
-      <c r="D92" s="39">
+      <c r="D92" s="38">
         <v>0.34578383134471002</v>
       </c>
-      <c r="E92" s="39">
+      <c r="E92" s="38">
         <v>0.65616774227884</v>
       </c>
-      <c r="F92" s="39">
+      <c r="F92" s="38">
         <v>0.74859151244164002</v>
       </c>
-      <c r="G92" s="39">
+      <c r="G92" s="38">
         <v>0.14066719419012</v>
       </c>
-      <c r="H92" s="40">
+      <c r="H92" s="39">
         <v>0.70752879314952</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="34"/>
-      <c r="B93" s="38" t="s">
+      <c r="A93" s="33"/>
+      <c r="B93" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C93" s="39">
+      <c r="C93" s="38">
         <v>5.3119583129882804</v>
       </c>
-      <c r="D93" s="39">
+      <c r="D93" s="38">
         <v>0.23728234320878999</v>
       </c>
-      <c r="E93" s="39">
+      <c r="E93" s="38">
         <v>0.75160309672355996</v>
       </c>
-      <c r="F93" s="39">
+      <c r="F93" s="38">
         <v>0.69042980670928999</v>
       </c>
-      <c r="G93" s="39">
+      <c r="G93" s="38">
         <v>2.028018049896E-2</v>
       </c>
-      <c r="H93" s="40">
+      <c r="H93" s="39">
         <v>0.76228946447372004</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="34"/>
-      <c r="B94" s="38" t="s">
+      <c r="A94" s="33"/>
+      <c r="B94" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="39">
+      <c r="C94" s="38">
         <v>5.6953866481780997</v>
       </c>
-      <c r="D94" s="39">
+      <c r="D94" s="38">
         <v>0.26036316156387002</v>
       </c>
-      <c r="E94" s="39">
+      <c r="E94" s="38">
         <v>0.74351017922162999</v>
       </c>
-      <c r="F94" s="39">
+      <c r="F94" s="38">
         <v>0.85255708297094002</v>
       </c>
-      <c r="G94" s="39">
+      <c r="G94" s="38">
         <v>3.3359519309470002E-2</v>
       </c>
-      <c r="H94" s="40">
+      <c r="H94" s="39">
         <v>0.81979001230663995</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="34"/>
-      <c r="B95" s="38" t="s">
+      <c r="A95" s="33"/>
+      <c r="B95" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="39">
+      <c r="C95" s="38">
         <v>4.0471984744071996</v>
       </c>
-      <c r="D95" s="39">
+      <c r="D95" s="38">
         <v>0.37028507702052998</v>
       </c>
-      <c r="E95" s="39">
+      <c r="E95" s="38">
         <v>0.68315905332564997</v>
       </c>
-      <c r="F95" s="39">
+      <c r="F95" s="38">
         <v>0.69334533624351002</v>
       </c>
-      <c r="G95" s="39">
+      <c r="G95" s="38">
         <v>-1.4490283404999999E-3</v>
       </c>
-      <c r="H95" s="40">
+      <c r="H95" s="39">
         <v>0.66154974885285001</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="34"/>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="33"/>
+      <c r="B96" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C96" s="42">
+      <c r="C96" s="41">
         <v>5.3974973708391198</v>
       </c>
-      <c r="D96" s="42">
+      <c r="D96" s="41">
         <v>0.30182764492928998</v>
       </c>
-      <c r="E96" s="42">
+      <c r="E96" s="41">
         <v>0.68536735512316005</v>
       </c>
-      <c r="F96" s="42">
+      <c r="F96" s="41">
         <v>0.82790369354187998</v>
       </c>
-      <c r="G96" s="42">
+      <c r="G96" s="41">
         <v>5.4683254682459999E-2</v>
       </c>
-      <c r="H96" s="43">
+      <c r="H96" s="42">
         <v>0.82270589284599005</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="34"/>
-      <c r="B97" s="38" t="s">
+      <c r="A97" s="33"/>
+      <c r="B97" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="38">
         <v>4.4438498959396799</v>
       </c>
-      <c r="D97" s="39">
+      <c r="D97" s="38">
         <v>0.36362232448477</v>
       </c>
-      <c r="E97" s="39">
+      <c r="E97" s="38">
         <v>0.67520290974414998</v>
       </c>
-      <c r="F97" s="39">
+      <c r="F97" s="38">
         <v>0.67108643687132996</v>
       </c>
-      <c r="G97" s="39">
+      <c r="G97" s="38">
         <v>4.2571862423490002E-2</v>
       </c>
-      <c r="H97" s="40">
+      <c r="H97" s="39">
         <v>0.68556041609157004</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="34"/>
-      <c r="B98" s="38" t="s">
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="33"/>
+      <c r="B98" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C98" s="39">
+      <c r="C98" s="41">
         <v>4.7103739529848099</v>
       </c>
-      <c r="D98" s="39">
+      <c r="D98" s="41">
         <v>0.38619210291653999</v>
       </c>
-      <c r="E98" s="39">
+      <c r="E98" s="41">
         <v>0.67209637351333995</v>
       </c>
-      <c r="F98" s="39">
+      <c r="F98" s="41">
         <v>0.72643698193132999</v>
       </c>
-      <c r="G98" s="39">
+      <c r="G98" s="41">
         <v>6.3021162466610006E-2</v>
       </c>
-      <c r="H98" s="40">
+      <c r="H98" s="42">
         <v>0.70839011669159002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="34"/>
-      <c r="B99" s="41" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C99" s="42">
-        <v>3.9294497966766402</v>
-      </c>
-      <c r="D99" s="42">
-        <v>0.42255399089592999</v>
-      </c>
-      <c r="E99" s="42">
-        <v>0.58256755654628001</v>
-      </c>
-      <c r="F99" s="42">
-        <v>0.59753354466877995</v>
-      </c>
-      <c r="G99" s="42">
-        <v>2.302536791698E-2</v>
-      </c>
-      <c r="H99" s="43">
-        <v>0.59237073934994999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="44"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B101" s="48"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B102" s="48"/>
-      <c r="C102" s="49"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="49"/>
-      <c r="H102" s="49"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="47" t="s">
+      <c r="A103" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B103" s="48"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="49"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="47" t="s">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="44"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+    </row>
+    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="B104" s="48"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="49"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="47" t="s">
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B108" s="2"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B105" s="48"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="49"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B106" s="48"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B107" s="48"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="49"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
-    </row>
-    <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="50"/>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B111" s="2"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B112" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
-      <c r="H110" s="49"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C111" s="49"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="49"/>
-      <c r="G111" s="49"/>
-      <c r="H111" s="49"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="49"/>
+        <v>167</v>
+      </c>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="49"/>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B115" s="2"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="49"/>
-      <c r="H115" s="49"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
-    <hyperlink ref="B110" r:id="rId2"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B114" r:id="rId5"/>
+    <hyperlink ref="B107" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{45493494-22A5-41A8-83C9-0708369DDA4A}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{55EA1C9E-1994-4903-B7AD-763FB5D1573E}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{24F19825-AAB2-4ACD-8CBF-5CC3C9E335E9}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{3FDEBFB6-7D83-4A1C-9E86-27E4BBCC5B83}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{B3C5B645-D315-4AB9-8D83-2058144BAF21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B3BAC0-0731-4892-AE83-1455062537FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABB1BC11-0967-44C9-8F6F-6FF8E7E34E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{3B72881C-9FBF-42C4-B97B-DCD19DBA9F2E}"/>
+    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{D3E0B27F-7C3E-40AF-A41A-9B118995F031}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="171">
   <si>
     <t>Tableau 16 : Finances publiques</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Recettes des administrations publiques en % du PIB, 2021</t>
-  </si>
-  <si>
     <t>Impôts des administrations publiques en % du PIB, 2021</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
-  </si>
-  <si>
-    <t>Source : Base de données des Perspectives de l'économie mondiale du FMI, octobre 2022.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1466,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD52540C-2E01-49A0-8CE4-A9A02B5A98B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6906E5F-5296-4962-8C06-3FC93F3052F9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1504,3607 +1498,3607 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="11">
-        <v>23.162198397312899</v>
+        <v>23.328969990684101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="12">
-        <v>19.3941096880652</v>
+        <v>19.494932880814702</v>
       </c>
       <c r="G3" s="13">
-        <v>86.411359976857</v>
+        <v>86.860582413881403</v>
       </c>
       <c r="H3" s="14">
-        <v>17413.195761127601</v>
+        <v>17447.868236739501</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="15">
-        <v>14580.370257524401</v>
+        <v>14580.3702574251</v>
       </c>
       <c r="L3" s="16">
-        <v>64963.519500672301</v>
+        <v>64963.519500820003</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="18">
-        <v>32.367952953550599</v>
+        <v>30.517508852471401</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="19">
-        <v>35.100192849829099</v>
+        <v>33.005501335718897</v>
       </c>
       <c r="G4" s="20">
-        <v>20.157496385149699</v>
+        <v>19.650674594567299</v>
       </c>
       <c r="H4" s="21">
-        <v>5701.2615832224601</v>
+        <v>5727.4312630639997</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="22">
-        <v>6182.5158157392498</v>
+        <v>6194.3699637196296</v>
       </c>
       <c r="L4" s="23">
-        <v>3550.52294840885</v>
+        <v>3687.9775658394801</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="25">
-        <v>25.649702811498301</v>
+        <v>25.649702811053999</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="26">
-        <v>30.3455787696582</v>
+        <v>30.345578770140701</v>
       </c>
       <c r="G5" s="27">
-        <v>45.823085908377003</v>
+        <v>41.944020976005902</v>
       </c>
       <c r="H5" s="28">
-        <v>1216.72544395153</v>
+        <v>1216.72544391882</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="29">
-        <v>1439.48014025047</v>
+        <v>1439.4801402595999</v>
       </c>
       <c r="L5" s="30">
-        <v>2173.6748747086999</v>
+        <v>1989.66662178157</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>21</v>
-      </c>
       <c r="C6" s="25">
-        <v>47.960646699189098</v>
+        <v>48.474969706640003</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="26">
-        <v>52.378129196487897</v>
+        <v>52.872748223684702</v>
       </c>
       <c r="G6" s="27">
-        <v>53.517865037844302</v>
+        <v>56.352125698972202</v>
       </c>
       <c r="H6" s="28">
-        <v>1182.16546466409</v>
+        <v>1235.9821007419</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="29">
-        <v>1291.0504695269001</v>
+        <v>1348.1136928396299</v>
       </c>
       <c r="L6" s="30">
-        <v>1319.1434257987801</v>
+        <v>1436.82851426613</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" s="25">
-        <v>15.6370986544052</v>
+        <v>15.057419414205601</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="26">
-        <v>24.584681205162699</v>
+        <v>23.673308217046699</v>
       </c>
       <c r="G7" s="27">
-        <v>63.930134448548401</v>
+        <v>61.610711466286801</v>
       </c>
       <c r="H7" s="28">
-        <v>1876.6600166303499</v>
+        <v>1876.6600166801099</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="29">
-        <v>2950.4890426930201</v>
+        <v>2950.48904273482</v>
       </c>
       <c r="L7" s="30">
-        <v>7672.4672414594397</v>
+        <v>7678.7632480312996</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="25">
-        <v>27.618297678696798</v>
+        <v>27.8889972483238</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="26">
-        <v>31.269164025851399</v>
+        <v>31.528474227529301</v>
       </c>
       <c r="G8" s="27">
-        <v>106.368629080435</v>
+        <v>107.20297802575701</v>
       </c>
       <c r="H8" s="28">
-        <v>4357.2700375310596</v>
+        <v>4399.9776343084104</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="29">
-        <v>4933.2581281278899</v>
+        <v>4974.1688526766802</v>
       </c>
       <c r="L8" s="30">
-        <v>16781.5136840579</v>
+        <v>16913.146838685101</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" s="25">
-        <v>30.677919892103102</v>
+        <v>30.807616931906601</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="26">
-        <v>39.799750180893</v>
+        <v>39.624633463940498</v>
       </c>
       <c r="G9" s="27">
-        <v>71.956597818784999</v>
+        <v>71.979255915050501</v>
       </c>
       <c r="H9" s="28">
-        <v>3775.6639067065898</v>
+        <v>3791.62628086115</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="29">
-        <v>4898.3269003390997</v>
+        <v>4876.7745309039401</v>
       </c>
       <c r="L9" s="30">
-        <v>8856.0088229359899</v>
+        <v>8858.7974528364593</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="25">
-        <v>26.939537755125301</v>
+        <v>27.121902658975898</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="26">
-        <v>32.976268821769303</v>
+        <v>32.673033491174898</v>
       </c>
       <c r="G10" s="27">
         <v>68.978426634683899</v>
       </c>
       <c r="H10" s="28">
-        <v>112851.68728451501</v>
+        <v>113615.627160494</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K10" s="29">
-        <v>138139.993741221</v>
+        <v>136869.71883984399</v>
       </c>
       <c r="L10" s="30">
-        <v>288955.65702400397</v>
+        <v>288955.65702689003</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" s="18">
-        <v>23.1904752768286</v>
+        <v>22.316910092133799</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="19">
-        <v>31.624289189528501</v>
+        <v>30.4330295152931</v>
       </c>
       <c r="G11" s="20">
-        <v>119.141261660363</v>
+        <v>110.78973886191901</v>
       </c>
       <c r="H11" s="21">
-        <v>4942.6710417166596</v>
+        <v>4942.6710416323704</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" s="22">
-        <v>6740.2007300874602</v>
+        <v>6740.2007300016903</v>
       </c>
       <c r="L11" s="23">
-        <v>25393.0140220391</v>
+        <v>24537.323120544101</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="C12" s="25">
-        <v>16.818051209221501</v>
+        <v>15.368798568885801</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="26">
-        <v>19.1474368981096</v>
+        <v>17.526980372807898</v>
       </c>
       <c r="G12" s="27">
-        <v>66.912890448404596</v>
+        <v>59.806566962848798</v>
       </c>
       <c r="H12" s="28">
-        <v>5527.7535208199597</v>
+        <v>5527.7535106322903</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K12" s="29">
-        <v>6293.3755172637702</v>
+        <v>6303.9948667630697</v>
       </c>
       <c r="L12" s="30">
-        <v>21992.914705932199</v>
+        <v>21510.852589157101</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" s="33">
-        <v>25.925374588852002</v>
+        <v>25.927126454126999</v>
       </c>
       <c r="D13" s="34">
-        <v>22.525748670900501</v>
+        <v>22.424274620035</v>
       </c>
       <c r="E13" s="34">
-        <v>0.15729823997028999</v>
+        <v>0.17563656087688001</v>
       </c>
       <c r="F13" s="34">
-        <v>30.306067438941401</v>
+        <v>29.9418841607676</v>
       </c>
       <c r="G13" s="35">
-        <v>73.684371302339699</v>
+        <v>73.075376298319696</v>
       </c>
       <c r="H13" s="36">
-        <v>158845.05406088501</v>
+        <v>159782.322689072</v>
       </c>
       <c r="I13" s="37">
-        <v>138266.50708319899</v>
+        <v>138321.06306686401</v>
       </c>
       <c r="J13" s="37">
-        <v>777.88415718975796</v>
+        <v>888.00905410867904</v>
       </c>
       <c r="K13" s="37">
-        <v>187449.06074277399</v>
+        <v>186277.680917169</v>
       </c>
       <c r="L13" s="38">
-        <v>441658.43625001702</v>
+        <v>440532.53247885098</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>37</v>
-      </c>
       <c r="C14" s="25">
-        <v>23.6491099297901</v>
+        <v>25.129874481230299</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="26">
-        <v>27.865283954233199</v>
+        <v>30.379633618010701</v>
       </c>
       <c r="G14" s="27">
-        <v>66.564673740777593</v>
+        <v>66.566300960477093</v>
       </c>
       <c r="H14" s="28">
-        <v>792.43672329279605</v>
+        <v>842.05432888078997</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" s="29">
-        <v>933.71270106451004</v>
+        <v>1017.96377920491</v>
       </c>
       <c r="L14" s="30">
-        <v>2230.45569591396</v>
+        <v>2230.5102209411002</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="25">
-        <v>14.1482325526742</v>
+        <v>13.956394165891099</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="26">
-        <v>16.522540752761</v>
+        <v>16.940345434392601</v>
       </c>
       <c r="G15" s="27">
-        <v>45.536399346504297</v>
+        <v>46.783880748321501</v>
       </c>
       <c r="H15" s="28">
-        <v>6422.0944709425903</v>
+        <v>6335.0161565407998</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15" s="29">
-        <v>7499.82849229985</v>
+        <v>7689.4762894085297</v>
       </c>
       <c r="L15" s="30">
-        <v>20669.653073701</v>
+        <v>21235.903549544801</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="C16" s="25">
-        <v>13.6651834518608</v>
+        <v>13.6644028618093</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="26">
-        <v>19.686136639267598</v>
+        <v>19.681205610441101</v>
       </c>
       <c r="G16" s="27">
-        <v>47.613006776216103</v>
+        <v>47.597157255363598</v>
       </c>
       <c r="H16" s="28">
-        <v>353.07540524052098</v>
+        <v>353.17280160803</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K16" s="29">
-        <v>508.64232419676802</v>
+        <v>508.684250219977</v>
       </c>
       <c r="L16" s="30">
-        <v>1230.20534056153</v>
+        <v>1230.20534058149</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>43</v>
-      </c>
       <c r="C17" s="40">
-        <v>16.619083229514999</v>
+        <v>16.8138431261</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="41">
-        <v>18.4272226454239</v>
+        <v>18.4207532760643</v>
       </c>
       <c r="G17" s="42">
-        <v>55.9559847220713</v>
+        <v>55.913332442830601</v>
       </c>
       <c r="H17" s="43">
-        <v>1960.39519063435</v>
+        <v>1984.06572254808</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K17" s="44">
-        <v>2173.6842009841498</v>
+        <v>2173.6842008369399</v>
       </c>
       <c r="L17" s="45">
-        <v>6600.5953409957801</v>
+        <v>6597.8804192035605</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>45</v>
-      </c>
       <c r="C18" s="40">
-        <v>23.896327434401002</v>
+        <v>24.901547995848802</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="41">
-        <v>22.170761474027099</v>
+        <v>23.1033945473655</v>
       </c>
       <c r="G18" s="42">
-        <v>103.639395834304</v>
+        <v>107.921349357267</v>
       </c>
       <c r="H18" s="43">
-        <v>3020.7707692000799</v>
+        <v>3020.7707693022799</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18" s="44">
-        <v>2802.63937525541</v>
+        <v>2802.6393753502298</v>
       </c>
       <c r="L18" s="45">
-        <v>13101.2122399665</v>
+        <v>13091.782791031201</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" s="18">
-        <v>13.818602871006799</v>
+        <v>13.7677266444173</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="19">
-        <v>14.7999886335492</v>
+        <v>14.6206210650994</v>
       </c>
       <c r="G19" s="20">
-        <v>16.103502685106299</v>
+        <v>16.294160141509298</v>
       </c>
       <c r="H19" s="21">
-        <v>7814.8451972761004</v>
+        <v>7780.9389767200701</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K19" s="22">
-        <v>8369.8490485822695</v>
+        <v>8262.9589653725707</v>
       </c>
       <c r="L19" s="23">
-        <v>9107.0263609693393</v>
+        <v>9208.7727344149807</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>49</v>
-      </c>
       <c r="C20" s="40">
-        <v>15.300364506511499</v>
+        <v>15.300364506399101</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="41">
-        <v>12.659415363760401</v>
+        <v>12.659415363745399</v>
       </c>
       <c r="G20" s="42">
-        <v>42.804695883577899</v>
+        <v>42.619021915843199</v>
       </c>
       <c r="H20" s="43">
-        <v>1877.2619039106501</v>
+        <v>1877.2619039199301</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K20" s="44">
-        <v>1553.2334656507501</v>
+        <v>1553.23346566801</v>
       </c>
       <c r="L20" s="45">
-        <v>5251.8765063750097</v>
+        <v>5229.0954370060899</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>51</v>
-      </c>
       <c r="C21" s="40">
-        <v>14.731410308199401</v>
+        <v>14.7314103081328</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="41">
-        <v>16.583032170272801</v>
+        <v>16.5830321695558</v>
       </c>
       <c r="G21" s="42">
-        <v>65.771360789365602</v>
+        <v>65.771360787737905</v>
       </c>
       <c r="H21" s="43">
-        <v>2981.9653800947199</v>
+        <v>2981.9653800547198</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K21" s="44">
-        <v>3356.7748636548999</v>
+        <v>3356.77486347992</v>
       </c>
       <c r="L21" s="45">
-        <v>13313.5875501644</v>
+        <v>13313.5875497165</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>53</v>
-      </c>
       <c r="C22" s="25">
-        <v>27.700026456000199</v>
+        <v>27.020542459754498</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="26">
-        <v>26.1646336880594</v>
+        <v>25.522813006891202</v>
       </c>
       <c r="G22" s="27">
-        <v>72.377878437575006</v>
+        <v>70.602442946783199</v>
       </c>
       <c r="H22" s="28">
-        <v>143.43738904526199</v>
+        <v>143.43738904447201</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K22" s="29">
-        <v>135.48675657412599</v>
+        <v>135.48675657535301</v>
       </c>
       <c r="L22" s="30">
-        <v>374.79003582223402</v>
+        <v>374.79003582298401</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="33">
-        <v>15.253239885847901</v>
+        <v>15.3069843161683</v>
       </c>
       <c r="D23" s="34">
-        <v>10.1641438811345</v>
+        <v>10.2106753100253</v>
       </c>
       <c r="E23" s="34">
-        <v>1.2799747814278399</v>
+        <v>1.309662705696</v>
       </c>
       <c r="F23" s="34">
-        <v>16.560395473404501</v>
+        <v>16.759065359601699</v>
       </c>
       <c r="G23" s="35">
-        <v>42.795285710578597</v>
+        <v>43.4335751520494</v>
       </c>
       <c r="H23" s="36">
-        <v>25366.2824296371</v>
+        <v>25318.683428619199</v>
       </c>
       <c r="I23" s="37">
-        <v>16909.142790547401</v>
+        <v>16867.910408904801</v>
       </c>
       <c r="J23" s="37">
-        <v>2130.8414543507902</v>
+        <v>2140.85215158336</v>
       </c>
       <c r="K23" s="37">
-        <v>27333.851228262702</v>
+        <v>27500.901946116501</v>
       </c>
       <c r="L23" s="38">
-        <v>71879.402144469801</v>
+        <v>72512.528078262694</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>56</v>
-      </c>
       <c r="C24" s="25">
-        <v>17.049485824005799</v>
+        <v>17.0415727887756</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="26">
-        <v>19.7682572189204</v>
+        <v>19.825696827161401</v>
       </c>
       <c r="G24" s="27">
-        <v>25.998639904773501</v>
+        <v>25.3762934030004</v>
       </c>
       <c r="H24" s="28">
-        <v>218.96481105579201</v>
+        <v>219.035826889605</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K24" s="29">
-        <v>253.881715350533</v>
+        <v>254.82025350735901</v>
       </c>
       <c r="L24" s="30">
-        <v>333.89788602544297</v>
+        <v>326.16223149194201</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="24" t="s">
-        <v>58</v>
-      </c>
       <c r="C25" s="25">
-        <v>20.082122005489399</v>
+        <v>20.082122005614899</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="26">
-        <v>23.471422306720701</v>
+        <v>22.997553041984698</v>
       </c>
       <c r="G25" s="27">
-        <v>45.952509049377802</v>
+        <v>40.971488221904501</v>
       </c>
       <c r="H25" s="28">
-        <v>677.23004034810197</v>
+        <v>677.23004034413498</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K25" s="29">
-        <v>791.527522413356</v>
+        <v>775.54721408848695</v>
       </c>
       <c r="L25" s="30">
-        <v>1549.6579270407699</v>
+        <v>1381.68280292898</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>60</v>
-      </c>
       <c r="C26" s="25">
-        <v>33.4643556391079</v>
+        <v>33.296160052062703</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="26">
-        <v>37.572843191646399</v>
+        <v>37.383997888588802</v>
       </c>
       <c r="G26" s="27">
-        <v>176.2496245616</v>
+        <v>175.36377427759001</v>
       </c>
       <c r="H26" s="28">
-        <v>736.49574322213095</v>
+        <v>736.49574320428496</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K26" s="29">
-        <v>826.91683562737398</v>
+        <v>826.91683563065999</v>
       </c>
       <c r="L26" s="30">
-        <v>3878.9660148847602</v>
+        <v>3878.9660148717799</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>62</v>
-      </c>
       <c r="C27" s="25">
-        <v>11.0307630824614</v>
+        <v>11.0307630824447</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="26">
-        <v>13.7975867556825</v>
+        <v>13.797586755709</v>
       </c>
       <c r="G27" s="27">
-        <v>52.949518926349597</v>
+        <v>53.787937107347901</v>
       </c>
       <c r="H27" s="28">
-        <v>10950.175060362801</v>
+        <v>10950.1750603739</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K27" s="29">
-        <v>13696.7850053355</v>
+        <v>13696.785005396599</v>
       </c>
       <c r="L27" s="30">
-        <v>52562.6828598465</v>
+        <v>53394.975765476302</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>64</v>
-      </c>
       <c r="C28" s="25">
-        <v>16.819897620324099</v>
+        <v>16.72115918123</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="26">
-        <v>24.835239522368699</v>
+        <v>23.860903799442099</v>
       </c>
       <c r="G28" s="27">
-        <v>67.834374975719598</v>
+        <v>66.967592072165601</v>
       </c>
       <c r="H28" s="28">
-        <v>18589.259275731602</v>
+        <v>18451.306027002898</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K28" s="29">
-        <v>27447.7715071438</v>
+        <v>26329.8036525239</v>
       </c>
       <c r="L28" s="30">
-        <v>74970.181905694102</v>
+        <v>73896.762887232297</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>66</v>
-      </c>
       <c r="C29" s="25">
-        <v>11.2385779100828</v>
+        <v>11.2093445248381</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="26">
-        <v>14.1106731080482</v>
+        <v>13.9979179262135</v>
       </c>
       <c r="G29" s="27">
-        <v>53.127950299868097</v>
+        <v>52.323485548539402</v>
       </c>
       <c r="H29" s="28">
-        <v>1605.27052265515</v>
+        <v>1631.4925335169901</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K29" s="29">
-        <v>2015.5083477999999</v>
+        <v>2037.3625354093399</v>
       </c>
       <c r="L29" s="30">
-        <v>7588.56976637159</v>
+        <v>7615.5546660975997</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>68</v>
-      </c>
       <c r="C30" s="25">
-        <v>25.184421877956101</v>
+        <v>26.380066575697999</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="26">
-        <v>31.6022724618613</v>
+        <v>30.8262616679866</v>
       </c>
       <c r="G30" s="27">
-        <v>99.083861799786803</v>
+        <v>97.052884424504697</v>
       </c>
       <c r="H30" s="28">
-        <v>2809.73454533833</v>
+        <v>3027.9717036947</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K30" s="29">
-        <v>3525.7508422302599</v>
+        <v>3538.3173804170901</v>
       </c>
       <c r="L30" s="30">
-        <v>11054.426849006701</v>
+        <v>11139.979004832299</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>70</v>
-      </c>
       <c r="C31" s="25">
-        <v>24.561063555372801</v>
+        <v>24.561059789713401</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="26">
-        <v>31.560050943896201</v>
+        <v>31.560050943450001</v>
       </c>
       <c r="G31" s="27">
-        <v>66.575018525219306</v>
+        <v>66.575018525483102</v>
       </c>
       <c r="H31" s="28">
-        <v>2718.18180754987</v>
+        <v>2718.1813908940999</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K31" s="29">
-        <v>3492.7622791106601</v>
+        <v>3492.7622791783801</v>
       </c>
       <c r="L31" s="30">
-        <v>7367.8814349617396</v>
+        <v>7367.8814352379504</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>72</v>
-      </c>
       <c r="C32" s="25">
-        <v>33.997562356123403</v>
+        <v>33.997562356270599</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" s="26">
-        <v>39.8245785505461</v>
+        <v>39.532309311577698</v>
       </c>
       <c r="G32" s="27">
-        <v>72.850867680744798</v>
+        <v>72.852614889577097</v>
       </c>
       <c r="H32" s="28">
-        <v>495.38344238934599</v>
+        <v>495.38344238247498</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K32" s="29">
-        <v>580.28974570058006</v>
+        <v>576.03104795794604</v>
       </c>
       <c r="L32" s="30">
-        <v>1061.5206241761</v>
+        <v>1061.5460829916501</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>74</v>
-      </c>
       <c r="C33" s="25">
-        <v>4.93623655112743</v>
+        <v>4.9362365511782702</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" s="26">
-        <v>6.0329150915049796</v>
+        <v>6.0329150915476202</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="28">
-        <v>376.53612412000001</v>
+        <v>376.53612412387798</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K33" s="29">
-        <v>460.19076317999998</v>
+        <v>460.19076318325199</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>76</v>
-      </c>
       <c r="C34" s="18">
-        <v>43.051162794834397</v>
+        <v>34.7785893894726</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="19">
-        <v>38.738205066381397</v>
+        <v>44.147101100922498</v>
       </c>
       <c r="G34" s="20">
-        <v>64.691952872797501</v>
+        <v>58.522755516714803</v>
       </c>
       <c r="H34" s="21">
-        <v>2224.2783919194399</v>
+        <v>2064.1382720797401</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K34" s="22">
-        <v>2001.4454169687399</v>
+        <v>2620.1672518486598</v>
       </c>
       <c r="L34" s="23">
-        <v>3342.3699515800199</v>
+        <v>3473.37432512953</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>78</v>
-      </c>
       <c r="C35" s="25">
-        <v>9.3638955833955002</v>
+        <v>9.4739802717458197</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="26">
-        <v>9.6455567787371308</v>
+        <v>9.7589527582731996</v>
       </c>
       <c r="G35" s="27">
-        <v>181.973578531134</v>
+        <v>187.903807044508</v>
       </c>
       <c r="H35" s="28">
-        <v>3290.4961179186098</v>
+        <v>3291.1082852890499</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K35" s="29">
-        <v>3389.47256010399</v>
+        <v>3390.1031411561999</v>
       </c>
       <c r="L35" s="30">
-        <v>63945.966546470503</v>
+        <v>65274.758703669599</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>80</v>
-      </c>
       <c r="C36" s="25">
-        <v>14.415052910302601</v>
+        <v>14.3635434746779</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="26">
-        <v>17.514796395567501</v>
+        <v>17.791596848358001</v>
       </c>
       <c r="G36" s="27">
-        <v>40.670814390472401</v>
+        <v>42.099448485802696</v>
       </c>
       <c r="H36" s="28">
-        <v>10135.1099000129</v>
+        <v>10045.5850181564</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K36" s="29">
-        <v>12314.5150732367</v>
+        <v>12443.099369179299</v>
       </c>
       <c r="L36" s="30">
-        <v>28595.328517723101</v>
+        <v>29443.541541626</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="C37" s="25">
-        <v>14.065107283634401</v>
+        <v>14.0711760922569</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F37" s="26">
-        <v>21.806244685939799</v>
+        <v>21.564788032155398</v>
       </c>
       <c r="G37" s="27">
-        <v>51.763298597642297</v>
+        <v>50.638390407973297</v>
       </c>
       <c r="H37" s="28">
-        <v>6042.2925407990097</v>
+        <v>6042.2925408076599</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K37" s="29">
-        <v>9367.8424879135491</v>
+        <v>9260.1184873589009</v>
       </c>
       <c r="L37" s="30">
-        <v>22237.227679565</v>
+        <v>21744.590973385199</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="33">
-        <v>13.990450493016301</v>
+        <v>13.8350464988727</v>
       </c>
       <c r="D38" s="34">
-        <v>10.2905852961026</v>
+        <v>10.3654774887057</v>
       </c>
       <c r="E38" s="34">
-        <v>0.86250255933313003</v>
+        <v>0.82454230211613999</v>
       </c>
       <c r="F38" s="34">
-        <v>18.179261601855401</v>
+        <v>17.909198502980502</v>
       </c>
       <c r="G38" s="35">
-        <v>77.007067048658598</v>
+        <v>78.012998381549906</v>
       </c>
       <c r="H38" s="36">
-        <v>60869.408323422998</v>
+        <v>60726.932008759897</v>
       </c>
       <c r="I38" s="37">
-        <v>45438.630303518497</v>
+        <v>45645.780395005298</v>
       </c>
       <c r="J38" s="37">
-        <v>3478.4295086102502</v>
+        <v>3265.3637112811898</v>
       </c>
       <c r="K38" s="37">
-        <v>80164.6601021151</v>
+        <v>79702.025216836002</v>
       </c>
       <c r="L38" s="38">
-        <v>278488.67796334601</v>
+        <v>279999.77643497102</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="46" t="s">
-        <v>85</v>
-      </c>
       <c r="C39" s="40">
-        <v>29.910033376472999</v>
+        <v>29.831733795908399</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="41">
-        <v>37.128251935608397</v>
+        <v>37.031056238196001</v>
       </c>
       <c r="G39" s="42">
-        <v>62.986813545852897</v>
+        <v>62.821924358021299</v>
       </c>
       <c r="H39" s="43">
-        <v>48666.857563174497</v>
+        <v>48666.857562589597</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K39" s="44">
-        <v>60411.679444704998</v>
+        <v>60411.679443978901</v>
       </c>
       <c r="L39" s="45">
-        <v>102486.354482154</v>
+        <v>102486.35447930099</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>87</v>
-      </c>
       <c r="C40" s="25">
-        <v>19.007512578203301</v>
+        <v>18.587899025978899</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" s="26">
-        <v>25.965351776109301</v>
+        <v>25.543197610721698</v>
       </c>
       <c r="G40" s="27">
-        <v>89.196184672721898</v>
+        <v>89.902601341717798</v>
       </c>
       <c r="H40" s="28">
-        <v>80429.433003753496</v>
+        <v>78682.638572714393</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K40" s="29">
-        <v>109871.216052242</v>
+        <v>108124.440679761</v>
       </c>
       <c r="L40" s="30">
-        <v>377429.63629822002</v>
+        <v>380558.01132934599</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="46" t="s">
         <v>88</v>
-      </c>
-      <c r="B41" s="46" t="s">
-        <v>89</v>
       </c>
       <c r="C41" s="40">
         <v>59.981134507779302</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" s="41">
         <v>48.711757199638598</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41" s="43">
-        <v>23397.130338288898</v>
+        <v>23397.130338097599</v>
       </c>
       <c r="I41" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K41" s="44">
-        <v>19001.229996061698</v>
+        <v>19001.2299959064</v>
       </c>
       <c r="L41" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="46" t="s">
-        <v>91</v>
-      </c>
       <c r="C42" s="40">
-        <v>21.969016226508799</v>
+        <v>21.969016226382401</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="41">
-        <v>19.171529377271</v>
+        <v>19.171529377251801</v>
       </c>
       <c r="G42" s="42">
-        <v>51.662994891002299</v>
+        <v>50.919113467960699</v>
       </c>
       <c r="H42" s="43">
-        <v>2173.0774938570798</v>
+        <v>2173.07749385528</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K42" s="44">
-        <v>1896.36252179091</v>
+        <v>1896.3625217983499</v>
       </c>
       <c r="L42" s="45">
-        <v>5110.2739560738</v>
+        <v>5036.6925102184896</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="24" t="s">
-        <v>93</v>
-      </c>
       <c r="C43" s="25">
-        <v>24.1814095801594</v>
+        <v>25.1080897138498</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="26">
-        <v>30.122911114243301</v>
+        <v>31.049591247266299</v>
       </c>
       <c r="G43" s="27">
         <v>68.940329586638398</v>
       </c>
       <c r="H43" s="28">
-        <v>34547.153617426098</v>
+        <v>35871.069862060598</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J43" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K43" s="29">
-        <v>43035.5738451941</v>
+        <v>44359.490089154198</v>
       </c>
       <c r="L43" s="30">
-        <v>98492.693272096702</v>
+        <v>98492.693275334401</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>95</v>
-      </c>
       <c r="C44" s="25">
-        <v>25.591123516744801</v>
+        <v>25.675068285899801</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="26">
-        <v>33.1837829310195</v>
+        <v>33.292633368789801</v>
       </c>
       <c r="G44" s="27">
-        <v>81.785450939344102</v>
+        <v>79.941867979708903</v>
       </c>
       <c r="H44" s="28">
-        <v>11987.281706322499</v>
+        <v>11987.281706269699</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J44" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K44" s="29">
-        <v>15543.801889561801</v>
+        <v>15543.801889493299</v>
       </c>
       <c r="L44" s="30">
-        <v>38309.581806638897</v>
+        <v>37323.588818825498</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="33">
-        <v>24.538620712783</v>
+        <v>24.382722021211801</v>
       </c>
       <c r="D45" s="34">
-        <v>16.614289352504802</v>
+        <v>16.568620765390701</v>
       </c>
       <c r="E45" s="34">
-        <v>6.8004378120830003E-2</v>
+        <v>6.8040272837110005E-2</v>
       </c>
       <c r="F45" s="34">
-        <v>30.337511193812499</v>
+        <v>30.1760774486605</v>
       </c>
       <c r="G45" s="35">
-        <v>80.027081927689494</v>
+        <v>80.380560905202003</v>
       </c>
       <c r="H45" s="36">
-        <v>201200.93372282301</v>
+        <v>200778.05553558699</v>
       </c>
       <c r="I45" s="37">
-        <v>132746.50260228099</v>
+        <v>132746.50260268999</v>
       </c>
       <c r="J45" s="37">
-        <v>620.95696743784595</v>
+        <v>620.95696744174802</v>
       </c>
       <c r="K45" s="37">
-        <v>249759.86374955499</v>
+        <v>249337.00462009199</v>
       </c>
       <c r="L45" s="38">
-        <v>621828.53981518303</v>
+        <v>623897.340413025</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="24" t="s">
-        <v>98</v>
-      </c>
       <c r="C46" s="25">
-        <v>14.1461351889951</v>
+        <v>14.1461351892211</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" s="26">
-        <v>19.854932155842299</v>
+        <v>19.854932156226699</v>
       </c>
       <c r="G46" s="27">
-        <v>49.937150020399798</v>
+        <v>50.288956150632899</v>
       </c>
       <c r="H46" s="28">
-        <v>2503.7785418336898</v>
+        <v>2503.7785418256299</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J46" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K46" s="29">
-        <v>3514.2003393290902</v>
+        <v>3514.20033932967</v>
       </c>
       <c r="L46" s="30">
-        <v>8838.5670708614907</v>
+        <v>8900.8345824876506</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>100</v>
-      </c>
       <c r="C47" s="25">
-        <v>21.012971216688701</v>
+        <v>20.318251384628201</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="26">
-        <v>27.373406300230201</v>
+        <v>27.7527120095206</v>
       </c>
       <c r="G47" s="27">
-        <v>52.369085625200903</v>
+        <v>48.209273309188099</v>
       </c>
       <c r="H47" s="28">
-        <v>4012.4041364933901</v>
+        <v>4012.4657803916898</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K47" s="29">
-        <v>5226.9223393656803</v>
+        <v>5480.6294667421098</v>
       </c>
       <c r="L47" s="30">
-        <v>9999.8202833899504</v>
+        <v>9520.4088082606304</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>102</v>
       </c>
       <c r="C48" s="40">
         <v>22.6267835365854</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="41">
-        <v>29.9278422271342</v>
+        <v>29.9278422271382</v>
       </c>
       <c r="G48" s="42">
-        <v>142.29811567581299</v>
+        <v>142.94262460338001</v>
       </c>
       <c r="H48" s="43">
-        <v>477.95637198418302</v>
+        <v>477.956371987686</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K48" s="44">
-        <v>632.18012710766095</v>
+        <v>632.18012711237998</v>
       </c>
       <c r="L48" s="45">
-        <v>3005.8311645854501</v>
+        <v>3019.44543498027</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="C49" s="25">
-        <v>15.8901563841175</v>
+        <v>15.520032318800199</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" s="26">
-        <v>20.859456788124401</v>
+        <v>20.345840132786599</v>
       </c>
       <c r="G49" s="27">
-        <v>52.135781280095301</v>
+        <v>50.852288537898602</v>
       </c>
       <c r="H49" s="28">
-        <v>11135.826280155599</v>
+        <v>11129.7305325911</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J49" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K49" s="29">
-        <v>14618.313468779999</v>
+        <v>14590.415373219999</v>
       </c>
       <c r="L49" s="30">
-        <v>36536.770896454102</v>
+        <v>36467.209395356404</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="24" t="s">
-        <v>106</v>
-      </c>
       <c r="C50" s="25">
-        <v>16.816567341641001</v>
+        <v>16.816567342372601</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" s="26">
-        <v>21.435622377304199</v>
+        <v>21.435622377343101</v>
       </c>
       <c r="G50" s="27">
-        <v>83.776948173026199</v>
+        <v>83.540825161001806</v>
       </c>
       <c r="H50" s="28">
-        <v>342.12321355624101</v>
+        <v>342.123213577255</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K50" s="29">
-        <v>436.09518300098898</v>
+        <v>436.09518300959598</v>
       </c>
       <c r="L50" s="30">
-        <v>1704.3929446836501</v>
+        <v>1699.5891603253399</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>108</v>
-      </c>
       <c r="C51" s="18">
-        <v>14.241793106348901</v>
+        <v>15.2672197808643</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" s="19">
-        <v>25.681323643920098</v>
+        <v>27.363944512759499</v>
       </c>
       <c r="G51" s="20">
-        <v>82.124059624494393</v>
+        <v>79.601111686478404</v>
       </c>
       <c r="H51" s="21">
-        <v>11273.369802826301</v>
+        <v>12085.0663372582</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K51" s="22">
-        <v>20328.553876752499</v>
+        <v>21660.465325863701</v>
       </c>
       <c r="L51" s="23">
-        <v>65006.9051658639</v>
+        <v>63009.816394752299</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>110</v>
-      </c>
       <c r="C52" s="25">
-        <v>13.658970068528101</v>
+        <v>13.6038322023304</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F52" s="26">
-        <v>15.3848428502374</v>
+        <v>15.3227065127172</v>
       </c>
       <c r="G52" s="27">
-        <v>42.542560127453498</v>
+        <v>40.647045345692703</v>
       </c>
       <c r="H52" s="28">
-        <v>2205.4366127369199</v>
+        <v>2197.74194225159</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J52" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K52" s="29">
-        <v>2484.1035255869601</v>
+        <v>2475.43150128252</v>
       </c>
       <c r="L52" s="30">
-        <v>6869.1064724441803</v>
+        <v>6566.6582074960097</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="C53" s="25">
-        <v>19.340931472743101</v>
+        <v>19.086445532168799</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="26">
-        <v>25.034012699161401</v>
+        <v>24.704617795766801</v>
       </c>
       <c r="G53" s="27">
-        <v>78.521567720524004</v>
+        <v>78.891458517053707</v>
       </c>
       <c r="H53" s="28">
-        <v>329.32942791409801</v>
+        <v>329.32942791894402</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K53" s="29">
-        <v>426.26887397992402</v>
+        <v>426.26887399875</v>
       </c>
       <c r="L53" s="30">
-        <v>1337.0329662127001</v>
+        <v>1361.2423988176799</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="24" t="s">
-        <v>114</v>
-      </c>
       <c r="C54" s="25">
-        <v>27.2851652458545</v>
+        <v>27.283920744518301</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="26">
-        <v>29.697154797150699</v>
+        <v>29.697929918117602</v>
       </c>
       <c r="G54" s="27">
-        <v>53.174544524800702</v>
+        <v>53.271983457838203</v>
       </c>
       <c r="H54" s="28">
-        <v>957.35552345999997</v>
+        <v>957.35552346198403</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K54" s="29">
-        <v>1041.9850831000001</v>
+        <v>1042.0598090987</v>
       </c>
       <c r="L54" s="30">
-        <v>1865.7370570999999</v>
+        <v>1869.2411580686601</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="C55" s="25">
-        <v>22.187691565563799</v>
+        <v>21.617208828126302</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F55" s="26">
-        <v>27.1436256250166</v>
+        <v>26.445717516523999</v>
       </c>
       <c r="G55" s="27">
-        <v>51.946575838133001</v>
+        <v>50.681405973316501</v>
       </c>
       <c r="H55" s="28">
-        <v>4249.0840143547803</v>
+        <v>4249.0840144036201</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J55" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K55" s="29">
-        <v>5198.17689884847</v>
+        <v>5198.1768988922604</v>
       </c>
       <c r="L55" s="30">
-        <v>9948.0995732270803</v>
+        <v>9961.9499289161904</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="24" t="s">
-        <v>118</v>
-      </c>
       <c r="C56" s="25">
-        <v>18.3103869548505</v>
+        <v>18.354658195446799</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="26">
-        <v>24.203437446861098</v>
+        <v>24.2600872353276</v>
       </c>
       <c r="G56" s="27">
-        <v>51.2139348580098</v>
+        <v>51.337607835031697</v>
       </c>
       <c r="H56" s="28">
-        <v>2739.0033551807601</v>
+        <v>2739.0158818250502</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J56" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K56" s="29">
-        <v>3620.52951351194</v>
+        <v>3620.2670474412498</v>
       </c>
       <c r="L56" s="30">
-        <v>7660.9598559542201</v>
+        <v>7660.9720376018604</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="46" t="s">
-        <v>120</v>
-      </c>
       <c r="C57" s="40">
-        <v>7.2516763595520803</v>
+        <v>7.3103890751864098</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F57" s="41">
-        <v>13.2965477766503</v>
+        <v>13.339366592761101</v>
       </c>
       <c r="G57" s="42">
-        <v>36.6281101874943</v>
+        <v>36.509543688215501</v>
       </c>
       <c r="H57" s="43">
-        <v>32019.155938565302</v>
+        <v>32269.832609167701</v>
       </c>
       <c r="I57" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J57" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K57" s="44">
-        <v>58709.7680034148</v>
+        <v>58883.203429189198</v>
       </c>
       <c r="L57" s="45">
-        <v>161728.28373448999</v>
+        <v>161161.991699568</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>122</v>
-      </c>
       <c r="C58" s="25">
-        <v>19.441824320125299</v>
+        <v>19.442363680077101</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F58" s="26">
-        <v>25.738908873947398</v>
+        <v>25.743555557231801</v>
       </c>
       <c r="G58" s="27">
-        <v>73.157298348456195</v>
+        <v>73.157298346681301</v>
       </c>
       <c r="H58" s="28">
-        <v>5373.6587213458597</v>
+        <v>5373.8077987195302</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J58" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K58" s="29">
-        <v>7114.1529658427598</v>
+        <v>7115.4372943852504</v>
       </c>
       <c r="L58" s="30">
-        <v>20220.445768216301</v>
+        <v>20220.445767687099</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>124</v>
-      </c>
       <c r="C59" s="25">
-        <v>20.937650340508299</v>
+        <v>20.937650340440001</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F59" s="26">
-        <v>28.253692928208899</v>
+        <v>28.253692928786201</v>
       </c>
       <c r="G59" s="27">
-        <v>79.285873836733501</v>
+        <v>79.285873836597403</v>
       </c>
       <c r="H59" s="28">
-        <v>868.46664188348598</v>
+        <v>868.46664189107105</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J59" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K59" s="29">
-        <v>1171.9266211402901</v>
+        <v>1171.9266211782899</v>
       </c>
       <c r="L59" s="30">
-        <v>3288.6754473383799</v>
+        <v>3288.6754473721699</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>126</v>
-      </c>
       <c r="C60" s="18">
-        <v>16.969180524000901</v>
+        <v>16.946706383829401</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="19">
-        <v>22.9519572082223</v>
+        <v>21.549209033843599</v>
       </c>
       <c r="G60" s="20">
-        <v>63.745264105017803</v>
+        <v>63.745264103738599</v>
       </c>
       <c r="H60" s="21">
-        <v>1430.5680340035101</v>
+        <v>1428.67337641468</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K60" s="22">
-        <v>1934.93941875737</v>
+        <v>1816.68228221762</v>
       </c>
       <c r="L60" s="23">
-        <v>5373.9741302633702</v>
+        <v>5373.9741301256199</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="31"/>
       <c r="B61" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" s="33">
-        <v>10.872213301116799</v>
+        <v>10.9516286801092</v>
       </c>
       <c r="D61" s="34">
-        <v>7.7697061602689299</v>
+        <v>7.7199163164864002</v>
       </c>
       <c r="E61" s="34">
-        <v>0.49518772002280997</v>
+        <v>0.49106887315683001</v>
       </c>
       <c r="F61" s="34">
-        <v>17.270297825462301</v>
+        <v>17.407840957428299</v>
       </c>
       <c r="G61" s="35">
-        <v>46.856583767525798</v>
+        <v>46.228136316192</v>
       </c>
       <c r="H61" s="36">
-        <v>79917.516616294102</v>
+        <v>80964.427993685706</v>
       </c>
       <c r="I61" s="37">
-        <v>57461.179009138599</v>
+        <v>57445.791107076599</v>
       </c>
       <c r="J61" s="37">
-        <v>3724.9842575457901</v>
+        <v>3719.4016866299098</v>
       </c>
       <c r="K61" s="37">
-        <v>126458.11623851801</v>
+        <v>128063.439572961</v>
       </c>
       <c r="L61" s="38">
-        <v>343384.60253108502</v>
+        <v>340082.45455181599</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="47"/>
       <c r="B62" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" s="49">
-        <v>19.184221281445101</v>
+        <v>19.1257418776419</v>
       </c>
       <c r="D62" s="50">
-        <v>14.076748844724101</v>
+        <v>14.0446540384548</v>
       </c>
       <c r="E62" s="50">
-        <v>0.38041725091708001</v>
+        <v>0.37811046805312998</v>
       </c>
       <c r="F62" s="50">
-        <v>24.3944637425774</v>
+        <v>24.267732075188</v>
       </c>
       <c r="G62" s="51">
-        <v>68.0883754583041</v>
+        <v>68.108138977844206</v>
       </c>
       <c r="H62" s="52">
-        <v>526199.195153062</v>
+        <v>527570.42165572406</v>
       </c>
       <c r="I62" s="53">
-        <v>390821.961788685</v>
+        <v>391027.04758054001</v>
       </c>
       <c r="J62" s="53">
-        <v>10733.0963451344</v>
+        <v>10634.583571044899</v>
       </c>
       <c r="K62" s="53">
-        <v>671165.55206122505</v>
+        <v>670881.05227317498</v>
       </c>
       <c r="L62" s="54">
-        <v>1757239.6587040999</v>
+        <v>1757024.63195693</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="47"/>
       <c r="B63" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" s="56">
-        <v>30.556320287261901</v>
+        <v>30.6549009989007</v>
       </c>
       <c r="D63" s="57">
-        <v>18.935773807090001</v>
+        <v>18.9615969086408</v>
       </c>
       <c r="E63" s="57">
-        <v>9.1459061280850004E-2</v>
+        <v>0.10547499209961</v>
       </c>
       <c r="F63" s="57">
-        <v>36.700586791240902</v>
+        <v>36.8744654695303</v>
       </c>
       <c r="G63" s="58">
-        <v>87.905084461904806</v>
+        <v>87.640264454458404</v>
       </c>
       <c r="H63" s="59">
-        <v>30201978.2124166</v>
+        <v>30385795.901722599</v>
       </c>
       <c r="I63" s="60">
-        <v>16783813.2121232</v>
+        <v>16891741.339507502</v>
       </c>
       <c r="J63" s="60">
-        <v>70097.759098854396</v>
+        <v>85822.024039857206</v>
       </c>
       <c r="K63" s="60">
-        <v>36251027.513916202</v>
+        <v>36541006.760176398</v>
       </c>
       <c r="L63" s="61">
-        <v>90103734.758437604</v>
+        <v>89829745.410766304</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="62"/>
       <c r="B64" s="63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" s="49">
-        <v>26.833402451024899</v>
+        <v>28.657809938986301</v>
       </c>
       <c r="D64" s="50">
-        <v>18.3134036808509</v>
+        <v>18.898887330797301</v>
       </c>
       <c r="E64" s="50">
-        <v>5.855795912411E-2</v>
+        <v>5.7943903698099999E-2</v>
       </c>
       <c r="F64" s="50">
-        <v>31.295581090774999</v>
+        <v>33.127505063985801</v>
       </c>
       <c r="G64" s="51">
-        <v>73.015611241119501</v>
+        <v>72.735931580115206</v>
       </c>
       <c r="H64" s="52">
-        <v>1348897.0425988301</v>
+        <v>1449599.928389</v>
       </c>
       <c r="I64" s="53">
-        <v>920000.262550688</v>
+        <v>955895.00206853496</v>
       </c>
       <c r="J64" s="53">
-        <v>1768.0038830533099</v>
+        <v>1752.8489563466801</v>
       </c>
       <c r="K64" s="53">
-        <v>1572548.77038466</v>
+        <v>1674468.2264791001</v>
       </c>
       <c r="L64" s="54">
-        <v>3609856.3119527502</v>
+        <v>3611556.1399519802</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="62"/>
       <c r="B65" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" s="64">
-        <v>22.336690128579299</v>
+        <v>22.284977487455599</v>
       </c>
       <c r="D65" s="65">
-        <v>14.4740803341309</v>
+        <v>14.3864366969546</v>
       </c>
       <c r="E65" s="65">
-        <v>2.8682738753370001E-2</v>
+        <v>2.9273682836550002E-2</v>
       </c>
       <c r="F65" s="65">
-        <v>28.914625150501099</v>
+        <v>28.775974608906601</v>
       </c>
       <c r="G65" s="66">
-        <v>68.606072015646504</v>
+        <v>68.914918305350497</v>
       </c>
       <c r="H65" s="67">
-        <v>6210013.5034138197</v>
+        <v>6101470.9852690697</v>
       </c>
       <c r="I65" s="68">
-        <v>3739105.5339047699</v>
+        <v>3657052.5022327802</v>
       </c>
       <c r="J65" s="68">
-        <v>4625.2352858929999</v>
+        <v>4831.1167965319801</v>
       </c>
       <c r="K65" s="68">
-        <v>7892921.6226776103</v>
+        <v>7706783.4319857601</v>
       </c>
       <c r="L65" s="69">
-        <v>18264364.858852699</v>
+        <v>17778726.008793499</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="62"/>
       <c r="B66" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="71">
-        <v>29.969757703721299</v>
+        <v>30.062828204258299</v>
       </c>
       <c r="D66" s="72">
-        <v>18.670332262753998</v>
+        <v>18.694329714749699</v>
       </c>
       <c r="E66" s="72">
-        <v>0.10788720012564</v>
+        <v>0.12089135881713001</v>
       </c>
       <c r="F66" s="72">
-        <v>36.065848092158099</v>
+        <v>36.227054518428403</v>
       </c>
       <c r="G66" s="73">
-        <v>86.904598979852807</v>
+        <v>86.658456253423907</v>
       </c>
       <c r="H66" s="74">
-        <v>30728177.407569699</v>
+        <v>30913366.323378298</v>
       </c>
       <c r="I66" s="75">
-        <v>17174635.173911899</v>
+        <v>17282768.387088101</v>
       </c>
       <c r="J66" s="75">
-        <v>80830.855443988796</v>
+        <v>96456.607610902094</v>
       </c>
       <c r="K66" s="75">
-        <v>36922193.065977402</v>
+        <v>37211887.8124495</v>
       </c>
       <c r="L66" s="76">
-        <v>91860974.417141706</v>
+        <v>91586770.042723194</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="62"/>
       <c r="B67" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C67" s="78">
-        <v>19.300482233720899</v>
+        <v>19.072273016724001</v>
       </c>
       <c r="D67" s="79">
-        <v>12.1869877189355</v>
+        <v>12.186401393668101</v>
       </c>
       <c r="E67" s="79">
-        <v>0.48381754391971998</v>
+        <v>0.47673970479446998</v>
       </c>
       <c r="F67" s="79">
-        <v>24.323690290921601</v>
+        <v>23.9730606540144</v>
       </c>
       <c r="G67" s="80">
-        <v>83.936864360246901</v>
+        <v>84.128767271351705</v>
       </c>
       <c r="H67" s="81">
-        <v>186494.95702354299</v>
+        <v>184871.06265407</v>
       </c>
       <c r="I67" s="82">
-        <v>117216.776595955</v>
+        <v>117609.81253528</v>
       </c>
       <c r="J67" s="82">
-        <v>5267.0657845199403</v>
+        <v>5145.92515766204</v>
       </c>
       <c r="K67" s="82">
-        <v>236992.05472971601</v>
+        <v>234023.31868530501</v>
       </c>
       <c r="L67" s="83">
-        <v>730859.75049992499</v>
+        <v>732120.34925125702</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="62"/>
       <c r="B68" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C68" s="64">
-        <v>16.968200046957001</v>
+        <v>16.9452806822372</v>
       </c>
       <c r="D68" s="65">
-        <v>10.7973687752504</v>
+        <v>10.785922990236401</v>
       </c>
       <c r="E68" s="65">
-        <v>0.31206229852303002</v>
+        <v>0.31162606658757003</v>
       </c>
       <c r="F68" s="65">
-        <v>22.545842482325099</v>
+        <v>22.5493270418782</v>
       </c>
       <c r="G68" s="66">
-        <v>71.808409848956103</v>
+        <v>72.002804312095094</v>
       </c>
       <c r="H68" s="67">
-        <v>238629.474313037</v>
+        <v>239277.95861524099</v>
       </c>
       <c r="I68" s="68">
-        <v>153202.74290808299</v>
+        <v>153216.38906856999</v>
       </c>
       <c r="J68" s="68">
-        <v>4802.0508469697497</v>
+        <v>4820.3178112482101</v>
       </c>
       <c r="K68" s="68">
-        <v>322536.45125501702</v>
+        <v>323704.47147148597</v>
       </c>
       <c r="L68" s="69">
-        <v>935394.50869840698</v>
+        <v>935294.40940523904</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="62"/>
       <c r="B69" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" s="64">
-        <v>16.608430061290701</v>
+        <v>16.252173158277099</v>
       </c>
       <c r="D69" s="65">
-        <v>12.499077912771</v>
+        <v>12.6079582066134</v>
       </c>
       <c r="E69" s="65">
-        <v>0.87349421438901997</v>
+        <v>0.80379392375628</v>
       </c>
       <c r="F69" s="65">
-        <v>22.792351029036698</v>
+        <v>22.346806646036601</v>
       </c>
       <c r="G69" s="66">
-        <v>56.763435219877302</v>
+        <v>56.464236316187801</v>
       </c>
       <c r="H69" s="67">
-        <v>40501.5586393056</v>
+        <v>40163.557577821601</v>
       </c>
       <c r="I69" s="68">
-        <v>30340.189434148699</v>
+        <v>30370.8662501789</v>
       </c>
       <c r="J69" s="68">
-        <v>2007.61817627652</v>
+        <v>1807.4723404978399</v>
       </c>
       <c r="K69" s="68">
-        <v>55558.049465438002</v>
+        <v>55163.914819294099</v>
       </c>
       <c r="L69" s="69">
-        <v>138743.445185438</v>
+        <v>138156.66138355201</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="62"/>
       <c r="B70" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="64">
-        <v>18.677282696528</v>
+        <v>18.7504949197325</v>
       </c>
       <c r="D70" s="65">
-        <v>14.7329483954222</v>
+        <v>14.7944422987362</v>
       </c>
       <c r="E70" s="65">
-        <v>1.0404310742340801</v>
+        <v>1.05789336343342</v>
       </c>
       <c r="F70" s="65">
-        <v>18.426059510005899</v>
+        <v>18.5655065939449</v>
       </c>
       <c r="G70" s="66">
-        <v>60.169180595178901</v>
+        <v>60.6119661573766</v>
       </c>
       <c r="H70" s="67">
-        <v>45497.659998314499</v>
+        <v>45484.7330562528</v>
       </c>
       <c r="I70" s="68">
-        <v>34991.084451105999</v>
+        <v>34984.524545458102</v>
       </c>
       <c r="J70" s="68">
-        <v>2741.5216817165601</v>
+        <v>2751.5323789723798</v>
       </c>
       <c r="K70" s="68">
-        <v>45406.983764897799</v>
+        <v>45574.034482720002</v>
       </c>
       <c r="L70" s="69">
-        <v>144210.803080104</v>
+        <v>144843.92901432101</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="62"/>
       <c r="B71" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71" s="64">
-        <v>10.872213301116799</v>
+        <v>10.9516286801092</v>
       </c>
       <c r="D71" s="65">
-        <v>7.7697061602689299</v>
+        <v>7.7199163164864002</v>
       </c>
       <c r="E71" s="65">
-        <v>0.49518772002280997</v>
+        <v>0.49106887315683001</v>
       </c>
       <c r="F71" s="65">
-        <v>17.270297825462301</v>
+        <v>17.407840957428299</v>
       </c>
       <c r="G71" s="66">
-        <v>46.856583767525798</v>
+        <v>46.228136316192</v>
       </c>
       <c r="H71" s="67">
-        <v>79917.516616294102</v>
+        <v>80964.427993685706</v>
       </c>
       <c r="I71" s="68">
-        <v>57461.179009138599</v>
+        <v>57445.791107076599</v>
       </c>
       <c r="J71" s="68">
-        <v>3724.9842575457901</v>
+        <v>3719.4016866299098</v>
       </c>
       <c r="K71" s="68">
-        <v>126458.11623851801</v>
+        <v>128063.439572961</v>
       </c>
       <c r="L71" s="69">
-        <v>343384.60253108502</v>
+        <v>340082.45455181599</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="62"/>
       <c r="B72" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C72" s="64">
-        <v>13.2628922018156</v>
+        <v>13.017809664707499</v>
       </c>
       <c r="D72" s="65">
-        <v>9.4246151668560696</v>
+        <v>9.5219289699364396</v>
       </c>
       <c r="E72" s="65">
-        <v>0.75825556487609003</v>
+        <v>0.72653033057620997</v>
       </c>
       <c r="F72" s="65">
-        <v>17.5643359818074</v>
+        <v>17.168561167630799</v>
       </c>
       <c r="G72" s="66">
-        <v>85.354861899501998</v>
+        <v>86.5644075919774</v>
       </c>
       <c r="H72" s="67">
-        <v>42886.763294421602</v>
+        <v>42589.2820932256</v>
       </c>
       <c r="I72" s="68">
-        <v>31046.108482229101</v>
+        <v>31247.034245750601</v>
       </c>
       <c r="J72" s="68">
-        <v>2204.6684661491799</v>
+        <v>2058.8155397261999</v>
       </c>
       <c r="K72" s="68">
-        <v>57981.952098686401</v>
+        <v>57359.632351186599</v>
       </c>
       <c r="L72" s="69">
-        <v>222487.052885082</v>
+        <v>223045.111472694</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="62"/>
       <c r="B73" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C73" s="64">
-        <v>23.503438626148</v>
+        <v>23.4940625500141</v>
       </c>
       <c r="D73" s="65">
-        <v>20.080071484513301</v>
+        <v>19.970752006034601</v>
       </c>
       <c r="E73" s="65">
-        <v>0.39213257293241999</v>
+        <v>0.39411257267978</v>
       </c>
       <c r="F73" s="65">
-        <v>27.5186215203167</v>
+        <v>27.209922879393002</v>
       </c>
       <c r="G73" s="66">
-        <v>66.1923908373779</v>
+        <v>65.745626981264294</v>
       </c>
       <c r="H73" s="67">
-        <v>181924.36247961299</v>
+        <v>182982.73019043301</v>
       </c>
       <c r="I73" s="68">
-        <v>155495.00658004099</v>
+        <v>155578.572671125</v>
       </c>
       <c r="J73" s="68">
-        <v>2908.4296183823299</v>
+        <v>2894.6496444033301</v>
       </c>
       <c r="K73" s="68">
-        <v>214508.85551567399</v>
+        <v>213390.270469012</v>
       </c>
       <c r="L73" s="69">
-        <v>499399.20625429001</v>
+        <v>499328.08874030598</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="62"/>
       <c r="B74" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="64">
-        <v>31.352323725948398</v>
+        <v>31.595369419835301</v>
       </c>
       <c r="D74" s="65">
-        <v>22.373831887513202</v>
+        <v>22.335115185241801</v>
       </c>
       <c r="E74" s="65">
-        <v>9.7132886289000006E-2</v>
+        <v>9.7535922445759995E-2</v>
       </c>
       <c r="F74" s="65">
-        <v>35.723519760919899</v>
+        <v>35.942488042863999</v>
       </c>
       <c r="G74" s="66">
-        <v>67.124986129282505</v>
+        <v>66.829634419518797</v>
       </c>
       <c r="H74" s="67">
-        <v>120771.50071906899</v>
+        <v>122095.416962873</v>
       </c>
       <c r="I74" s="68">
-        <v>79763.742265302004</v>
+        <v>79763.742265985595</v>
       </c>
       <c r="J74" s="68">
-        <v>433.254071571552</v>
+        <v>433.254071576429</v>
       </c>
       <c r="K74" s="68">
-        <v>139888.64769731299</v>
+        <v>141212.56394033099</v>
       </c>
       <c r="L74" s="69">
-        <v>244398.90351696301</v>
+        <v>243339.32908367901</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="62"/>
       <c r="B75" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="71">
-        <v>23.800201795975799</v>
+        <v>23.9669597877805</v>
       </c>
       <c r="D75" s="72">
-        <v>21.417293055647701</v>
+        <v>21.5231533645007</v>
       </c>
       <c r="E75" s="72">
-        <v>0.46095344208241001</v>
+        <v>0.51358367728620002</v>
       </c>
       <c r="F75" s="72">
-        <v>21.5415958324573</v>
+        <v>21.649104155137302</v>
       </c>
       <c r="G75" s="73">
-        <v>90.222570422858894</v>
+        <v>90.710463519797898</v>
       </c>
       <c r="H75" s="74">
-        <v>22721.1889876022</v>
+        <v>22798.569059999001</v>
       </c>
       <c r="I75" s="75">
-        <v>20363.706114674798</v>
+        <v>20380.6597219461</v>
       </c>
       <c r="J75" s="75">
-        <v>485.83302260133098</v>
+        <v>541.51496806408898</v>
       </c>
       <c r="K75" s="75">
-        <v>20707.564143314001</v>
+        <v>20748.4748677883</v>
       </c>
       <c r="L75" s="76">
-        <v>86462.687351350498</v>
+        <v>86632.144209125996</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="62"/>
       <c r="B76" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C76" s="78">
-        <v>16.9138521118653</v>
+        <v>16.934691432422099</v>
       </c>
       <c r="D76" s="79">
-        <v>12.465116291364501</v>
+        <v>12.3742241376202</v>
       </c>
       <c r="E76" s="79">
-        <v>5.7207141686769998E-2</v>
+        <v>5.9367003552790003E-2</v>
       </c>
       <c r="F76" s="79">
-        <v>21.817424449024401</v>
+        <v>21.7933404563829</v>
       </c>
       <c r="G76" s="80">
-        <v>57.516857143128803</v>
+        <v>56.950791879759798</v>
       </c>
       <c r="H76" s="81">
-        <v>574755.64659887506</v>
+        <v>579988.81185688497</v>
       </c>
       <c r="I76" s="82">
-        <v>373808.90266437799</v>
+        <v>374335.74551955302</v>
       </c>
       <c r="J76" s="82">
-        <v>1464.88988563982</v>
+        <v>1523.2619299907301</v>
       </c>
       <c r="K76" s="82">
-        <v>732438.10819011496</v>
+        <v>733402.47187609505</v>
       </c>
       <c r="L76" s="83">
-        <v>2126438.0041222898</v>
+        <v>2129485.39241692</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="62"/>
       <c r="B77" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="64">
-        <v>29.358293848461201</v>
+        <v>31.928229060184901</v>
       </c>
       <c r="D77" s="65">
-        <v>20.686617880087098</v>
+        <v>21.4593528883868</v>
       </c>
       <c r="E77" s="65">
-        <v>2.262863829095E-2</v>
+        <v>2.2435987035479998E-2</v>
       </c>
       <c r="F77" s="65">
-        <v>34.159512334104797</v>
+        <v>36.719318094110001</v>
       </c>
       <c r="G77" s="66">
-        <v>80.942578404127204</v>
+        <v>80.0643133590725</v>
       </c>
       <c r="H77" s="67">
-        <v>963052.89715602505</v>
+        <v>1063726.5682166</v>
       </c>
       <c r="I77" s="68">
-        <v>678374.50753153104</v>
+        <v>714286.22118196997</v>
       </c>
       <c r="J77" s="68">
-        <v>617.40459867894697</v>
+        <v>617.53143006556002</v>
       </c>
       <c r="K77" s="68">
-        <v>1118961.7063338601</v>
+        <v>1221098.7542854</v>
       </c>
       <c r="L77" s="69">
-        <v>2591936.4414142901</v>
+        <v>2593868.1666262602</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="62"/>
       <c r="B78" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" s="64">
-        <v>46.158652765468602</v>
+        <v>46.093375528709799</v>
       </c>
       <c r="D78" s="65">
-        <v>26.542040290823302</v>
+        <v>26.568158029240202</v>
       </c>
       <c r="E78" s="65">
-        <v>0.45653742664524</v>
+        <v>0.55426873648781005</v>
       </c>
       <c r="F78" s="65">
-        <v>50.901454826964901</v>
+        <v>51.0351420350068</v>
       </c>
       <c r="G78" s="66">
-        <v>89.798004336002705</v>
+        <v>89.420034939483301</v>
       </c>
       <c r="H78" s="67">
-        <v>8030341.6912375204</v>
+        <v>8032221.57110833</v>
       </c>
       <c r="I78" s="68">
-        <v>4639529.8946609003</v>
+        <v>4653764.5741235204</v>
       </c>
       <c r="J78" s="68">
-        <v>52637.325816492797</v>
+        <v>68230.220683038395</v>
       </c>
       <c r="K78" s="68">
-        <v>8827637.4909043107</v>
+        <v>8865173.5920157004</v>
       </c>
       <c r="L78" s="69">
-        <v>15414521.446944799</v>
+        <v>15387229.1378369</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="62"/>
       <c r="B79" s="70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79" s="71">
-        <v>36.565031351531701</v>
+        <v>36.668049554346801</v>
       </c>
       <c r="D79" s="72">
-        <v>22.664531321558901</v>
+        <v>22.7883190686318</v>
       </c>
       <c r="E79" s="72">
-        <v>0.11697729346135</v>
+        <v>0.14713499602010999</v>
       </c>
       <c r="F79" s="72">
-        <v>43.434722194917903</v>
+        <v>43.808472254433603</v>
       </c>
       <c r="G79" s="73">
-        <v>111.434736538788</v>
+        <v>111.007270512597</v>
       </c>
       <c r="H79" s="74">
-        <v>21448559.3290518</v>
+        <v>21639376.614122301</v>
       </c>
       <c r="I79" s="75">
-        <v>11541318.529204801</v>
+        <v>11692450.908355599</v>
       </c>
       <c r="J79" s="75">
-        <v>49954.279085771901</v>
+        <v>65457.132230244701</v>
       </c>
       <c r="K79" s="75">
-        <v>25641383.412459999</v>
+        <v>26032518.2556688</v>
       </c>
       <c r="L79" s="76">
-        <v>67208752.617900997</v>
+        <v>67414829.133667603</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="62"/>
       <c r="B80" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="78">
-        <v>18.604590816180799</v>
+        <v>18.605853617893601</v>
       </c>
       <c r="D80" s="79">
-        <v>11.870742773691701</v>
+        <v>11.837269893742301</v>
       </c>
       <c r="E80" s="79">
-        <v>5.6755408385350002E-2</v>
+        <v>5.9705439513540001E-2</v>
       </c>
       <c r="F80" s="79">
-        <v>22.383650882839401</v>
+        <v>22.341266095013001</v>
       </c>
       <c r="G80" s="80">
-        <v>50.839896963482701</v>
+        <v>50.805808650983501</v>
       </c>
       <c r="H80" s="81">
-        <v>133987.76671083699</v>
+        <v>134296.786388262</v>
       </c>
       <c r="I80" s="82">
-        <v>82689.539087948797</v>
+        <v>82719.232550263201</v>
       </c>
       <c r="J80" s="82">
-        <v>510.40122637759799</v>
+        <v>534.07175827882395</v>
       </c>
       <c r="K80" s="82">
-        <v>165117.92225614999</v>
+        <v>165291.35768074499</v>
       </c>
       <c r="L80" s="83">
-        <v>375561.534475477</v>
+        <v>374900.34982184501</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="62"/>
       <c r="B81" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="64">
-        <v>29.477238691981398</v>
+        <v>28.9072769083601</v>
       </c>
       <c r="D81" s="65">
-        <v>15.6504077010731</v>
+        <v>15.258329396847</v>
       </c>
       <c r="E81" s="65">
-        <v>3.9026445126720002E-2</v>
+        <v>4.0821085018729997E-2</v>
       </c>
       <c r="F81" s="65">
-        <v>30.5170671373026</v>
+        <v>29.7427207332961</v>
       </c>
       <c r="G81" s="66">
-        <v>33.334066138521798</v>
+        <v>33.091747351383901</v>
       </c>
       <c r="H81" s="67">
-        <v>1549764.1433764801</v>
+        <v>1448529.0392473601</v>
       </c>
       <c r="I81" s="68">
-        <v>776845.11210399296</v>
+        <v>713052.32616694504</v>
       </c>
       <c r="J81" s="68">
-        <v>2252.23149227043</v>
+        <v>2402.97051333426</v>
       </c>
       <c r="K81" s="68">
-        <v>1638096.80993816</v>
+        <v>1468440.8396067901</v>
       </c>
       <c r="L81" s="69">
-        <v>2078283.2268970399</v>
+        <v>1530109.14397986</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="62"/>
       <c r="B82" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="64">
-        <v>19.427302601069201</v>
+        <v>19.342755283974</v>
       </c>
       <c r="D82" s="65">
-        <v>14.940009142490799</v>
+        <v>14.9042059185103</v>
       </c>
       <c r="E82" s="65">
-        <v>0.51615226228974997</v>
+        <v>0.51102010496265005</v>
       </c>
       <c r="F82" s="65">
-        <v>25.237744199272299</v>
+        <v>25.071883614873101</v>
       </c>
       <c r="G82" s="66">
-        <v>74.862509451014901</v>
+        <v>74.869969864775499</v>
       </c>
       <c r="H82" s="67">
-        <v>392211.42844222399</v>
+        <v>393273.635267462</v>
       </c>
       <c r="I82" s="68">
-        <v>308132.42270073597</v>
+        <v>308307.81503027701</v>
       </c>
       <c r="J82" s="68">
-        <v>10222.695118756799</v>
+        <v>10100.511812766101</v>
       </c>
       <c r="K82" s="68">
-        <v>506047.629805075</v>
+        <v>505589.69459242898</v>
       </c>
       <c r="L82" s="69">
-        <v>1381678.12422862</v>
+        <v>1382124.2821350801</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="62"/>
       <c r="B83" s="70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="71">
-        <v>30.653521532704598</v>
+        <v>30.813401211793501</v>
       </c>
       <c r="D83" s="72">
-        <v>19.257657572480898</v>
+        <v>19.326675490369801</v>
       </c>
       <c r="E83" s="72">
-        <v>9.6708548156890006E-2</v>
+        <v>0.11198511941213</v>
       </c>
       <c r="F83" s="72">
-        <v>37.257584347506501</v>
+        <v>37.521276797611797</v>
       </c>
       <c r="G83" s="73">
-        <v>92.820728036253996</v>
+        <v>92.587534567622399</v>
       </c>
       <c r="H83" s="74">
-        <v>28652214.069040101</v>
+        <v>28937266.862475201</v>
       </c>
       <c r="I83" s="75">
-        <v>16006968.1000192</v>
+        <v>16178689.0133406</v>
       </c>
       <c r="J83" s="75">
-        <v>67845.527606584001</v>
+        <v>83419.053526522999</v>
       </c>
       <c r="K83" s="75">
-        <v>34612930.703978002</v>
+        <v>35072565.920569599</v>
       </c>
       <c r="L83" s="76">
-        <v>88025451.531540498</v>
+        <v>88299636.266786397</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="62"/>
       <c r="B84" s="77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84" s="78">
-        <v>14.6025069041685</v>
+        <v>14.385971760022301</v>
       </c>
       <c r="D84" s="79">
-        <v>9.9954744476950399</v>
+        <v>9.9714815323129393</v>
       </c>
       <c r="E84" s="79">
-        <v>1.6827183650086499</v>
+        <v>1.7113771403612099</v>
       </c>
       <c r="F84" s="79">
-        <v>17.953726431557801</v>
+        <v>17.812223141737199</v>
       </c>
       <c r="G84" s="80">
-        <v>74.455693705379701</v>
+        <v>75.019341859124495</v>
       </c>
       <c r="H84" s="81">
-        <v>62232.179838735297</v>
+        <v>62171.545233170997</v>
       </c>
       <c r="I84" s="82">
-        <v>42605.907372576599</v>
+        <v>42645.1485854907</v>
       </c>
       <c r="J84" s="82">
-        <v>7540.0177634014199</v>
+        <v>7621.8484756593998</v>
       </c>
       <c r="K84" s="82">
-        <v>76661.506598980093</v>
+        <v>77339.893074068896</v>
       </c>
       <c r="L84" s="83">
-        <v>252593.72664825199</v>
+        <v>253912.09196270999</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="62"/>
       <c r="B85" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" s="64">
-        <v>7.0619700714331204</v>
+        <v>8.2925534306547704</v>
       </c>
       <c r="D85" s="65">
-        <v>3.4436804606576299</v>
+        <v>4.0437588844539096</v>
       </c>
       <c r="E85" s="65">
-        <v>0.57718024622289998</v>
+        <v>0.67775677077467</v>
       </c>
       <c r="F85" s="65">
-        <v>9.2882367354357296</v>
+        <v>9.3348180445351403</v>
       </c>
       <c r="G85" s="66">
-        <v>69.733631977942807</v>
+        <v>85.083023261788796</v>
       </c>
       <c r="H85" s="67">
-        <v>1406.1285768841899</v>
+        <v>1406.1285768453899</v>
       </c>
       <c r="I85" s="68">
-        <v>685.68083076083497</v>
+        <v>685.68083074191702</v>
       </c>
       <c r="J85" s="68">
-        <v>114.923970226112</v>
+        <v>114.92397022294099</v>
       </c>
       <c r="K85" s="68">
-        <v>1849.4067477563401</v>
+        <v>1582.8603966000001</v>
       </c>
       <c r="L85" s="69">
-        <v>13884.8581489686</v>
+        <v>14427.120839588801</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="62"/>
       <c r="B86" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" s="64">
-        <v>17.599046056627</v>
+        <v>17.538123889207998</v>
       </c>
       <c r="D86" s="65">
-        <v>13.2990772834853</v>
+        <v>13.2616130727298</v>
       </c>
       <c r="E86" s="65">
-        <v>0.15401252482962</v>
+        <v>0.1433409517143</v>
       </c>
       <c r="F86" s="65">
-        <v>23.6450775966732</v>
+        <v>23.563906326687199</v>
       </c>
       <c r="G86" s="66">
-        <v>66.796208012363095</v>
+        <v>66.707391107214903</v>
       </c>
       <c r="H86" s="67">
-        <v>310076.92692986102</v>
+        <v>310484.478949985</v>
       </c>
       <c r="I86" s="68">
-        <v>236578.53842392101</v>
+        <v>236539.43225341701</v>
       </c>
       <c r="J86" s="68">
-        <v>3071.7225594441502</v>
+        <v>2872.7446195184898</v>
       </c>
       <c r="K86" s="68">
-        <v>417265.93009164702</v>
+        <v>417574.70911120798</v>
       </c>
       <c r="L86" s="69">
-        <v>1172602.33173078</v>
+        <v>1170865.8998741</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="62"/>
       <c r="B87" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87" s="64">
-        <v>17.611061171980399</v>
+        <v>17.406648329105501</v>
       </c>
       <c r="D87" s="65">
-        <v>14.338624685419701</v>
+        <v>14.1503523277624</v>
       </c>
       <c r="E87" s="65">
-        <v>6.3724676543369996E-2</v>
+        <v>6.439049142469E-2</v>
       </c>
       <c r="F87" s="65">
-        <v>24.851064569766098</v>
+        <v>24.528340066399799</v>
       </c>
       <c r="G87" s="66">
-        <v>65.377907716808593</v>
+        <v>65.656161405305497</v>
       </c>
       <c r="H87" s="67">
-        <v>1335436.2349699801</v>
+        <v>1212416.7289827</v>
       </c>
       <c r="I87" s="68">
-        <v>1046672.66006914</v>
+        <v>964669.13791770802</v>
       </c>
       <c r="J87" s="68">
-        <v>5257.3870857602396</v>
+        <v>5378.8957945878801</v>
       </c>
       <c r="K87" s="68">
-        <v>1889433.8312953301</v>
+        <v>1699363.1193599901</v>
       </c>
       <c r="L87" s="69">
-        <v>5034917.4224153403</v>
+        <v>4477366.3194557503</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="62"/>
       <c r="B88" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88" s="64">
-        <v>30.694801125969398</v>
+        <v>30.793457630430598</v>
       </c>
       <c r="D88" s="65">
-        <v>22.6672146554805</v>
+        <v>22.638696752421399</v>
       </c>
       <c r="E88" s="65">
-        <v>1.55563205184E-2</v>
+        <v>1.9550552849089999E-2</v>
       </c>
       <c r="F88" s="65">
-        <v>34.2002272958552</v>
+        <v>33.876377933714103</v>
       </c>
       <c r="G88" s="66">
-        <v>67.103153893256106</v>
+        <v>67.041886668651401</v>
       </c>
       <c r="H88" s="67">
-        <v>153394.704942076</v>
+        <v>154419.01403018599</v>
       </c>
       <c r="I88" s="68">
-        <v>111239.56310606901</v>
+        <v>111444.513855522</v>
       </c>
       <c r="J88" s="68">
-        <v>79.898937354409995</v>
+        <v>98.533390933304304</v>
       </c>
       <c r="K88" s="68">
-        <v>176657.825624897</v>
+        <v>175390.41903993901</v>
       </c>
       <c r="L88" s="69">
-        <v>330982.079700895</v>
+        <v>331185.09403712099</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="62"/>
       <c r="B89" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C89" s="64">
-        <v>27.548406388592099</v>
+        <v>27.863220987761601</v>
       </c>
       <c r="D89" s="65">
-        <v>16.883604596220799</v>
+        <v>16.9281915411079</v>
       </c>
       <c r="E89" s="65">
-        <v>5.1226951240669998E-2</v>
+        <v>5.1002187007439997E-2</v>
       </c>
       <c r="F89" s="65">
-        <v>32.397474549648102</v>
+        <v>32.688379953374202</v>
       </c>
       <c r="G89" s="66">
-        <v>62.945220142893199</v>
+        <v>62.966308388300803</v>
       </c>
       <c r="H89" s="67">
-        <v>7323669.6969130002</v>
+        <v>7436970.4142014999</v>
       </c>
       <c r="I89" s="68">
-        <v>4335256.1429832503</v>
+        <v>4371347.7526281597</v>
       </c>
       <c r="J89" s="68">
-        <v>9696.0266277636201</v>
+        <v>9711.2921997335707</v>
       </c>
       <c r="K89" s="68">
-        <v>8706767.4251217898</v>
+        <v>8813046.9006584194</v>
       </c>
       <c r="L89" s="69">
-        <v>17603634.838392101</v>
+        <v>17677763.6642869</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="62"/>
       <c r="B90" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="71">
-        <v>37.297451081847903</v>
+        <v>37.335959050953598</v>
       </c>
       <c r="D90" s="72">
-        <v>22.5368682705436</v>
+        <v>22.622924794942499</v>
       </c>
       <c r="E90" s="72">
-        <v>0.13193752657037999</v>
+        <v>0.16147213616851</v>
       </c>
       <c r="F90" s="72">
-        <v>44.0590611313688</v>
+        <v>44.312603206576703</v>
       </c>
       <c r="G90" s="73">
-        <v>114.036787890151</v>
+        <v>113.313128984108</v>
       </c>
       <c r="H90" s="74">
-        <v>21538385.868167799</v>
+        <v>21732102.225785401</v>
       </c>
       <c r="I90" s="75">
-        <v>11398930.5416796</v>
+        <v>11552914.314827999</v>
       </c>
       <c r="J90" s="75">
-        <v>55070.878500038903</v>
+        <v>70658.369160246497</v>
       </c>
       <c r="K90" s="75">
-        <v>25647280.237559501</v>
+        <v>26021562.029900301</v>
       </c>
       <c r="L90" s="76">
-        <v>67309217.294135094</v>
+        <v>67518047.135399893</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="62"/>
       <c r="B91" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C91" s="78">
-        <v>16.3483198259555</v>
+        <v>16.196491451955499</v>
       </c>
       <c r="D91" s="79">
-        <v>12.256821949709</v>
+        <v>12.2221768033996</v>
       </c>
       <c r="E91" s="79">
-        <v>1.3060355424965</v>
+        <v>1.3150865738328501</v>
       </c>
       <c r="F91" s="79">
-        <v>19.076498867198499</v>
+        <v>18.982168992613701</v>
       </c>
       <c r="G91" s="80">
-        <v>72.911780753769193</v>
+        <v>73.154078221700203</v>
       </c>
       <c r="H91" s="81">
-        <v>106995.46900374199</v>
+        <v>106934.01872112</v>
       </c>
       <c r="I91" s="82">
-        <v>80173.126514030097</v>
+        <v>80077.738606769606</v>
       </c>
       <c r="J91" s="82">
-        <v>8998.1251517052806</v>
+        <v>9031.7359494668599</v>
       </c>
       <c r="K91" s="82">
-        <v>125293.254950656</v>
+        <v>126143.531503199</v>
       </c>
       <c r="L91" s="83">
-        <v>409292.36475852499</v>
+        <v>410533.91257060302</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="62"/>
       <c r="B92" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="64">
-        <v>11.9203641455218</v>
+        <v>11.898630441198501</v>
       </c>
       <c r="D92" s="65">
-        <v>8.2072018631012291</v>
+        <v>8.17584929569529</v>
       </c>
       <c r="E92" s="65">
-        <v>0.42088812654648999</v>
+        <v>0.43294108805988002</v>
       </c>
       <c r="F92" s="65">
-        <v>16.257115875881698</v>
+        <v>16.665555403604099</v>
       </c>
       <c r="G92" s="66">
-        <v>43.224570341306901</v>
+        <v>44.040763046004898</v>
       </c>
       <c r="H92" s="67">
-        <v>71107.913636653102</v>
+        <v>71444.255610672102</v>
       </c>
       <c r="I92" s="68">
-        <v>47242.7721534343</v>
+        <v>47177.959422862499</v>
       </c>
       <c r="J92" s="68">
-        <v>2755.2707487303101</v>
+        <v>2840.7204918645798</v>
       </c>
       <c r="K92" s="68">
-        <v>96966.634613807604</v>
+        <v>99821.387464583997</v>
       </c>
       <c r="L92" s="69">
-        <v>254762.58025985199</v>
+        <v>257466.94712611299</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="62"/>
       <c r="B93" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C93" s="64">
-        <v>24.439039433775001</v>
+        <v>25.170856052048801</v>
       </c>
       <c r="D93" s="65">
-        <v>19.322347373734999</v>
+        <v>19.880375793621699</v>
       </c>
       <c r="E93" s="65">
-        <v>2.0418336582612602</v>
+        <v>2.0884420129992001</v>
       </c>
       <c r="F93" s="65">
-        <v>30.402640948156499</v>
+        <v>29.856184480047901</v>
       </c>
       <c r="G93" s="66">
-        <v>93.802879620389604</v>
+        <v>92.6115402003973</v>
       </c>
       <c r="H93" s="67">
-        <v>4474.8059877270098</v>
+        <v>4693.1141619178798</v>
       </c>
       <c r="I93" s="68">
-        <v>3532.9740392163899</v>
+        <v>3700.32240319328</v>
       </c>
       <c r="J93" s="68">
-        <v>380.025017709297</v>
+        <v>397.26953709522002</v>
       </c>
       <c r="K93" s="68">
-        <v>5553.8580609430801</v>
+        <v>5563.1044395688796</v>
       </c>
       <c r="L93" s="69">
-        <v>17167.4995258286</v>
+        <v>17283.1651889368</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="62"/>
       <c r="B94" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C94" s="64">
-        <v>18.9723829261447</v>
+        <v>18.618778905990599</v>
       </c>
       <c r="D94" s="65">
-        <v>13.5337893558135</v>
+        <v>13.2686522253316</v>
       </c>
       <c r="E94" s="65">
-        <v>0.55871949354025996</v>
+        <v>0.56109182398648005</v>
       </c>
       <c r="F94" s="65">
-        <v>21.775421101142101</v>
+        <v>20.705213437492102</v>
       </c>
       <c r="G94" s="66">
-        <v>122.575321896676</v>
+        <v>117.095405073199</v>
       </c>
       <c r="H94" s="67">
-        <v>128199.865183434</v>
+        <v>130582.73771511301</v>
       </c>
       <c r="I94" s="68">
-        <v>90633.557475065405</v>
+        <v>92192.6739207848</v>
       </c>
       <c r="J94" s="68">
-        <v>3899.5918903178499</v>
+        <v>3962.4176584091201</v>
       </c>
       <c r="K94" s="68">
-        <v>145397.749125178</v>
+        <v>142504.81961061101</v>
       </c>
       <c r="L94" s="69">
-        <v>851933.58233999298</v>
+        <v>851952.11721615202</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="62"/>
       <c r="B95" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" s="64">
-        <v>17.252065720485501</v>
+        <v>16.728867101575101</v>
       </c>
       <c r="D95" s="65">
-        <v>12.645986656220501</v>
+        <v>12.4565297060375</v>
       </c>
       <c r="E95" s="65">
-        <v>1.4029648103794401</v>
+        <v>1.44103132961405</v>
       </c>
       <c r="F95" s="65">
-        <v>21.965735545732901</v>
+        <v>21.579549738963699</v>
       </c>
       <c r="G95" s="66">
-        <v>58.213920327081702</v>
+        <v>56.803736951744497</v>
       </c>
       <c r="H95" s="67">
-        <v>56488.563696832702</v>
+        <v>56481.869170482198</v>
       </c>
       <c r="I95" s="68">
-        <v>41461.5363365351</v>
+        <v>41513.895365394499</v>
       </c>
       <c r="J95" s="68">
-        <v>4452.4489177360101</v>
+        <v>4577.6162523262301</v>
       </c>
       <c r="K95" s="68">
-        <v>71117.6148828609</v>
+        <v>72045.887103438406</v>
       </c>
       <c r="L95" s="69">
-        <v>185282.035234343</v>
+        <v>184024.160914354</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="62"/>
       <c r="B96" s="70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C96" s="71">
-        <v>22.795479733318398</v>
+        <v>22.775159554832602</v>
       </c>
       <c r="D96" s="72">
-        <v>15.8038180958095</v>
+        <v>15.759198692178099</v>
       </c>
       <c r="E96" s="72">
-        <v>0.34431562591781001</v>
+        <v>0.35302241611542001</v>
       </c>
       <c r="F96" s="72">
-        <v>26.455366619951601</v>
+        <v>26.3582316658445</v>
       </c>
       <c r="G96" s="73">
-        <v>38.897046193114399</v>
+        <v>38.573268300059603</v>
       </c>
       <c r="H96" s="74">
-        <v>130233.51516233799</v>
+        <v>130728.23823910501</v>
       </c>
       <c r="I96" s="75">
-        <v>85339.134448616795</v>
+        <v>85519.957390599797</v>
       </c>
       <c r="J96" s="75">
-        <v>1451.73760518476</v>
+        <v>1511.33071735614</v>
       </c>
       <c r="K96" s="75">
-        <v>151430.71065161601</v>
+        <v>151574.14212264601</v>
       </c>
       <c r="L96" s="76">
-        <v>221562.56306811201</v>
+        <v>220944.06258140501</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="62"/>
       <c r="B97" s="77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="78">
-        <v>15.1353284363945</v>
+        <v>15.0474737277187</v>
       </c>
       <c r="D97" s="79">
-        <v>9.6395293438611507</v>
+        <v>9.6168548355795096</v>
       </c>
       <c r="E97" s="79">
-        <v>0.63024503915331997</v>
+        <v>0.62449447199793995</v>
       </c>
       <c r="F97" s="79">
-        <v>18.590177597409301</v>
+        <v>18.469873154788601</v>
       </c>
       <c r="G97" s="80">
-        <v>58.718048304886999</v>
+        <v>58.683462970354</v>
       </c>
       <c r="H97" s="81">
-        <v>197585.73046890399</v>
+        <v>197543.68087512901</v>
       </c>
       <c r="I97" s="82">
-        <v>127560.79613073199</v>
+        <v>127560.931172378</v>
       </c>
       <c r="J97" s="82">
-        <v>8659.7737826359808</v>
+        <v>8542.4774775053702</v>
       </c>
       <c r="K97" s="82">
-        <v>247451.80353322701</v>
+        <v>247528.632379285</v>
       </c>
       <c r="L97" s="83">
-        <v>701242.78114452597</v>
+        <v>700574.46247201401</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="62"/>
       <c r="B98" s="70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C98" s="71">
-        <v>12.8414757342799</v>
+        <v>12.926806766540199</v>
       </c>
       <c r="D98" s="72">
-        <v>7.2735566324306902</v>
+        <v>7.2552198486402801</v>
       </c>
       <c r="E98" s="72">
-        <v>0.16378083349670999</v>
+        <v>0.16489531480177</v>
       </c>
       <c r="F98" s="72">
-        <v>17.1335327083954</v>
+        <v>17.258165262533101</v>
       </c>
       <c r="G98" s="73">
-        <v>57.913996280754901</v>
+        <v>58.189777679856398</v>
       </c>
       <c r="H98" s="74">
-        <v>336577.11752299801</v>
+        <v>233647.15049721999</v>
       </c>
       <c r="I98" s="75">
-        <v>182230.178449103</v>
+        <v>117272.895385059</v>
       </c>
       <c r="J98" s="75">
-        <v>3267.1719232670398</v>
+        <v>3216.9390682644698</v>
       </c>
       <c r="K98" s="75">
-        <v>457846.51210159803</v>
+        <v>299162.96687433799</v>
       </c>
       <c r="L98" s="76">
-        <v>1500519.7092435099</v>
+        <v>946949.07724977401</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -5123,7 +5117,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C100" s="86"/>
       <c r="D100" s="86"/>
@@ -5138,7 +5132,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C101" s="86"/>
       <c r="D101" s="86"/>
@@ -5153,7 +5147,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C102" s="86"/>
       <c r="D102" s="86"/>
@@ -5168,7 +5162,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C103" s="86"/>
       <c r="D103" s="86"/>
@@ -5182,8 +5176,8 @@
       <c r="L103" s="86"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>167</v>
+      <c r="A104" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C104" s="86"/>
       <c r="D104" s="86"/>
@@ -5222,7 +5216,7 @@
     </row>
     <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C107" s="86"/>
       <c r="D107" s="86"/>
@@ -5250,7 +5244,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C109" s="86"/>
       <c r="D109" s="86"/>
@@ -5265,7 +5259,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C110" s="86"/>
       <c r="D110" s="86"/>
@@ -5293,7 +5287,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" s="86"/>
       <c r="D112" s="86"/>
@@ -5308,7 +5302,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" s="86"/>
       <c r="D113" s="86"/>
@@ -5336,11 +5330,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F5B324F4-6559-489E-BFB3-4198C605592E}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{CA09F6E5-ABBA-4BA8-8026-ECA3CC3FB9E8}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{4231C4F4-FE6A-4BDE-8F45-EABB1ED66B6A}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{D9DFE2CE-50C2-4C72-B6F2-CF6759471D5D}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{F0052130-CD75-4948-A080-60170E801754}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{23C7D6B2-A301-4F81-9150-26EE8CB3EA5B}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2BF238E9-F09D-49CB-8A84-23CFF86891D9}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{DA32DD3F-1FFF-4306-9285-09BDE035C519}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{75ECC26B-B9D0-4248-9429-1C2210E1A683}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{0CBFB7B9-5B40-467A-820A-FCAB57D68302}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABB1BC11-0967-44C9-8F6F-6FF8E7E34E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F06AC5-31BB-4C13-94D3-0D0072F14011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="570" windowWidth="17280" windowHeight="15075" xr2:uid="{D3E0B27F-7C3E-40AF-A41A-9B118995F031}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{92A4FC62-74A9-4291-ADAD-8B1BEAD69501}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab16'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab16'!$A$1:$G$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="173">
   <si>
     <t>Tableau 16 : Finances publiques</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
+    <t>Recettes des administrations publiques en % du PIB, 2021</t>
+  </si>
+  <si>
     <t>Impôts des administrations publiques en % du PIB, 2021</t>
   </si>
   <si>
@@ -264,7 +267,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -342,7 +345,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -396,7 +399,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -535,6 +538,9 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
+  </si>
+  <si>
+    <t>Source : Base de données des Perspectives de l'économie mondiale du FMI, avril 2023.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1460,7 +1466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6906E5F-5296-4962-8C06-3FC93F3052F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD32905-6C0D-4503-B5A5-482D975605F5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1498,52 +1504,52 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="e">
-        <v>#N/A</v>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="11">
         <v>23.328969990684101</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="12">
         <v>19.494932880814702</v>
@@ -1555,10 +1561,10 @@
         <v>17447.868236739501</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" s="15">
         <v>14580.3702574251</v>
@@ -1569,19 +1575,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="18">
         <v>30.517508852471401</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="19">
         <v>33.005501335718897</v>
@@ -1593,10 +1599,10 @@
         <v>5727.4312630639997</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="22">
         <v>6194.3699637196296</v>
@@ -1607,19 +1613,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="25">
         <v>25.649702811053999</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="26">
         <v>30.345578770140701</v>
@@ -1631,10 +1637,10 @@
         <v>1216.72544391882</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="29">
         <v>1439.4801402595999</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="25">
         <v>48.474969706640003</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="26">
         <v>52.872748223684702</v>
@@ -1669,10 +1675,10 @@
         <v>1235.9821007419</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" s="29">
         <v>1348.1136928396299</v>
@@ -1683,19 +1689,19 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="25">
         <v>15.057419414205601</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="26">
         <v>23.673308217046699</v>
@@ -1707,10 +1713,10 @@
         <v>1876.6600166801099</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" s="29">
         <v>2950.48904273482</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="25">
         <v>27.8889972483238</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="26">
         <v>31.528474227529301</v>
@@ -1745,10 +1751,10 @@
         <v>4399.9776343084104</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" s="29">
         <v>4974.1688526766802</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="25">
         <v>30.807616931906601</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="26">
         <v>39.624633463940498</v>
@@ -1783,10 +1789,10 @@
         <v>3791.62628086115</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="29">
         <v>4876.7745309039401</v>
@@ -1797,19 +1803,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="25">
         <v>27.121902658975898</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="26">
         <v>32.673033491174898</v>
@@ -1821,10 +1827,10 @@
         <v>113615.627160494</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" s="29">
         <v>136869.71883984399</v>
@@ -1835,19 +1841,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="18">
         <v>22.316910092133799</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="19">
         <v>30.4330295152931</v>
@@ -1859,10 +1865,10 @@
         <v>4942.6710416323704</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" s="22">
         <v>6740.2007300016903</v>
@@ -1873,19 +1879,19 @@
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="25">
         <v>15.368798568885801</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="26">
         <v>17.526980372807898</v>
@@ -1897,10 +1903,10 @@
         <v>5527.7535106322903</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" s="29">
         <v>6303.9948667630697</v>
@@ -1911,10 +1917,10 @@
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="33">
         <v>25.927126454126999</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="25">
         <v>25.129874481230299</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="26">
         <v>30.379633618010701</v>
@@ -1973,10 +1979,10 @@
         <v>842.05432888078997</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K14" s="29">
         <v>1017.96377920491</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="25">
         <v>13.956394165891099</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="26">
         <v>16.940345434392601</v>
@@ -2011,10 +2017,10 @@
         <v>6335.0161565407998</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K15" s="29">
         <v>7689.4762894085297</v>
@@ -2025,19 +2031,19 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="25">
         <v>13.6644028618093</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="26">
         <v>19.681205610441101</v>
@@ -2049,10 +2055,10 @@
         <v>353.17280160803</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K16" s="29">
         <v>508.684250219977</v>
@@ -2063,19 +2069,19 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="40">
         <v>16.8138431261</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="41">
         <v>18.4207532760643</v>
@@ -2087,10 +2093,10 @@
         <v>1984.06572254808</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K17" s="44">
         <v>2173.6842008369399</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="40">
         <v>24.901547995848802</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="41">
         <v>23.1033945473655</v>
@@ -2125,10 +2131,10 @@
         <v>3020.7707693022799</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K18" s="44">
         <v>2802.6393753502298</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="18">
         <v>13.7677266444173</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="19">
         <v>14.6206210650994</v>
@@ -2163,10 +2169,10 @@
         <v>7780.9389767200701</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K19" s="22">
         <v>8262.9589653725707</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="40">
         <v>15.300364506399101</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="41">
         <v>12.659415363745399</v>
@@ -2201,10 +2207,10 @@
         <v>1877.2619039199301</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K20" s="44">
         <v>1553.23346566801</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="40">
         <v>14.7314103081328</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="41">
         <v>16.5830321695558</v>
@@ -2239,10 +2245,10 @@
         <v>2981.9653800547198</v>
       </c>
       <c r="I21" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K21" s="44">
         <v>3356.77486347992</v>
@@ -2253,19 +2259,19 @@
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="25">
         <v>27.020542459754498</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="26">
         <v>25.522813006891202</v>
@@ -2277,10 +2283,10 @@
         <v>143.43738904447201</v>
       </c>
       <c r="I22" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K22" s="29">
         <v>135.48675657535301</v>
@@ -2291,10 +2297,10 @@
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="33">
         <v>15.3069843161683</v>
@@ -2329,19 +2335,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="25">
         <v>17.0415727887756</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="26">
         <v>19.825696827161401</v>
@@ -2353,10 +2359,10 @@
         <v>219.035826889605</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K24" s="29">
         <v>254.82025350735901</v>
@@ -2367,19 +2373,19 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="25">
         <v>20.082122005614899</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="26">
         <v>22.997553041984698</v>
@@ -2391,10 +2397,10 @@
         <v>677.23004034413498</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K25" s="29">
         <v>775.54721408848695</v>
@@ -2405,19 +2411,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="25">
         <v>33.296160052062703</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="26">
         <v>37.383997888588802</v>
@@ -2429,10 +2435,10 @@
         <v>736.49574320428496</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K26" s="29">
         <v>826.91683563065999</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="25">
         <v>11.0307630824447</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="26">
         <v>13.797586755709</v>
@@ -2467,10 +2473,10 @@
         <v>10950.1750603739</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K27" s="29">
         <v>13696.785005396599</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="25">
         <v>16.72115918123</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="26">
         <v>23.860903799442099</v>
@@ -2505,10 +2511,10 @@
         <v>18451.306027002898</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K28" s="29">
         <v>26329.8036525239</v>
@@ -2519,19 +2525,19 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="25">
         <v>11.2093445248381</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="26">
         <v>13.9979179262135</v>
@@ -2543,10 +2549,10 @@
         <v>1631.4925335169901</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K29" s="29">
         <v>2037.3625354093399</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="25">
         <v>26.380066575697999</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" s="26">
         <v>30.8262616679866</v>
@@ -2581,10 +2587,10 @@
         <v>3027.9717036947</v>
       </c>
       <c r="I30" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K30" s="29">
         <v>3538.3173804170901</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="25">
         <v>24.561059789713401</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="26">
         <v>31.560050943450001</v>
@@ -2619,10 +2625,10 @@
         <v>2718.1813908940999</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K31" s="29">
         <v>3492.7622791783801</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="25">
         <v>33.997562356270599</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="26">
         <v>39.532309311577698</v>
@@ -2657,10 +2663,10 @@
         <v>495.38344238247498</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K32" s="29">
         <v>576.03104795794604</v>
@@ -2671,95 +2677,95 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="25">
         <v>4.9362365511782702</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" s="26">
         <v>6.0329150915476202</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" s="28">
         <v>376.53612412387798</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K33" s="29">
         <v>460.19076318325199</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="18">
+      <c r="B34" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="40">
         <v>34.7785893894726</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="19">
+      <c r="D34" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="41">
         <v>44.147101100922498</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="42">
         <v>58.522755516714803</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="43">
         <v>2064.1382720797401</v>
       </c>
-      <c r="I34" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="22">
+      <c r="I34" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="44">
         <v>2620.1672518486598</v>
       </c>
-      <c r="L34" s="23">
+      <c r="L34" s="45">
         <v>3473.37432512953</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="25">
         <v>9.4739802717458197</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F35" s="26">
         <v>9.7589527582731996</v>
@@ -2771,10 +2777,10 @@
         <v>3291.1082852890499</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K35" s="29">
         <v>3390.1031411561999</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="25">
         <v>14.3635434746779</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F36" s="26">
         <v>17.791596848358001</v>
@@ -2809,10 +2815,10 @@
         <v>10045.5850181564</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K36" s="29">
         <v>12443.099369179299</v>
@@ -2823,19 +2829,19 @@
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="25">
         <v>14.0711760922569</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F37" s="26">
         <v>21.564788032155398</v>
@@ -2847,10 +2853,10 @@
         <v>6042.2925408076599</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K37" s="29">
         <v>9260.1184873589009</v>
@@ -2861,10 +2867,10 @@
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="33">
         <v>13.8350464988727</v>
@@ -2899,19 +2905,19 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="40">
         <v>29.831733795908399</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39" s="41">
         <v>37.031056238196001</v>
@@ -2923,10 +2929,10 @@
         <v>48666.857562589597</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K39" s="44">
         <v>60411.679443978901</v>
@@ -2937,19 +2943,19 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="25">
         <v>18.587899025978899</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" s="26">
         <v>25.543197610721698</v>
@@ -2961,10 +2967,10 @@
         <v>78682.638572714393</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K40" s="29">
         <v>108124.440679761</v>
@@ -2975,57 +2981,57 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="40">
         <v>59.981134507779302</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41" s="41">
         <v>48.711757199638598</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41" s="43">
         <v>23397.130338097599</v>
       </c>
       <c r="I41" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K41" s="44">
         <v>19001.2299959064</v>
       </c>
       <c r="L41" s="45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="40">
         <v>21.969016226382401</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F42" s="41">
         <v>19.171529377251801</v>
@@ -3037,10 +3043,10 @@
         <v>2173.07749385528</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K42" s="44">
         <v>1896.3625217983499</v>
@@ -3051,19 +3057,19 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="25">
         <v>25.1080897138498</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="26">
         <v>31.049591247266299</v>
@@ -3075,10 +3081,10 @@
         <v>35871.069862060598</v>
       </c>
       <c r="I43" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J43" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K43" s="29">
         <v>44359.490089154198</v>
@@ -3089,19 +3095,19 @@
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="25">
         <v>25.675068285899801</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F44" s="26">
         <v>33.292633368789801</v>
@@ -3113,10 +3119,10 @@
         <v>11987.281706269699</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J44" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K44" s="29">
         <v>15543.801889493299</v>
@@ -3127,10 +3133,10 @@
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="33">
         <v>24.382722021211801</v>
@@ -3165,19 +3171,19 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="25">
         <v>14.1461351892211</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F46" s="26">
         <v>19.854932156226699</v>
@@ -3189,10 +3195,10 @@
         <v>2503.7785418256299</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J46" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K46" s="29">
         <v>3514.20033932967</v>
@@ -3203,19 +3209,19 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="25">
         <v>20.318251384628201</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" s="26">
         <v>27.7527120095206</v>
@@ -3227,10 +3233,10 @@
         <v>4012.4657803916898</v>
       </c>
       <c r="I47" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J47" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K47" s="29">
         <v>5480.6294667421098</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" s="46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="40">
         <v>22.6267835365854</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48" s="41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F48" s="41">
         <v>29.9278422271382</v>
@@ -3265,10 +3271,10 @@
         <v>477.956371987686</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K48" s="44">
         <v>632.18012711237998</v>
@@ -3279,19 +3285,19 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="25">
         <v>15.520032318800199</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" s="26">
         <v>20.345840132786599</v>
@@ -3303,10 +3309,10 @@
         <v>11129.7305325911</v>
       </c>
       <c r="I49" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J49" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K49" s="29">
         <v>14590.415373219999</v>
@@ -3317,19 +3323,19 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" s="25">
         <v>16.816567342372601</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" s="26">
         <v>21.435622377343101</v>
@@ -3341,10 +3347,10 @@
         <v>342.123213577255</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J50" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K50" s="29">
         <v>436.09518300959598</v>
@@ -3355,19 +3361,19 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" s="18">
         <v>15.2672197808643</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F51" s="19">
         <v>27.363944512759499</v>
@@ -3379,10 +3385,10 @@
         <v>12085.0663372582</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K51" s="22">
         <v>21660.465325863701</v>
@@ -3393,19 +3399,19 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="25">
         <v>13.6038322023304</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" s="26">
         <v>15.3227065127172</v>
@@ -3417,10 +3423,10 @@
         <v>2197.74194225159</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J52" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K52" s="29">
         <v>2475.43150128252</v>
@@ -3431,19 +3437,19 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="25">
         <v>19.086445532168799</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F53" s="26">
         <v>24.704617795766801</v>
@@ -3455,10 +3461,10 @@
         <v>329.32942791894402</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K53" s="29">
         <v>426.26887399875</v>
@@ -3469,19 +3475,19 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C54" s="25">
         <v>27.283920744518301</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" s="26">
         <v>29.697929918117602</v>
@@ -3493,10 +3499,10 @@
         <v>957.35552346198403</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K54" s="29">
         <v>1042.0598090987</v>
@@ -3507,19 +3513,19 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" s="25">
         <v>21.617208828126302</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55" s="26">
         <v>26.445717516523999</v>
@@ -3531,10 +3537,10 @@
         <v>4249.0840144036201</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J55" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K55" s="29">
         <v>5198.1768988922604</v>
@@ -3545,19 +3551,19 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="25">
         <v>18.354658195446799</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F56" s="26">
         <v>24.2600872353276</v>
@@ -3569,10 +3575,10 @@
         <v>2739.0158818250502</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J56" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K56" s="29">
         <v>3620.2670474412498</v>
@@ -3583,57 +3589,57 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="40">
+      <c r="B57" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="25">
         <v>7.3103890751864098</v>
       </c>
-      <c r="D57" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="41">
+      <c r="D57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="26">
         <v>13.339366592761101</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="27">
         <v>36.509543688215501</v>
       </c>
-      <c r="H57" s="43">
+      <c r="H57" s="28">
         <v>32269.832609167701</v>
       </c>
-      <c r="I57" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="44">
+      <c r="I57" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="29">
         <v>58883.203429189198</v>
       </c>
-      <c r="L57" s="45">
+      <c r="L57" s="30">
         <v>161161.991699568</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" s="25">
         <v>19.442363680077101</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F58" s="26">
         <v>25.743555557231801</v>
@@ -3645,10 +3651,10 @@
         <v>5373.8077987195302</v>
       </c>
       <c r="I58" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J58" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K58" s="29">
         <v>7115.4372943852504</v>
@@ -3659,19 +3665,19 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="25">
         <v>20.937650340440001</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F59" s="26">
         <v>28.253692928786201</v>
@@ -3683,10 +3689,10 @@
         <v>868.46664189107105</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J59" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K59" s="29">
         <v>1171.9266211782899</v>
@@ -3697,19 +3703,19 @@
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" s="18">
         <v>16.946706383829401</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F60" s="19">
         <v>21.549209033843599</v>
@@ -3721,10 +3727,10 @@
         <v>1428.67337641468</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K60" s="22">
         <v>1816.68228221762</v>
@@ -3736,7 +3742,7 @@
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="31"/>
       <c r="B61" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C61" s="33">
         <v>10.9516286801092</v>
@@ -3772,7 +3778,7 @@
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="47"/>
       <c r="B62" s="48" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" s="49">
         <v>19.1257418776419</v>
@@ -3808,7 +3814,7 @@
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="47"/>
       <c r="B63" s="55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63" s="56">
         <v>30.6549009989007</v>
@@ -3844,7 +3850,7 @@
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="62"/>
       <c r="B64" s="63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="49">
         <v>28.657809938986301</v>
@@ -3880,7 +3886,7 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="62"/>
       <c r="B65" s="48" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="64">
         <v>22.284977487455599</v>
@@ -3916,7 +3922,7 @@
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="62"/>
       <c r="B66" s="70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="71">
         <v>30.062828204258299</v>
@@ -3931,7 +3937,7 @@
         <v>36.227054518428403</v>
       </c>
       <c r="G66" s="73">
-        <v>86.658456253423907</v>
+        <v>86.658456253423793</v>
       </c>
       <c r="H66" s="74">
         <v>30913366.323378298</v>
@@ -3952,7 +3958,7 @@
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="62"/>
       <c r="B67" s="77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="78">
         <v>19.072273016724001</v>
@@ -3988,7 +3994,7 @@
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="62"/>
       <c r="B68" s="48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" s="64">
         <v>16.9452806822372</v>
@@ -4024,43 +4030,43 @@
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="62"/>
       <c r="B69" s="48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C69" s="64">
-        <v>16.252173158277099</v>
+        <v>15.8636226446054</v>
       </c>
       <c r="D69" s="65">
-        <v>12.6079582066134</v>
+        <v>11.906445762028801</v>
       </c>
       <c r="E69" s="65">
-        <v>0.80379392375628</v>
+        <v>1.0677554833562</v>
       </c>
       <c r="F69" s="65">
-        <v>22.346806646036601</v>
+        <v>21.138483842768899</v>
       </c>
       <c r="G69" s="66">
-        <v>56.464236316187801</v>
+        <v>50.1819099932708</v>
       </c>
       <c r="H69" s="67">
-        <v>40163.557577821601</v>
+        <v>47944.4965545417</v>
       </c>
       <c r="I69" s="68">
-        <v>30370.8662501789</v>
+        <v>34961.298369259799</v>
       </c>
       <c r="J69" s="68">
-        <v>1807.4723404978399</v>
+        <v>3215.6203404978401</v>
       </c>
       <c r="K69" s="68">
-        <v>55163.914819294099</v>
+        <v>63426.873784666597</v>
       </c>
       <c r="L69" s="69">
-        <v>138156.66138355201</v>
+        <v>147365.434117967</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="62"/>
       <c r="B70" s="48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C70" s="64">
         <v>18.7504949197325</v>
@@ -4096,7 +4102,7 @@
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="62"/>
       <c r="B71" s="48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C71" s="64">
         <v>10.9516286801092</v>
@@ -4132,7 +4138,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="62"/>
       <c r="B72" s="48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C72" s="64">
         <v>13.017809664707499</v>
@@ -4168,7 +4174,7 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="62"/>
       <c r="B73" s="48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C73" s="64">
         <v>23.4940625500141</v>
@@ -4204,7 +4210,7 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="62"/>
       <c r="B74" s="48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C74" s="64">
         <v>31.595369419835301</v>
@@ -4240,7 +4246,7 @@
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="62"/>
       <c r="B75" s="70" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C75" s="71">
         <v>23.9669597877805</v>
@@ -4276,7 +4282,7 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="62"/>
       <c r="B76" s="77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C76" s="78">
         <v>16.934691432422099</v>
@@ -4312,43 +4318,43 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="62"/>
       <c r="B77" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C77" s="64">
-        <v>31.928229060184901</v>
+        <v>32.560370557038603</v>
       </c>
       <c r="D77" s="65">
-        <v>21.4593528883868</v>
+        <v>21.8740044604709</v>
       </c>
       <c r="E77" s="65">
-        <v>2.2435987035479998E-2</v>
+        <v>2.32069675227E-2</v>
       </c>
       <c r="F77" s="65">
-        <v>36.719318094110001</v>
+        <v>37.3559679318492</v>
       </c>
       <c r="G77" s="66">
-        <v>80.0643133590725</v>
+        <v>75.916260128425094</v>
       </c>
       <c r="H77" s="67">
-        <v>1063726.5682166</v>
+        <v>1060330.78059807</v>
       </c>
       <c r="I77" s="68">
-        <v>714286.22118196997</v>
+        <v>711763.81499293505</v>
       </c>
       <c r="J77" s="68">
         <v>617.53143006556002</v>
       </c>
       <c r="K77" s="68">
-        <v>1221098.7542854</v>
+        <v>1215070.8733763299</v>
       </c>
       <c r="L77" s="69">
-        <v>2593868.1666262602</v>
+        <v>2450665.4497591201</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="62"/>
       <c r="B78" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C78" s="64">
         <v>46.093375528709799</v>
@@ -4375,7 +4381,7 @@
         <v>68230.220683038395</v>
       </c>
       <c r="K78" s="68">
-        <v>8865173.5920157004</v>
+        <v>8865173.5920156892</v>
       </c>
       <c r="L78" s="69">
         <v>15387229.1378369</v>
@@ -4384,7 +4390,7 @@
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="62"/>
       <c r="B79" s="70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" s="71">
         <v>36.668049554346801</v>
@@ -4420,43 +4426,43 @@
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="62"/>
       <c r="B80" s="77" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C80" s="78">
-        <v>18.605853617893601</v>
+        <v>31.1740714138123</v>
       </c>
       <c r="D80" s="79">
-        <v>11.837269893742301</v>
+        <v>21.532312057950499</v>
       </c>
       <c r="E80" s="79">
-        <v>5.9705439513540001E-2</v>
+        <v>0.12528186768874</v>
       </c>
       <c r="F80" s="79">
-        <v>22.341266095013001</v>
+        <v>32.4100874213567</v>
       </c>
       <c r="G80" s="80">
-        <v>50.805808650983501</v>
+        <v>69.233800684390005</v>
       </c>
       <c r="H80" s="81">
-        <v>134296.786388262</v>
+        <v>104091.092051174</v>
       </c>
       <c r="I80" s="82">
-        <v>82719.232550263201</v>
+        <v>64169.789951062397</v>
       </c>
       <c r="J80" s="82">
         <v>534.07175827882395</v>
       </c>
       <c r="K80" s="82">
-        <v>165291.35768074499</v>
+        <v>109028.32150340499</v>
       </c>
       <c r="L80" s="83">
-        <v>374900.34982184501</v>
+        <v>217211.732447407</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="62"/>
       <c r="B81" s="48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C81" s="64">
         <v>28.9072769083601</v>
@@ -4492,43 +4498,43 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="62"/>
       <c r="B82" s="48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C82" s="64">
-        <v>19.342755283974</v>
+        <v>17.158733133683899</v>
       </c>
       <c r="D82" s="65">
-        <v>14.9042059185103</v>
+        <v>12.994432623353401</v>
       </c>
       <c r="E82" s="65">
-        <v>0.51102010496265005</v>
+        <v>0.41938723311391002</v>
       </c>
       <c r="F82" s="65">
-        <v>25.071883614873101</v>
+        <v>22.938412179492499</v>
       </c>
       <c r="G82" s="66">
-        <v>74.869969864775499</v>
+        <v>67.949785664555904</v>
       </c>
       <c r="H82" s="67">
-        <v>393273.635267462</v>
+        <v>423479.32960454997</v>
       </c>
       <c r="I82" s="68">
-        <v>308307.81503027701</v>
+        <v>326857.257629478</v>
       </c>
       <c r="J82" s="68">
         <v>10100.511812766101</v>
       </c>
       <c r="K82" s="68">
-        <v>505589.69459242898</v>
+        <v>561852.73076976999</v>
       </c>
       <c r="L82" s="69">
-        <v>1382124.2821350801</v>
+        <v>1539812.89950952</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="62"/>
       <c r="B83" s="70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C83" s="71">
         <v>30.813401211793501</v>
@@ -4564,43 +4570,43 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="62"/>
       <c r="B84" s="77" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C84" s="78">
-        <v>14.385971760022301</v>
+        <v>14.8178969842428</v>
       </c>
       <c r="D84" s="79">
-        <v>9.9714815323129393</v>
+        <v>10.3024188637725</v>
       </c>
       <c r="E84" s="79">
-        <v>1.7113771403612099</v>
+        <v>1.6486549883613499</v>
       </c>
       <c r="F84" s="79">
-        <v>17.812223141737199</v>
+        <v>18.499562318322301</v>
       </c>
       <c r="G84" s="80">
-        <v>75.019341859124495</v>
+        <v>76.996827937411794</v>
       </c>
       <c r="H84" s="81">
-        <v>62171.545233170997</v>
+        <v>67114.216274803402</v>
       </c>
       <c r="I84" s="82">
-        <v>42645.1485854907</v>
+        <v>46199.424906890803</v>
       </c>
       <c r="J84" s="82">
-        <v>7621.8484756593998</v>
+        <v>7745.80522325114</v>
       </c>
       <c r="K84" s="82">
-        <v>77339.893074068896</v>
+        <v>84080.093804070595</v>
       </c>
       <c r="L84" s="83">
-        <v>253912.09196270999</v>
+        <v>278449.41508325399</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="62"/>
       <c r="B85" s="48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C85" s="64">
         <v>8.2925534306547704</v>
@@ -4636,79 +4642,79 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="62"/>
       <c r="B86" s="48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C86" s="64">
-        <v>17.538123889207998</v>
+        <v>17.471919620555301</v>
       </c>
       <c r="D86" s="65">
-        <v>13.2616130727298</v>
+        <v>13.223009725918899</v>
       </c>
       <c r="E86" s="65">
-        <v>0.1433409517143</v>
+        <v>0.13757303179985</v>
       </c>
       <c r="F86" s="65">
-        <v>23.563906326687199</v>
+        <v>23.4687429823408</v>
       </c>
       <c r="G86" s="66">
-        <v>66.707391107214903</v>
+        <v>66.096683812586605</v>
       </c>
       <c r="H86" s="67">
-        <v>310484.478949985</v>
+        <v>305541.80790835299</v>
       </c>
       <c r="I86" s="68">
-        <v>236539.43225341701</v>
+        <v>232985.155932016</v>
       </c>
       <c r="J86" s="68">
-        <v>2872.7446195184898</v>
+        <v>2748.7878719267501</v>
       </c>
       <c r="K86" s="68">
-        <v>417574.70911120798</v>
+        <v>410834.50838120602</v>
       </c>
       <c r="L86" s="69">
-        <v>1170865.8998741</v>
+        <v>1146328.57675356</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="62"/>
       <c r="B87" s="48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C87" s="64">
-        <v>17.406648329105501</v>
+        <v>17.405873439022798</v>
       </c>
       <c r="D87" s="65">
-        <v>14.1503523277624</v>
+        <v>14.1494564313574</v>
       </c>
       <c r="E87" s="65">
-        <v>6.439049142469E-2</v>
+        <v>6.4273662132409995E-2</v>
       </c>
       <c r="F87" s="65">
-        <v>24.528340066399799</v>
+        <v>24.5282441213369</v>
       </c>
       <c r="G87" s="66">
-        <v>65.656161405305497</v>
+        <v>65.653652139539403</v>
       </c>
       <c r="H87" s="67">
-        <v>1212416.7289827</v>
+        <v>1211871.69673795</v>
       </c>
       <c r="I87" s="68">
-        <v>964669.13791770802</v>
+        <v>964190.462912458</v>
       </c>
       <c r="J87" s="68">
-        <v>5378.8957945878801</v>
+        <v>5360.5409313378796</v>
       </c>
       <c r="K87" s="68">
-        <v>1699363.1193599901</v>
+        <v>1698738.1704154699</v>
       </c>
       <c r="L87" s="69">
-        <v>4477366.3194557503</v>
+        <v>4475369.9183563804</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="62"/>
       <c r="B88" s="48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C88" s="64">
         <v>30.793457630430598</v>
@@ -4744,79 +4750,79 @@
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="62"/>
       <c r="B89" s="48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C89" s="64">
-        <v>27.863220987761601</v>
+        <v>27.8555550047389</v>
       </c>
       <c r="D89" s="65">
-        <v>16.9281915411079</v>
+        <v>16.9741697263566</v>
       </c>
       <c r="E89" s="65">
-        <v>5.1002187007439997E-2</v>
+        <v>2.5756383972289999E-2</v>
       </c>
       <c r="F89" s="65">
-        <v>32.688379953374202</v>
+        <v>32.6498147288751</v>
       </c>
       <c r="G89" s="66">
-        <v>62.966308388300803</v>
+        <v>63.1398165360199</v>
       </c>
       <c r="H89" s="67">
-        <v>7436970.4142014999</v>
+        <v>7339067.6953189503</v>
       </c>
       <c r="I89" s="68">
-        <v>4371347.7526281597</v>
+        <v>4322548.0306030205</v>
       </c>
       <c r="J89" s="68">
-        <v>9711.2921997335707</v>
+        <v>4871.8272509420603</v>
       </c>
       <c r="K89" s="68">
-        <v>8813046.9006584194</v>
+        <v>8691796.6839804593</v>
       </c>
       <c r="L89" s="69">
-        <v>17677763.6642869</v>
+        <v>17496631.347262502</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="62"/>
       <c r="B90" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C90" s="71">
-        <v>37.335959050953598</v>
+        <v>37.228025090159797</v>
       </c>
       <c r="D90" s="72">
-        <v>22.622924794942499</v>
+        <v>22.505844732183601</v>
       </c>
       <c r="E90" s="72">
-        <v>0.16147213616851</v>
+        <v>0.17824217458364</v>
       </c>
       <c r="F90" s="72">
-        <v>44.312603206576703</v>
+        <v>44.2015619670128</v>
       </c>
       <c r="G90" s="73">
-        <v>113.313128984108</v>
+        <v>112.58471784515</v>
       </c>
       <c r="H90" s="74">
-        <v>21732102.225785401</v>
+        <v>21830549.9769127</v>
       </c>
       <c r="I90" s="75">
-        <v>11552914.314827999</v>
+        <v>11602192.711858399</v>
       </c>
       <c r="J90" s="75">
-        <v>70658.369160246497</v>
+        <v>75516.188972288001</v>
       </c>
       <c r="K90" s="75">
-        <v>26021562.029900301</v>
+        <v>26143437.1955228</v>
       </c>
       <c r="L90" s="76">
-        <v>67518047.135399893</v>
+        <v>67701175.853523701</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="62"/>
       <c r="B91" s="77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C91" s="78">
         <v>16.196491451955499</v>
@@ -4852,7 +4858,7 @@
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="62"/>
       <c r="B92" s="48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C92" s="64">
         <v>11.898630441198501</v>
@@ -4888,7 +4894,7 @@
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="62"/>
       <c r="B93" s="48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C93" s="64">
         <v>25.170856052048801</v>
@@ -4924,43 +4930,43 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="62"/>
       <c r="B94" s="48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C94" s="64">
-        <v>18.618778905990599</v>
+        <v>18.4584244215316</v>
       </c>
       <c r="D94" s="65">
-        <v>13.2686522253316</v>
+        <v>14.036845996822199</v>
       </c>
       <c r="E94" s="65">
-        <v>0.56109182398648005</v>
+        <v>0.38211250438707001</v>
       </c>
       <c r="F94" s="65">
-        <v>20.705213437492102</v>
+        <v>19.860868049819199</v>
       </c>
       <c r="G94" s="66">
-        <v>117.095405073199</v>
+        <v>116.432289120996</v>
       </c>
       <c r="H94" s="67">
-        <v>130582.73771511301</v>
+        <v>122392.02892256</v>
       </c>
       <c r="I94" s="68">
-        <v>92192.6739207848</v>
+        <v>91114.263840997606</v>
       </c>
       <c r="J94" s="68">
-        <v>3962.4176584091201</v>
+        <v>2780.6067488346498</v>
       </c>
       <c r="K94" s="68">
-        <v>142504.81961061101</v>
+        <v>129770.764857951</v>
       </c>
       <c r="L94" s="69">
-        <v>851952.11721615202</v>
+        <v>802320.73423742899</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="62"/>
       <c r="B95" s="48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C95" s="64">
         <v>16.728867101575101</v>
@@ -4996,7 +5002,7 @@
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="62"/>
       <c r="B96" s="70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C96" s="71">
         <v>22.775159554832602</v>
@@ -5032,73 +5038,73 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="62"/>
       <c r="B97" s="77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C97" s="78">
-        <v>15.0474737277187</v>
+        <v>15.035757654823</v>
       </c>
       <c r="D97" s="79">
-        <v>9.6168548355795096</v>
+        <v>9.6360384266730694</v>
       </c>
       <c r="E97" s="79">
-        <v>0.62449447199793995</v>
+        <v>0.62856709420517998</v>
       </c>
       <c r="F97" s="79">
-        <v>18.469873154788601</v>
+        <v>18.487876880949798</v>
       </c>
       <c r="G97" s="80">
-        <v>58.683462970354</v>
+        <v>58.569141057820197</v>
       </c>
       <c r="H97" s="81">
-        <v>197543.68087512901</v>
+        <v>200047.45941695501</v>
       </c>
       <c r="I97" s="82">
-        <v>127560.931172378</v>
+        <v>129513.726545734</v>
       </c>
       <c r="J97" s="82">
-        <v>8542.4774775053702</v>
+        <v>8708.4638092624391</v>
       </c>
       <c r="K97" s="82">
-        <v>247528.632379285</v>
+        <v>251042.83271861399</v>
       </c>
       <c r="L97" s="83">
-        <v>700574.46247201401</v>
+        <v>709475.29705450195</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="62"/>
       <c r="B98" s="70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C98" s="71">
-        <v>12.926806766540199</v>
+        <v>12.944068438567101</v>
       </c>
       <c r="D98" s="72">
-        <v>7.2552198486402801</v>
+        <v>7.2395879634764402</v>
       </c>
       <c r="E98" s="72">
-        <v>0.16489531480177</v>
+        <v>0.17716661137802001</v>
       </c>
       <c r="F98" s="72">
-        <v>17.258165262533101</v>
+        <v>17.235649630790601</v>
       </c>
       <c r="G98" s="73">
-        <v>58.189777679856398</v>
+        <v>57.1850464737471</v>
       </c>
       <c r="H98" s="74">
-        <v>233647.15049721999</v>
+        <v>242676.90723545101</v>
       </c>
       <c r="I98" s="75">
-        <v>117272.895385059</v>
+        <v>121699.74749364</v>
       </c>
       <c r="J98" s="75">
-        <v>3216.9390682644698</v>
+        <v>3637.3353111986798</v>
       </c>
       <c r="K98" s="75">
-        <v>299162.96687433799</v>
+        <v>309550.61364351102</v>
       </c>
       <c r="L98" s="76">
-        <v>946949.07724977401</v>
+        <v>953989.13854068296</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -5117,7 +5123,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C100" s="86"/>
       <c r="D100" s="86"/>
@@ -5132,7 +5138,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C101" s="86"/>
       <c r="D101" s="86"/>
@@ -5147,7 +5153,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C102" s="86"/>
       <c r="D102" s="86"/>
@@ -5162,7 +5168,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C103" s="86"/>
       <c r="D103" s="86"/>
@@ -5176,8 +5182,8 @@
       <c r="L103" s="86"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A104" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C104" s="86"/>
       <c r="D104" s="86"/>
@@ -5216,7 +5222,7 @@
     </row>
     <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="87" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C107" s="86"/>
       <c r="D107" s="86"/>
@@ -5244,7 +5250,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C109" s="86"/>
       <c r="D109" s="86"/>
@@ -5259,7 +5265,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C110" s="86"/>
       <c r="D110" s="86"/>
@@ -5287,7 +5293,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C112" s="86"/>
       <c r="D112" s="86"/>
@@ -5302,7 +5308,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C113" s="86"/>
       <c r="D113" s="86"/>
@@ -5330,11 +5336,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{23C7D6B2-A301-4F81-9150-26EE8CB3EA5B}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2BF238E9-F09D-49CB-8A84-23CFF86891D9}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{DA32DD3F-1FFF-4306-9285-09BDE035C519}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{75ECC26B-B9D0-4248-9429-1C2210E1A683}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{0CBFB7B9-5B40-467A-820A-FCAB57D68302}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{70082803-B513-4914-ACB4-3133B5CF21B6}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{DD0430FA-E715-47EB-BC86-E5BDA5CF8897}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{985926A5-4538-479E-A2A6-B0F69491BAD5}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{5D7564F6-DEE0-4C6A-B909-8DB97572AC13}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{41BC367C-FA71-41F6-A558-0A655DFDDD87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F06AC5-31BB-4C13-94D3-0D0072F14011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9505F7DF-3E29-4714-AF7A-8285C8ACD27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{92A4FC62-74A9-4291-ADAD-8B1BEAD69501}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6A41E70A-2328-4AB8-90AD-2FD241B3A864}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -1466,7 +1466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD32905-6C0D-4503-B5A5-482D975605F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F48AAC4-9E95-46F8-925A-49B88EA59920}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5336,11 +5336,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{70082803-B513-4914-ACB4-3133B5CF21B6}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{DD0430FA-E715-47EB-BC86-E5BDA5CF8897}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{985926A5-4538-479E-A2A6-B0F69491BAD5}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{5D7564F6-DEE0-4C6A-B909-8DB97572AC13}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{41BC367C-FA71-41F6-A558-0A655DFDDD87}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F4B7EA32-D4F0-4BA8-9BC6-95E578EB9480}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{DD5BD666-5FEA-4C34-A779-F9E2EFBB0BEB}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{493E9AFA-3A8F-4BB1-B911-D0BB974B231F}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{820D802E-913F-48ED-98AC-792FBA963E93}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{322600BA-FBCF-4AE6-8EAB-9F9551980CAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9505F7DF-3E29-4714-AF7A-8285C8ACD27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{683E6E93-FFAE-43C9-A91C-0DD55CE5B082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6A41E70A-2328-4AB8-90AD-2FD241B3A864}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{41EFE388-C9FF-4845-8879-E47E087E0966}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -1466,7 +1466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F48AAC4-9E95-46F8-925A-49B88EA59920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F51A4C-DA52-4E2C-8298-2405583E3598}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5336,11 +5336,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F4B7EA32-D4F0-4BA8-9BC6-95E578EB9480}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{DD5BD666-5FEA-4C34-A779-F9E2EFBB0BEB}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{493E9AFA-3A8F-4BB1-B911-D0BB974B231F}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{820D802E-913F-48ED-98AC-792FBA963E93}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{322600BA-FBCF-4AE6-8EAB-9F9551980CAD}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DE6B6F06-C937-42E9-B674-3E166FE3E067}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{776DD672-E2F0-4622-8230-660F1E82387C}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{0213972A-3AB5-4E7B-A449-E252F8395C79}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{8E99222D-791F-4037-A6CC-43C0148C3A06}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{138E45E2-470C-46AA-AFC6-F2DB052E88CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683E6E93-FFAE-43C9-A91C-0DD55CE5B082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A074EF5-DE15-489C-8752-326034960968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{41EFE388-C9FF-4845-8879-E47E087E0966}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{64609273-5F66-4DDB-919E-01ADBDF3E880}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="174">
   <si>
     <t>Tableau 16 : Finances publiques</t>
   </si>
@@ -546,16 +546,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F51A4C-DA52-4E2C-8298-2405583E3598}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC15850A-971B-4CFC-A7DD-351691E004C2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5250,7 +5253,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C109" s="86"/>
       <c r="D109" s="86"/>
@@ -5265,7 +5268,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C110" s="86"/>
       <c r="D110" s="86"/>
@@ -5279,7 +5282,9 @@
       <c r="L110" s="86"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C111" s="86"/>
       <c r="D111" s="86"/>
       <c r="E111" s="86"/>
@@ -5293,7 +5298,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" s="86"/>
       <c r="D112" s="86"/>
@@ -5308,7 +5313,7 @@
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" s="86"/>
       <c r="D113" s="86"/>
@@ -5336,13 +5341,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{DE6B6F06-C937-42E9-B674-3E166FE3E067}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{776DD672-E2F0-4622-8230-660F1E82387C}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{0213972A-3AB5-4E7B-A449-E252F8395C79}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{8E99222D-791F-4037-A6CC-43C0148C3A06}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{138E45E2-470C-46AA-AFC6-F2DB052E88CA}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F680A27A-545E-4125-A9B5-6776A0A0B0BF}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{C857384E-04BA-4702-8B5A-224766FE1BD4}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{3630875B-F84A-4B64-ADFE-D21A72BC3855}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{35118A51-41A3-4CAC-9CA2-380231CBDE22}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{B1FDA878-465F-4BA7-8009-99F8138FE95B}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{EF1F87AD-4DA4-440F-A7A2-03267E246FC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab16.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A074EF5-DE15-489C-8752-326034960968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A36A7163-2DFE-46F7-816F-521C416703BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{64609273-5F66-4DDB-919E-01ADBDF3E880}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{8C14B9CC-E8A6-41D8-AB4C-4E9DFE33C22A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab16" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab16'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab16'!$A$1:$G$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="174">
   <si>
     <t>Tableau 16 : Finances publiques</t>
   </si>
@@ -540,7 +540,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Source : Base de données des Perspectives de l'économie mondiale du FMI, avril 2023.</t>
+    <t>Source : Base de données des Perspectives de l'économie mondiale du FMI, octobre 2023.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1469,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC15850A-971B-4CFC-A7DD-351691E004C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC17A622-8A27-419F-A983-07F44CFA8612}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1477,15 +1477,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1500,7 +1500,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="11">
-        <v>23.328969990684101</v>
+        <v>23.307004246716001</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>15</v>
@@ -1555,13 +1555,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="12">
-        <v>19.494932880814702</v>
+        <v>19.476578243200301</v>
       </c>
       <c r="G3" s="13">
-        <v>86.860582413881403</v>
+        <v>86.778798270579799</v>
       </c>
       <c r="H3" s="14">
-        <v>17447.868236739501</v>
+        <v>17447.856449134099</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>15</v>
@@ -1570,13 +1570,13 @@
         <v>15</v>
       </c>
       <c r="K3" s="15">
-        <v>14580.3702574251</v>
+        <v>14580.361238642199</v>
       </c>
       <c r="L3" s="16">
-        <v>64963.519500820003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>64963.476173338699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="18">
-        <v>30.517508852471401</v>
+        <v>30.5675762841588</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>15</v>
@@ -1593,13 +1593,13 @@
         <v>15</v>
       </c>
       <c r="F4" s="19">
-        <v>33.005501335718897</v>
+        <v>33.059597675974601</v>
       </c>
       <c r="G4" s="20">
-        <v>19.650674594567299</v>
+        <v>19.6829736742032</v>
       </c>
       <c r="H4" s="21">
-        <v>5727.4312630639997</v>
+        <v>5727.44676836283</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>15</v>
@@ -1608,13 +1608,13 @@
         <v>15</v>
       </c>
       <c r="K4" s="22">
-        <v>6194.3699637196296</v>
+        <v>6194.3768165473703</v>
       </c>
       <c r="L4" s="23">
-        <v>3687.9775658394801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3687.9987773354601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="25">
-        <v>25.649702811053999</v>
+        <v>25.649216376937702</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>15</v>
@@ -1631,13 +1631,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="26">
-        <v>30.345578770140701</v>
+        <v>30.345250488427499</v>
       </c>
       <c r="G5" s="27">
-        <v>41.944020976005902</v>
+        <v>42.0646578155527</v>
       </c>
       <c r="H5" s="28">
-        <v>1216.72544391882</v>
+        <v>1216.79882492192</v>
       </c>
       <c r="I5" s="29" t="s">
         <v>15</v>
@@ -1646,13 +1646,13 @@
         <v>15</v>
       </c>
       <c r="K5" s="29">
-        <v>1439.4801402595999</v>
+        <v>1439.578683171</v>
       </c>
       <c r="L5" s="30">
-        <v>1989.66662178157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1995.54736676982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="25">
-        <v>48.474969706640003</v>
+        <v>44.909086096921897</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>15</v>
@@ -1669,13 +1669,13 @@
         <v>15</v>
       </c>
       <c r="F6" s="26">
-        <v>52.872748223684702</v>
+        <v>50.046317126750097</v>
       </c>
       <c r="G6" s="27">
-        <v>56.352125698972202</v>
+        <v>55.694359897308303</v>
       </c>
       <c r="H6" s="28">
-        <v>1235.9821007419</v>
+        <v>1142.48715030569</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>15</v>
@@ -1684,13 +1684,13 @@
         <v>15</v>
       </c>
       <c r="K6" s="29">
-        <v>1348.1136928396299</v>
+        <v>1273.17830770452</v>
       </c>
       <c r="L6" s="30">
-        <v>1436.82851426613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1416.8645157875201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="25">
-        <v>15.057419414205601</v>
+        <v>15.0423830113113</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>15</v>
@@ -1707,13 +1707,13 @@
         <v>15</v>
       </c>
       <c r="F7" s="26">
-        <v>23.673308217046699</v>
+        <v>23.649665180976701</v>
       </c>
       <c r="G7" s="27">
-        <v>61.610711466286801</v>
+        <v>61.549173865822802</v>
       </c>
       <c r="H7" s="28">
-        <v>1876.6600166801099</v>
+        <v>1876.6877044912001</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>15</v>
@@ -1722,13 +1722,13 @@
         <v>15</v>
       </c>
       <c r="K7" s="29">
-        <v>2950.48904273482</v>
+        <v>2950.5322279786501</v>
       </c>
       <c r="L7" s="30">
-        <v>7678.7632480312996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>7678.8749315000496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="25">
-        <v>27.8889972483238</v>
+        <v>27.351402062619201</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>15</v>
@@ -1745,13 +1745,13 @@
         <v>15</v>
       </c>
       <c r="F8" s="26">
-        <v>31.528474227529301</v>
+        <v>30.920677183283701</v>
       </c>
       <c r="G8" s="27">
-        <v>107.20297802575701</v>
+        <v>104.86484536053101</v>
       </c>
       <c r="H8" s="28">
-        <v>4399.9776343084104</v>
+        <v>4400.02004981356</v>
       </c>
       <c r="I8" s="29" t="s">
         <v>15</v>
@@ -1760,13 +1760,13 @@
         <v>15</v>
       </c>
       <c r="K8" s="29">
-        <v>4974.1688526766802</v>
+        <v>4974.2093384748496</v>
       </c>
       <c r="L8" s="30">
-        <v>16913.146838685101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>16869.607673148599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="25">
-        <v>30.807616931906601</v>
+        <v>30.471893008589799</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>15</v>
@@ -1783,13 +1783,13 @@
         <v>15</v>
       </c>
       <c r="F9" s="26">
-        <v>39.624633463940498</v>
+        <v>39.192671523322801</v>
       </c>
       <c r="G9" s="27">
-        <v>71.979255915050501</v>
+        <v>70.374578666956594</v>
       </c>
       <c r="H9" s="28">
-        <v>3791.62628086115</v>
+        <v>3791.6176470588198</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>15</v>
@@ -1798,13 +1798,13 @@
         <v>15</v>
       </c>
       <c r="K9" s="29">
-        <v>4876.7745309039401</v>
+        <v>4876.7441176470602</v>
       </c>
       <c r="L9" s="30">
-        <v>8858.7974528364593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>8756.7088235294104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="25">
-        <v>27.121902658975898</v>
+        <v>27.050747118679901</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>15</v>
@@ -1821,13 +1821,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="26">
-        <v>32.673033491174898</v>
+        <v>32.587320613079598</v>
       </c>
       <c r="G10" s="27">
-        <v>68.978426634683899</v>
+        <v>68.797458955744403</v>
       </c>
       <c r="H10" s="28">
-        <v>113615.627160494</v>
+        <v>113615.57246569599</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>15</v>
@@ -1836,13 +1836,13 @@
         <v>15</v>
       </c>
       <c r="K10" s="29">
-        <v>136869.71883984399</v>
+        <v>136869.67943379001</v>
       </c>
       <c r="L10" s="30">
-        <v>288955.65702689003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>288955.51938543201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="18">
-        <v>22.316910092133799</v>
+        <v>22.316977999918802</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>15</v>
@@ -1859,13 +1859,13 @@
         <v>15</v>
       </c>
       <c r="F11" s="19">
-        <v>30.4330295152931</v>
+        <v>30.433144924463502</v>
       </c>
       <c r="G11" s="20">
-        <v>110.78973886191901</v>
+        <v>110.789828627623</v>
       </c>
       <c r="H11" s="21">
-        <v>4942.6710416323704</v>
+        <v>4942.7642874220201</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>15</v>
@@ -1874,13 +1874,13 @@
         <v>15</v>
       </c>
       <c r="K11" s="22">
-        <v>6740.2007300016903</v>
+        <v>6740.3329378701801</v>
       </c>
       <c r="L11" s="23">
-        <v>24537.323120544101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>24537.731244445898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="25">
-        <v>15.368798568885801</v>
+        <v>15.3591226083328</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>15</v>
@@ -1897,13 +1897,13 @@
         <v>15</v>
       </c>
       <c r="F12" s="26">
-        <v>17.526980372807898</v>
+        <v>17.521450105564298</v>
       </c>
       <c r="G12" s="27">
-        <v>59.806566962848798</v>
+        <v>59.7689505996618</v>
       </c>
       <c r="H12" s="28">
-        <v>5527.7535106322903</v>
+        <v>5527.7482267389896</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>15</v>
@@ -1912,13 +1912,13 @@
         <v>15</v>
       </c>
       <c r="K12" s="29">
-        <v>6303.9948667630697</v>
+        <v>6305.9698929925999</v>
       </c>
       <c r="L12" s="30">
-        <v>21510.852589157101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21510.845320818298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>34</v>
       </c>
@@ -1926,37 +1926,37 @@
         <v>35</v>
       </c>
       <c r="C13" s="33">
-        <v>25.927126454126999</v>
+        <v>25.841300283243399</v>
       </c>
       <c r="D13" s="34">
-        <v>22.424274620035</v>
+        <v>22.365183929815299</v>
       </c>
       <c r="E13" s="34">
-        <v>0.17563656087688001</v>
+        <v>0.17399729287297</v>
       </c>
       <c r="F13" s="34">
-        <v>29.9418841607676</v>
+        <v>29.847749186612798</v>
       </c>
       <c r="G13" s="35">
-        <v>73.075376298319696</v>
+        <v>72.835616280854595</v>
       </c>
       <c r="H13" s="36">
-        <v>159782.322689072</v>
+        <v>159688.99957394501</v>
       </c>
       <c r="I13" s="37">
-        <v>138321.06306686401</v>
+        <v>138321.12690263</v>
       </c>
       <c r="J13" s="37">
-        <v>888.00905410867904</v>
+        <v>888.01347721622199</v>
       </c>
       <c r="K13" s="37">
-        <v>186277.680917169</v>
+        <v>186204.96299481799</v>
       </c>
       <c r="L13" s="38">
-        <v>440532.53247885098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>440373.17421210598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="25">
-        <v>25.129874481230299</v>
+        <v>25.129865701224901</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>15</v>
@@ -1973,13 +1973,13 @@
         <v>15</v>
       </c>
       <c r="F14" s="26">
-        <v>30.379633618010701</v>
+        <v>30.379629303382099</v>
       </c>
       <c r="G14" s="27">
-        <v>66.566300960477093</v>
+        <v>66.563674380855403</v>
       </c>
       <c r="H14" s="28">
-        <v>842.05432888078997</v>
+        <v>842.10179964804604</v>
       </c>
       <c r="I14" s="29" t="s">
         <v>15</v>
@@ -1988,13 +1988,13 @@
         <v>15</v>
       </c>
       <c r="K14" s="29">
-        <v>1017.96377920491</v>
+        <v>1018.02137795633</v>
       </c>
       <c r="L14" s="30">
-        <v>2230.5102209411002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2230.5487285024701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="25">
-        <v>13.956394165891099</v>
+        <v>13.9563934823591</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>15</v>
@@ -2011,13 +2011,13 @@
         <v>15</v>
       </c>
       <c r="F15" s="26">
-        <v>16.940345434392601</v>
+        <v>16.940344394032302</v>
       </c>
       <c r="G15" s="27">
-        <v>46.783880748321501</v>
+        <v>46.7838801024877</v>
       </c>
       <c r="H15" s="28">
-        <v>6335.0161565407998</v>
+        <v>6334.9465655776203</v>
       </c>
       <c r="I15" s="29" t="s">
         <v>15</v>
@@ -2026,13 +2026,13 @@
         <v>15</v>
       </c>
       <c r="K15" s="29">
-        <v>7689.4762894085297</v>
+        <v>7689.3917238952099</v>
       </c>
       <c r="L15" s="30">
-        <v>21235.903549544801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>21235.671017320201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>41</v>
       </c>
       <c r="C16" s="25">
-        <v>13.6644028618093</v>
+        <v>13.665324067349699</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>15</v>
@@ -2049,13 +2049,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="26">
-        <v>19.681205610441101</v>
+        <v>19.685862485056401</v>
       </c>
       <c r="G16" s="27">
-        <v>47.597157255363598</v>
+        <v>47.607971241187499</v>
       </c>
       <c r="H16" s="28">
-        <v>353.17280160803</v>
+        <v>353.111973900316</v>
       </c>
       <c r="I16" s="29" t="s">
         <v>15</v>
@@ -2064,13 +2064,13 @@
         <v>15</v>
       </c>
       <c r="K16" s="29">
-        <v>508.684250219977</v>
+        <v>508.68268661385702</v>
       </c>
       <c r="L16" s="30">
-        <v>1230.20534058149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1230.1899768722801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="40">
-        <v>16.8138431261</v>
+        <v>16.827814104368102</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>15</v>
@@ -2087,13 +2087,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="41">
-        <v>18.4207532760643</v>
+        <v>18.795984329193999</v>
       </c>
       <c r="G17" s="42">
-        <v>55.913332442830601</v>
+        <v>57.362718619480397</v>
       </c>
       <c r="H17" s="43">
-        <v>1984.06572254808</v>
+        <v>1983.999282905</v>
       </c>
       <c r="I17" s="44" t="s">
         <v>15</v>
@@ -2102,13 +2102,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="44">
-        <v>2173.6842008369399</v>
+        <v>2216.04655241198</v>
       </c>
       <c r="L17" s="45">
-        <v>6597.8804192035605</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>6763.0645252367403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>44</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>45</v>
       </c>
       <c r="C18" s="40">
-        <v>24.901547995848802</v>
+        <v>22.5645129726778</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>15</v>
@@ -2125,13 +2125,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="41">
-        <v>23.1033945473655</v>
+        <v>20.9351180120942</v>
       </c>
       <c r="G18" s="42">
-        <v>107.921349357267</v>
+        <v>97.7644254225346</v>
       </c>
       <c r="H18" s="43">
-        <v>3020.7707693022799</v>
+        <v>3020.71135165237</v>
       </c>
       <c r="I18" s="44" t="s">
         <v>15</v>
@@ -2140,13 +2140,13 @@
         <v>15</v>
       </c>
       <c r="K18" s="44">
-        <v>2802.6393753502298</v>
+        <v>2802.5842482790499</v>
       </c>
       <c r="L18" s="45">
-        <v>13091.782791031201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>13087.7236313147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="18">
-        <v>13.7677266444173</v>
+        <v>13.644268277496201</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>15</v>
@@ -2163,13 +2163,13 @@
         <v>15</v>
       </c>
       <c r="F19" s="19">
-        <v>14.6206210650994</v>
+        <v>15.624730918379299</v>
       </c>
       <c r="G19" s="20">
-        <v>16.294160141509298</v>
+        <v>15.936656994453299</v>
       </c>
       <c r="H19" s="21">
-        <v>7780.9389767200701</v>
+        <v>7821.9861181230099</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>15</v>
@@ -2178,13 +2178,13 @@
         <v>15</v>
       </c>
       <c r="K19" s="22">
-        <v>8262.9589653725707</v>
+        <v>8957.3457408884606</v>
       </c>
       <c r="L19" s="23">
-        <v>9208.7727344149807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>9136.1667217801896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="40">
-        <v>15.300364506399101</v>
+        <v>15.3003598748044</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>15</v>
@@ -2201,13 +2201,13 @@
         <v>15</v>
       </c>
       <c r="F20" s="41">
-        <v>12.659415363745399</v>
+        <v>12.6594211578753</v>
       </c>
       <c r="G20" s="42">
-        <v>42.619021915843199</v>
+        <v>42.108629719912003</v>
       </c>
       <c r="H20" s="43">
-        <v>1877.2619039199301</v>
+        <v>1877.2011530397599</v>
       </c>
       <c r="I20" s="44" t="s">
         <v>15</v>
@@ -2216,13 +2216,13 @@
         <v>15</v>
       </c>
       <c r="K20" s="44">
-        <v>1553.23346566801</v>
+        <v>1553.1843818597199</v>
       </c>
       <c r="L20" s="45">
-        <v>5229.0954370060899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>5166.3077803360102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>50</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="40">
-        <v>14.7314103081328</v>
+        <v>14.7413717749517</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>15</v>
@@ -2239,13 +2239,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="41">
-        <v>16.5830321695558</v>
+        <v>16.5942437470231</v>
       </c>
       <c r="G21" s="42">
-        <v>65.771360787737905</v>
+        <v>65.815817030074598</v>
       </c>
       <c r="H21" s="43">
-        <v>2981.9653800547198</v>
+        <v>2982.0320963549798</v>
       </c>
       <c r="I21" s="44" t="s">
         <v>15</v>
@@ -2254,13 +2254,13 @@
         <v>15</v>
       </c>
       <c r="K21" s="44">
-        <v>3356.77486347992</v>
+        <v>3356.8495675853101</v>
       </c>
       <c r="L21" s="45">
-        <v>13313.5875497165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>13313.8816270138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="25">
-        <v>27.020542459754498</v>
+        <v>24.118077133979199</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>15</v>
@@ -2277,13 +2277,13 @@
         <v>15</v>
       </c>
       <c r="F22" s="26">
-        <v>25.522813006891202</v>
+        <v>25.6351672454762</v>
       </c>
       <c r="G22" s="27">
-        <v>70.602442946783199</v>
+        <v>76.667885212941002</v>
       </c>
       <c r="H22" s="28">
-        <v>143.43738904447201</v>
+        <v>127.58462803875</v>
       </c>
       <c r="I22" s="29" t="s">
         <v>15</v>
@@ -2292,13 +2292,13 @@
         <v>15</v>
       </c>
       <c r="K22" s="29">
-        <v>135.48675657535301</v>
+        <v>135.61003472856899</v>
       </c>
       <c r="L22" s="30">
-        <v>374.79003582298401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>405.573112776458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>34</v>
       </c>
@@ -2306,37 +2306,37 @@
         <v>54</v>
       </c>
       <c r="C23" s="33">
-        <v>15.3069843161683</v>
+        <v>15.1543570378702</v>
       </c>
       <c r="D23" s="34">
-        <v>10.2106753100253</v>
+        <v>10.0901798146767</v>
       </c>
       <c r="E23" s="34">
-        <v>1.309662705696</v>
+        <v>1.28564138980709</v>
       </c>
       <c r="F23" s="34">
-        <v>16.759065359601699</v>
+        <v>16.998111925540702</v>
       </c>
       <c r="G23" s="35">
-        <v>43.4335751520494</v>
+        <v>43.074740274211898</v>
       </c>
       <c r="H23" s="36">
-        <v>25318.683428619199</v>
+        <v>25343.674969239899</v>
       </c>
       <c r="I23" s="37">
-        <v>16867.910408904801</v>
+        <v>16867.910366687702</v>
       </c>
       <c r="J23" s="37">
-        <v>2140.85215158336</v>
+        <v>2140.9094236740698</v>
       </c>
       <c r="K23" s="37">
-        <v>27500.901946116501</v>
+        <v>28237.716314218502</v>
       </c>
       <c r="L23" s="38">
-        <v>72512.528078262694</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>72569.127121152793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="25">
-        <v>17.0415727887756</v>
+        <v>17.041630324515101</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>15</v>
@@ -2353,13 +2353,13 @@
         <v>15</v>
       </c>
       <c r="F24" s="26">
-        <v>19.825696827161401</v>
+        <v>19.824097747597701</v>
       </c>
       <c r="G24" s="27">
-        <v>25.3762934030004</v>
+        <v>25.512939053743999</v>
       </c>
       <c r="H24" s="28">
-        <v>219.035826889605</v>
+        <v>218.98494967002</v>
       </c>
       <c r="I24" s="29" t="s">
         <v>15</v>
@@ -2368,13 +2368,13 @@
         <v>15</v>
       </c>
       <c r="K24" s="29">
-        <v>254.82025350735901</v>
+        <v>254.73965605663</v>
       </c>
       <c r="L24" s="30">
-        <v>326.16223149194201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>327.84126684060999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>57</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="25">
-        <v>20.082122005614899</v>
+        <v>21.3811131866014</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>15</v>
@@ -2391,13 +2391,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="26">
-        <v>22.997553041984698</v>
+        <v>24.0906250623201</v>
       </c>
       <c r="G25" s="27">
-        <v>40.971488221904501</v>
+        <v>40.807867954504701</v>
       </c>
       <c r="H25" s="28">
-        <v>677.23004034413498</v>
+        <v>723.96449249832199</v>
       </c>
       <c r="I25" s="29" t="s">
         <v>15</v>
@@ -2406,21 +2406,21 @@
         <v>15</v>
       </c>
       <c r="K25" s="29">
-        <v>775.54721408848695</v>
+        <v>815.70856461015899</v>
       </c>
       <c r="L25" s="30">
-        <v>1381.68280292898</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1381.7544089395301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="25">
-        <v>33.296160052062703</v>
+      <c r="C26" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>15</v>
@@ -2428,14 +2428,14 @@
       <c r="E26" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="26">
-        <v>37.383997888588802</v>
-      </c>
-      <c r="G26" s="27">
-        <v>175.36377427759001</v>
-      </c>
-      <c r="H26" s="28">
-        <v>736.49574320428496</v>
+      <c r="F26" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="I26" s="29" t="s">
         <v>15</v>
@@ -2443,14 +2443,14 @@
       <c r="J26" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="29">
-        <v>826.91683563065999</v>
-      </c>
-      <c r="L26" s="30">
-        <v>3878.9660148717799</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K26" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>61</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="25">
-        <v>11.0307630824447</v>
+        <v>11.030760445912801</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>15</v>
@@ -2467,13 +2467,13 @@
         <v>15</v>
       </c>
       <c r="F27" s="26">
-        <v>13.797586755709</v>
+        <v>13.797595100367699</v>
       </c>
       <c r="G27" s="27">
-        <v>53.787937107347901</v>
+        <v>53.788178754854201</v>
       </c>
       <c r="H27" s="28">
-        <v>10950.1750603739</v>
+        <v>10950.1255870532</v>
       </c>
       <c r="I27" s="29" t="s">
         <v>15</v>
@@ -2482,13 +2482,13 @@
         <v>15</v>
       </c>
       <c r="K27" s="29">
-        <v>13696.785005396599</v>
+        <v>13696.734680183999</v>
       </c>
       <c r="L27" s="30">
-        <v>53394.975765476302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>53394.9871681562</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>63</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="25">
-        <v>16.72115918123</v>
+        <v>16.8192288742401</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>15</v>
@@ -2505,13 +2505,13 @@
         <v>15</v>
       </c>
       <c r="F28" s="26">
-        <v>23.860903799442099</v>
+        <v>24.015398836448899</v>
       </c>
       <c r="G28" s="27">
-        <v>66.967592072165601</v>
+        <v>68.232213376132506</v>
       </c>
       <c r="H28" s="28">
-        <v>18451.306027002898</v>
+        <v>18480.127725571299</v>
       </c>
       <c r="I28" s="29" t="s">
         <v>15</v>
@@ -2520,13 +2520,13 @@
         <v>15</v>
       </c>
       <c r="K28" s="29">
-        <v>26329.8036525239</v>
+        <v>26386.919471548201</v>
       </c>
       <c r="L28" s="30">
-        <v>73896.762887232297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>74970.144447025494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="25">
-        <v>11.2093445248381</v>
+        <v>11.056980697572</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>15</v>
@@ -2543,13 +2543,13 @@
         <v>15</v>
       </c>
       <c r="F29" s="26">
-        <v>13.9979179262135</v>
+        <v>13.7068941794426</v>
       </c>
       <c r="G29" s="27">
-        <v>52.323485548539402</v>
+        <v>52.029192679600101</v>
       </c>
       <c r="H29" s="28">
-        <v>1631.4925335169901</v>
+        <v>1609.3435405316</v>
       </c>
       <c r="I29" s="29" t="s">
         <v>15</v>
@@ -2558,13 +2558,13 @@
         <v>15</v>
       </c>
       <c r="K29" s="29">
-        <v>2037.3625354093399</v>
+        <v>1995.0384478178701</v>
       </c>
       <c r="L29" s="30">
-        <v>7615.5546660975997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>7572.8489945157899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>67</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="25">
-        <v>26.380066575697999</v>
+        <v>26.384549309580201</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>15</v>
@@ -2581,13 +2581,13 @@
         <v>15</v>
       </c>
       <c r="F30" s="26">
-        <v>30.8262616679866</v>
+        <v>30.831158028494599</v>
       </c>
       <c r="G30" s="27">
-        <v>97.052884424504697</v>
+        <v>97.068197635414094</v>
       </c>
       <c r="H30" s="28">
-        <v>3027.9717036947</v>
+        <v>3027.89087876742</v>
       </c>
       <c r="I30" s="29" t="s">
         <v>15</v>
@@ -2596,13 +2596,13 @@
         <v>15</v>
       </c>
       <c r="K30" s="29">
-        <v>3538.3173804170901</v>
+        <v>3538.1836953500401</v>
       </c>
       <c r="L30" s="30">
-        <v>11139.979004832299</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>11139.546360640101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>69</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="25">
-        <v>24.561059789713401</v>
+        <v>24.592516010979001</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>15</v>
@@ -2619,13 +2619,13 @@
         <v>15</v>
       </c>
       <c r="F31" s="26">
-        <v>31.560050943450001</v>
+        <v>31.600475754803298</v>
       </c>
       <c r="G31" s="27">
-        <v>66.575018525483102</v>
+        <v>66.660228728270795</v>
       </c>
       <c r="H31" s="28">
-        <v>2718.1813908940999</v>
+        <v>2718.2107946934998</v>
       </c>
       <c r="I31" s="29" t="s">
         <v>15</v>
@@ -2634,13 +2634,13 @@
         <v>15</v>
       </c>
       <c r="K31" s="29">
-        <v>3492.7622791783801</v>
+        <v>3492.8005851784101</v>
       </c>
       <c r="L31" s="30">
-        <v>7367.8814352379504</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>7367.95508133577</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>71</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>72</v>
       </c>
       <c r="C32" s="25">
-        <v>33.997562356270599</v>
+        <v>33.009823647768997</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>15</v>
@@ -2657,13 +2657,13 @@
         <v>15</v>
       </c>
       <c r="F32" s="26">
-        <v>39.532309311577698</v>
+        <v>38.3832406201917</v>
       </c>
       <c r="G32" s="27">
-        <v>72.852614889577097</v>
+        <v>70.734209176628397</v>
       </c>
       <c r="H32" s="28">
-        <v>495.38344238247498</v>
+        <v>495.477452953012</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>15</v>
@@ -2672,13 +2672,13 @@
         <v>15</v>
       </c>
       <c r="K32" s="29">
-        <v>576.03104795794604</v>
+        <v>576.13244170907797</v>
       </c>
       <c r="L32" s="30">
-        <v>1061.5460829916501</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1061.72047974119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>73</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>74</v>
       </c>
       <c r="C33" s="25">
-        <v>4.9362365511782702</v>
+        <v>3.8316902124199599</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>15</v>
@@ -2695,13 +2695,13 @@
         <v>15</v>
       </c>
       <c r="F33" s="26">
-        <v>6.0329150915476202</v>
+        <v>4.6752718772232997</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="28">
-        <v>376.53612412387798</v>
+        <v>377</v>
       </c>
       <c r="I33" s="29" t="s">
         <v>15</v>
@@ -2710,13 +2710,13 @@
         <v>15</v>
       </c>
       <c r="K33" s="29">
-        <v>460.19076318325199</v>
+        <v>460</v>
       </c>
       <c r="L33" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>75</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>76</v>
       </c>
       <c r="C34" s="40">
-        <v>34.7785893894726</v>
+        <v>34.7783061821129</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>15</v>
@@ -2733,13 +2733,13 @@
         <v>15</v>
       </c>
       <c r="F34" s="41">
-        <v>44.147101100922498</v>
+        <v>44.146729871861403</v>
       </c>
       <c r="G34" s="42">
-        <v>58.522755516714803</v>
+        <v>52.498017576040098</v>
       </c>
       <c r="H34" s="43">
-        <v>2064.1382720797401</v>
+        <v>2064.0924719084001</v>
       </c>
       <c r="I34" s="44" t="s">
         <v>15</v>
@@ -2748,13 +2748,13 @@
         <v>15</v>
       </c>
       <c r="K34" s="44">
-        <v>2620.1672518486598</v>
+        <v>2620.10841789497</v>
       </c>
       <c r="L34" s="45">
-        <v>3473.37432512953</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3115.7573431379801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>77</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="25">
-        <v>9.4739802717458197</v>
+        <v>9.4605911494771302</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>15</v>
@@ -2771,13 +2771,13 @@
         <v>15</v>
       </c>
       <c r="F35" s="26">
-        <v>9.7589527582731996</v>
+        <v>9.7451635825376606</v>
       </c>
       <c r="G35" s="27">
-        <v>187.903807044508</v>
+        <v>187.876705004391</v>
       </c>
       <c r="H35" s="28">
-        <v>3291.1082852890499</v>
+        <v>3291.1504490801099</v>
       </c>
       <c r="I35" s="29" t="s">
         <v>15</v>
@@ -2786,13 +2786,13 @@
         <v>15</v>
       </c>
       <c r="K35" s="29">
-        <v>3390.1031411561999</v>
+        <v>3390.1475070932001</v>
       </c>
       <c r="L35" s="30">
-        <v>65274.758703669599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>65358.548136927398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>79</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>80</v>
       </c>
       <c r="C36" s="25">
-        <v>14.3635434746779</v>
+        <v>14.363543711935099</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>15</v>
@@ -2809,13 +2809,13 @@
         <v>15</v>
       </c>
       <c r="F36" s="26">
-        <v>17.791596848358001</v>
+        <v>17.791596942751401</v>
       </c>
       <c r="G36" s="27">
-        <v>42.099448485802696</v>
+        <v>42.099448670598697</v>
       </c>
       <c r="H36" s="28">
-        <v>10045.5850181564</v>
+        <v>10045.575201253199</v>
       </c>
       <c r="I36" s="29" t="s">
         <v>15</v>
@@ -2824,13 +2824,13 @@
         <v>15</v>
       </c>
       <c r="K36" s="29">
-        <v>12443.099369179299</v>
+        <v>12443.0870698215</v>
       </c>
       <c r="L36" s="30">
-        <v>29443.541541626</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>29443.5124112433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>81</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>82</v>
       </c>
       <c r="C37" s="25">
-        <v>14.0711760922569</v>
+        <v>14.0602373906625</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>15</v>
@@ -2847,13 +2847,13 @@
         <v>15</v>
       </c>
       <c r="F37" s="26">
-        <v>21.564788032155398</v>
+        <v>21.548024248600399</v>
       </c>
       <c r="G37" s="27">
-        <v>50.638390407973297</v>
+        <v>50.599026005840102</v>
       </c>
       <c r="H37" s="28">
-        <v>6042.2925408076599</v>
+        <v>6000.3469088391103</v>
       </c>
       <c r="I37" s="29" t="s">
         <v>15</v>
@@ -2862,13 +2862,13 @@
         <v>15</v>
       </c>
       <c r="K37" s="29">
-        <v>9260.1184873589009</v>
+        <v>9195.8348283327105</v>
       </c>
       <c r="L37" s="30">
-        <v>21744.590973385199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21593.640338252299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31" t="s">
         <v>34</v>
       </c>
@@ -2876,37 +2876,37 @@
         <v>83</v>
       </c>
       <c r="C38" s="33">
-        <v>13.8350464988727</v>
+        <v>13.661608061730201</v>
       </c>
       <c r="D38" s="34">
-        <v>10.3654774887057</v>
+        <v>10.293310862360601</v>
       </c>
       <c r="E38" s="34">
-        <v>0.82454230211613999</v>
+        <v>0.82104991392766002</v>
       </c>
       <c r="F38" s="34">
-        <v>17.909198502980502</v>
+        <v>17.714996921194</v>
       </c>
       <c r="G38" s="35">
-        <v>78.012998381549906</v>
+        <v>77.697252367823793</v>
       </c>
       <c r="H38" s="36">
-        <v>60726.932008759897</v>
+        <v>60002.290452819099</v>
       </c>
       <c r="I38" s="37">
-        <v>45645.780395005298</v>
+        <v>45319.381670999799</v>
       </c>
       <c r="J38" s="37">
-        <v>3265.3637112811898</v>
+        <v>3238.6600857268299</v>
       </c>
       <c r="K38" s="37">
-        <v>79702.025216836002</v>
+        <v>78865.435365596699</v>
       </c>
       <c r="L38" s="38">
-        <v>279999.77643497102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>276728.256436756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>84</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="40">
-        <v>29.831733795908399</v>
+        <v>29.881101303030398</v>
       </c>
       <c r="D39" s="41" t="s">
         <v>15</v>
@@ -2923,13 +2923,13 @@
         <v>15</v>
       </c>
       <c r="F39" s="41">
-        <v>37.031056238196001</v>
+        <v>37.0771627723705</v>
       </c>
       <c r="G39" s="42">
-        <v>62.821924358021299</v>
+        <v>62.821923702291301</v>
       </c>
       <c r="H39" s="43">
-        <v>48666.857562589597</v>
+        <v>48747.431043737801</v>
       </c>
       <c r="I39" s="44" t="s">
         <v>15</v>
@@ -2938,13 +2938,13 @@
         <v>15</v>
       </c>
       <c r="K39" s="44">
-        <v>60411.679443978901</v>
+        <v>60486.941803589798</v>
       </c>
       <c r="L39" s="45">
-        <v>102486.35447930099</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>102486.429889444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="25">
-        <v>18.587899025978899</v>
+        <v>18.5878945235701</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>15</v>
@@ -2961,13 +2961,13 @@
         <v>15</v>
       </c>
       <c r="F40" s="26">
-        <v>25.543197610721698</v>
+        <v>25.543200612327599</v>
       </c>
       <c r="G40" s="27">
-        <v>89.902601341717798</v>
+        <v>89.902597889871103</v>
       </c>
       <c r="H40" s="28">
-        <v>78682.638572714393</v>
+        <v>78682.557518272297</v>
       </c>
       <c r="I40" s="29" t="s">
         <v>15</v>
@@ -2976,13 +2976,13 @@
         <v>15</v>
       </c>
       <c r="K40" s="29">
-        <v>108124.440679761</v>
+        <v>108124.368191983</v>
       </c>
       <c r="L40" s="30">
-        <v>380558.01132934599</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v>380557.69686782401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>88</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>89</v>
       </c>
       <c r="C41" s="40">
-        <v>59.981134507779302</v>
+        <v>79.534433199781105</v>
       </c>
       <c r="D41" s="41" t="s">
         <v>15</v>
@@ -2999,13 +2999,13 @@
         <v>15</v>
       </c>
       <c r="F41" s="41">
-        <v>48.711757199638598</v>
+        <v>64.706363333312396</v>
       </c>
       <c r="G41" s="42" t="s">
         <v>15</v>
       </c>
       <c r="H41" s="43">
-        <v>23397.130338097599</v>
+        <v>28015.208750290902</v>
       </c>
       <c r="I41" s="44" t="s">
         <v>15</v>
@@ -3014,13 +3014,13 @@
         <v>15</v>
       </c>
       <c r="K41" s="44">
-        <v>19001.2299959064</v>
+        <v>22792.169420525999</v>
       </c>
       <c r="L41" s="45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>90</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>91</v>
       </c>
       <c r="C42" s="40">
-        <v>21.969016226382401</v>
+        <v>21.568774306653602</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>15</v>
@@ -3037,13 +3037,13 @@
         <v>15</v>
       </c>
       <c r="F42" s="41">
-        <v>19.171529377251801</v>
+        <v>19.1715349322326</v>
       </c>
       <c r="G42" s="42">
-        <v>50.919113467960699</v>
+        <v>51.0540973875028</v>
       </c>
       <c r="H42" s="43">
-        <v>2173.07749385528</v>
+        <v>2133.5831544141702</v>
       </c>
       <c r="I42" s="44" t="s">
         <v>15</v>
@@ -3052,13 +3052,13 @@
         <v>15</v>
       </c>
       <c r="K42" s="44">
-        <v>1896.3625217983499</v>
+        <v>1896.44823549645</v>
       </c>
       <c r="L42" s="45">
-        <v>5036.6925102184896</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>5050.2713135717804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>92</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="25">
-        <v>25.1080897138498</v>
+        <v>25.2938080075185</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>15</v>
@@ -3075,13 +3075,13 @@
         <v>15</v>
       </c>
       <c r="F43" s="26">
-        <v>31.049591247266299</v>
+        <v>31.279246458261301</v>
       </c>
       <c r="G43" s="27">
-        <v>68.940329586638398</v>
+        <v>69.450164623484099</v>
       </c>
       <c r="H43" s="28">
-        <v>35871.069862060598</v>
+        <v>35871.172640102603</v>
       </c>
       <c r="I43" s="29" t="s">
         <v>15</v>
@@ -3090,13 +3090,13 @@
         <v>15</v>
       </c>
       <c r="K43" s="29">
-        <v>44359.490089154198</v>
+        <v>44359.601742177001</v>
       </c>
       <c r="L43" s="30">
-        <v>98492.693275334401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>98492.834465732696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>94</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>95</v>
       </c>
       <c r="C44" s="25">
-        <v>25.675068285899801</v>
+        <v>25.674888476691301</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>15</v>
@@ -3113,13 +3113,13 @@
         <v>15</v>
       </c>
       <c r="F44" s="26">
-        <v>33.292633368789801</v>
+        <v>33.292965216991398</v>
       </c>
       <c r="G44" s="27">
-        <v>79.941867979708903</v>
+        <v>79.941900571796495</v>
       </c>
       <c r="H44" s="28">
-        <v>11987.281706269699</v>
+        <v>11987.0919319976</v>
       </c>
       <c r="I44" s="29" t="s">
         <v>15</v>
@@ -3128,13 +3128,13 @@
         <v>15</v>
       </c>
       <c r="K44" s="29">
-        <v>15543.801889493299</v>
+        <v>15543.819600508899</v>
       </c>
       <c r="L44" s="30">
-        <v>37323.588818825498</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>37323.274538960301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>34</v>
       </c>
@@ -3142,37 +3142,37 @@
         <v>96</v>
       </c>
       <c r="C45" s="33">
-        <v>24.382722021211801</v>
+        <v>25.503607697533099</v>
       </c>
       <c r="D45" s="34">
-        <v>16.568620765390701</v>
+        <v>16.588004324850498</v>
       </c>
       <c r="E45" s="34">
-        <v>6.8040272837110005E-2</v>
+        <v>6.8149659563639997E-2</v>
       </c>
       <c r="F45" s="34">
-        <v>30.1760774486605</v>
+        <v>31.107357823838299</v>
       </c>
       <c r="G45" s="35">
-        <v>80.380560905202003</v>
+        <v>80.449764781235004</v>
       </c>
       <c r="H45" s="36">
-        <v>200778.05553558699</v>
+        <v>205437.04503881501</v>
       </c>
       <c r="I45" s="37">
-        <v>132746.50260268999</v>
+        <v>132746.49884370799</v>
       </c>
       <c r="J45" s="37">
-        <v>620.95696744174802</v>
+        <v>620.966143144836</v>
       </c>
       <c r="K45" s="37">
-        <v>249337.00462009199</v>
+        <v>253203.348994281</v>
       </c>
       <c r="L45" s="38">
-        <v>623897.340413025</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+        <v>623910.50707553304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>97</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>98</v>
       </c>
       <c r="C46" s="25">
-        <v>14.1461351892211</v>
+        <v>14.1461395228027</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>15</v>
@@ -3189,13 +3189,13 @@
         <v>15</v>
       </c>
       <c r="F46" s="26">
-        <v>19.854932156226699</v>
+        <v>19.8549312547364</v>
       </c>
       <c r="G46" s="27">
-        <v>50.288956150632899</v>
+        <v>50.288031410561899</v>
       </c>
       <c r="H46" s="28">
-        <v>2503.7785418256299</v>
+        <v>2503.7252341408398</v>
       </c>
       <c r="I46" s="29" t="s">
         <v>15</v>
@@ -3204,13 +3204,13 @@
         <v>15</v>
       </c>
       <c r="K46" s="29">
-        <v>3514.20033932967</v>
+        <v>3514.1242827757901</v>
       </c>
       <c r="L46" s="30">
-        <v>8900.8345824876506</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+        <v>8900.4786793553394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>99</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>100</v>
       </c>
       <c r="C47" s="25">
-        <v>20.318251384628201</v>
+        <v>20.3182502585618</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>15</v>
@@ -3227,13 +3227,13 @@
         <v>15</v>
       </c>
       <c r="F47" s="26">
-        <v>27.7527120095206</v>
+        <v>27.752714441817201</v>
       </c>
       <c r="G47" s="27">
-        <v>48.209273309188099</v>
+        <v>55.373443604296298</v>
       </c>
       <c r="H47" s="28">
-        <v>4012.4657803916898</v>
+        <v>4012.4480610607802</v>
       </c>
       <c r="I47" s="29" t="s">
         <v>15</v>
@@ -3242,13 +3242,13 @@
         <v>15</v>
       </c>
       <c r="K47" s="29">
-        <v>5480.6294667421098</v>
+        <v>5480.60604797006</v>
       </c>
       <c r="L47" s="30">
-        <v>9520.4088082606304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+        <v>10935.147642976401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>101</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>102</v>
       </c>
       <c r="C48" s="40">
-        <v>22.6267835365854</v>
+        <v>23.144250059770702</v>
       </c>
       <c r="D48" s="41" t="s">
         <v>15</v>
@@ -3265,13 +3265,13 @@
         <v>15</v>
       </c>
       <c r="F48" s="41">
-        <v>29.9278422271382</v>
+        <v>30.611947900749499</v>
       </c>
       <c r="G48" s="42">
-        <v>142.94262460338001</v>
+        <v>147.57486928410299</v>
       </c>
       <c r="H48" s="43">
-        <v>477.956371987686</v>
+        <v>477.92876373426498</v>
       </c>
       <c r="I48" s="44" t="s">
         <v>15</v>
@@ -3280,13 +3280,13 @@
         <v>15</v>
       </c>
       <c r="K48" s="44">
-        <v>632.18012711237998</v>
+        <v>632.13672415047699</v>
       </c>
       <c r="L48" s="45">
-        <v>3019.44543498027</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3047.42105071673</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>103</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>104</v>
       </c>
       <c r="C49" s="25">
-        <v>15.520032318800199</v>
+        <v>15.8082363864053</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>15</v>
@@ -3303,13 +3303,13 @@
         <v>15</v>
       </c>
       <c r="F49" s="26">
-        <v>20.345840132786599</v>
+        <v>20.734652414914901</v>
       </c>
       <c r="G49" s="27">
-        <v>50.852288537898602</v>
+        <v>50.852289535256403</v>
       </c>
       <c r="H49" s="28">
-        <v>11129.7305325911</v>
+        <v>11358.0597612683</v>
       </c>
       <c r="I49" s="29" t="s">
         <v>15</v>
@@ -3318,13 +3318,13 @@
         <v>15</v>
       </c>
       <c r="K49" s="29">
-        <v>14590.415373219999</v>
+        <v>14897.6404135922</v>
       </c>
       <c r="L49" s="30">
-        <v>36467.209395356404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+        <v>36536.861508186397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>105</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="25">
-        <v>16.816567342372601</v>
+        <v>16.730023604804401</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>15</v>
@@ -3341,13 +3341,13 @@
         <v>15</v>
       </c>
       <c r="F50" s="26">
-        <v>21.435622377343101</v>
+        <v>21.325850578744301</v>
       </c>
       <c r="G50" s="27">
-        <v>83.540825161001806</v>
+        <v>83.112611032639094</v>
       </c>
       <c r="H50" s="28">
-        <v>342.123213577255</v>
+        <v>342.12898271824997</v>
       </c>
       <c r="I50" s="29" t="s">
         <v>15</v>
@@ -3356,13 +3356,13 @@
         <v>15</v>
       </c>
       <c r="K50" s="29">
-        <v>436.09518300959598</v>
+        <v>436.113644335321</v>
       </c>
       <c r="L50" s="30">
-        <v>1699.5891603253399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1699.65289561747</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>107</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>108</v>
       </c>
       <c r="C51" s="18">
-        <v>15.2672197808643</v>
+        <v>15.1825339239108</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>15</v>
@@ -3379,13 +3379,13 @@
         <v>15</v>
       </c>
       <c r="F51" s="19">
-        <v>27.363944512759499</v>
+        <v>27.211903962572698</v>
       </c>
       <c r="G51" s="20">
-        <v>79.601111686478404</v>
+        <v>79.158968583155598</v>
       </c>
       <c r="H51" s="21">
-        <v>12085.0663372582</v>
+        <v>12085.1451780938</v>
       </c>
       <c r="I51" s="22" t="s">
         <v>15</v>
@@ -3394,13 +3394,13 @@
         <v>15</v>
       </c>
       <c r="K51" s="22">
-        <v>21660.465325863701</v>
+        <v>21660.403435168198</v>
       </c>
       <c r="L51" s="23">
-        <v>63009.816394752299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+        <v>63009.747402506</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>109</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>110</v>
       </c>
       <c r="C52" s="25">
-        <v>13.6038322023304</v>
+        <v>13.8736706678829</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>15</v>
@@ -3417,13 +3417,13 @@
         <v>15</v>
       </c>
       <c r="F52" s="26">
-        <v>15.3227065127172</v>
+        <v>15.6266394152894</v>
       </c>
       <c r="G52" s="27">
-        <v>40.647045345692703</v>
+        <v>41.453298172749399</v>
       </c>
       <c r="H52" s="28">
-        <v>2197.74194225159</v>
+        <v>2197.7281704993302</v>
       </c>
       <c r="I52" s="29" t="s">
         <v>15</v>
@@ -3432,13 +3432,13 @@
         <v>15</v>
       </c>
       <c r="K52" s="29">
-        <v>2475.43150128252</v>
+        <v>2475.4159497760002</v>
       </c>
       <c r="L52" s="30">
-        <v>6566.6582074960097</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+        <v>6566.6169635452297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>111</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>112</v>
       </c>
       <c r="C53" s="25">
-        <v>19.086445532168799</v>
+        <v>19.0864136339443</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>15</v>
@@ -3455,13 +3455,13 @@
         <v>15</v>
       </c>
       <c r="F53" s="26">
-        <v>24.704617795766801</v>
+        <v>24.956944283235998</v>
       </c>
       <c r="G53" s="27">
-        <v>78.891458517053707</v>
+        <v>78.803202697008004</v>
       </c>
       <c r="H53" s="28">
-        <v>329.32942791894402</v>
+        <v>329.24063518553999</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>15</v>
@@ -3470,13 +3470,13 @@
         <v>15</v>
       </c>
       <c r="K53" s="29">
-        <v>426.26887399875</v>
+        <v>430.50728888582199</v>
       </c>
       <c r="L53" s="30">
-        <v>1361.2423988176799</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1359.35524652339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>113</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>114</v>
       </c>
       <c r="C54" s="25">
-        <v>27.283920744518301</v>
+        <v>27.272727272727298</v>
       </c>
       <c r="D54" s="26" t="s">
         <v>15</v>
@@ -3493,13 +3493,13 @@
         <v>15</v>
       </c>
       <c r="F54" s="26">
-        <v>29.697929918117602</v>
+        <v>29.780564263322901</v>
       </c>
       <c r="G54" s="27">
-        <v>53.271983457838203</v>
+        <v>53.2915360501568</v>
       </c>
       <c r="H54" s="28">
-        <v>957.35552346198403</v>
+        <v>957</v>
       </c>
       <c r="I54" s="29" t="s">
         <v>15</v>
@@ -3508,13 +3508,13 @@
         <v>15</v>
       </c>
       <c r="K54" s="29">
-        <v>1042.0598090987</v>
+        <v>1045</v>
       </c>
       <c r="L54" s="30">
-        <v>1869.2411580686601</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>115</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>116</v>
       </c>
       <c r="C55" s="25">
-        <v>21.617208828126302</v>
+        <v>21.479413642771799</v>
       </c>
       <c r="D55" s="26" t="s">
         <v>15</v>
@@ -3531,13 +3531,13 @@
         <v>15</v>
       </c>
       <c r="F55" s="26">
-        <v>26.445717516523999</v>
+        <v>26.277137254147299</v>
       </c>
       <c r="G55" s="27">
-        <v>50.681405973316501</v>
+        <v>50.355585394534998</v>
       </c>
       <c r="H55" s="28">
-        <v>4249.0840144036201</v>
+        <v>4249.0576068131104</v>
       </c>
       <c r="I55" s="29" t="s">
         <v>15</v>
@@ -3546,13 +3546,13 @@
         <v>15</v>
       </c>
       <c r="K55" s="29">
-        <v>5198.1768988922604</v>
+        <v>5198.1432916154099</v>
       </c>
       <c r="L55" s="30">
-        <v>9961.9499289161904</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+        <v>9961.3419027469208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>117</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="25">
-        <v>18.354658195446799</v>
+        <v>18.354654824470199</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>15</v>
@@ -3569,13 +3569,13 @@
         <v>15</v>
       </c>
       <c r="F56" s="26">
-        <v>24.2600872353276</v>
+        <v>24.2600833804572</v>
       </c>
       <c r="G56" s="27">
-        <v>51.337607835031697</v>
+        <v>51.337609359620203</v>
       </c>
       <c r="H56" s="28">
-        <v>2739.0158818250502</v>
+        <v>2739.0651394556899</v>
       </c>
       <c r="I56" s="29" t="s">
         <v>15</v>
@@ -3584,13 +3584,13 @@
         <v>15</v>
       </c>
       <c r="K56" s="29">
-        <v>3620.2670474412498</v>
+        <v>3620.3322428656202</v>
       </c>
       <c r="L56" s="30">
-        <v>7660.9720376018604</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+        <v>7661.1114447361097</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>119</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>120</v>
       </c>
       <c r="C57" s="25">
-        <v>7.3103890751864098</v>
+        <v>7.3103889262232498</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>15</v>
@@ -3607,13 +3607,13 @@
         <v>15</v>
       </c>
       <c r="F57" s="26">
-        <v>13.339366592761101</v>
+        <v>13.339366767785799</v>
       </c>
       <c r="G57" s="27">
-        <v>36.509543688215501</v>
+        <v>36.5095435025368</v>
       </c>
       <c r="H57" s="28">
-        <v>32269.832609167701</v>
+        <v>32269.811213691701</v>
       </c>
       <c r="I57" s="29" t="s">
         <v>15</v>
@@ -3622,13 +3622,13 @@
         <v>15</v>
       </c>
       <c r="K57" s="29">
-        <v>58883.203429189198</v>
+        <v>58883.166361030802</v>
       </c>
       <c r="L57" s="30">
-        <v>161161.991699568</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+        <v>161161.88731063801</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>121</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>122</v>
       </c>
       <c r="C58" s="25">
-        <v>19.442363680077101</v>
+        <v>19.4818762930133</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>15</v>
@@ -3645,13 +3645,13 @@
         <v>15</v>
       </c>
       <c r="F58" s="26">
-        <v>25.743555557231801</v>
+        <v>25.795869578697801</v>
       </c>
       <c r="G58" s="27">
-        <v>73.157298346681301</v>
+        <v>73.305971010336805</v>
       </c>
       <c r="H58" s="28">
-        <v>5373.8077987195302</v>
+        <v>5373.8807566648002</v>
       </c>
       <c r="I58" s="29" t="s">
         <v>15</v>
@@ -3660,13 +3660,13 @@
         <v>15</v>
       </c>
       <c r="K58" s="29">
-        <v>7115.4372943852504</v>
+        <v>7115.5326645879904</v>
       </c>
       <c r="L58" s="30">
-        <v>20220.445767687099</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+        <v>20220.719043491299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>123</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>124</v>
       </c>
       <c r="C59" s="25">
-        <v>20.937650340440001</v>
+        <v>20.937651214568898</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>15</v>
@@ -3683,13 +3683,13 @@
         <v>15</v>
       </c>
       <c r="F59" s="26">
-        <v>28.253692928786201</v>
+        <v>28.253694552685499</v>
       </c>
       <c r="G59" s="27">
-        <v>79.285873836597403</v>
+        <v>79.262927848819103</v>
       </c>
       <c r="H59" s="28">
-        <v>868.46664189107105</v>
+        <v>868.49377238032002</v>
       </c>
       <c r="I59" s="29" t="s">
         <v>15</v>
@@ -3698,13 +3698,13 @@
         <v>15</v>
       </c>
       <c r="K59" s="29">
-        <v>1171.9266211782899</v>
+        <v>1171.9632500453999</v>
       </c>
       <c r="L59" s="30">
-        <v>3288.6754473721699</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>3287.82624716902</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>125</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>126</v>
       </c>
       <c r="C60" s="18">
-        <v>16.946706383829401</v>
+        <v>17.133631275535699</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>15</v>
@@ -3721,13 +3721,13 @@
         <v>15</v>
       </c>
       <c r="F60" s="19">
-        <v>21.549209033843599</v>
+        <v>21.786904535735101</v>
       </c>
       <c r="G60" s="20">
-        <v>63.745264103738599</v>
+        <v>64.550345149322396</v>
       </c>
       <c r="H60" s="21">
-        <v>1428.67337641468</v>
+        <v>1428.60217575416</v>
       </c>
       <c r="I60" s="22" t="s">
         <v>15</v>
@@ -3736,1381 +3736,1381 @@
         <v>15</v>
       </c>
       <c r="K60" s="22">
-        <v>1816.68228221762</v>
+        <v>1816.5921001895899</v>
       </c>
       <c r="L60" s="23">
-        <v>5373.9741301256199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>5382.2077785504998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
       <c r="B61" s="32" t="s">
         <v>127</v>
       </c>
       <c r="C61" s="33">
-        <v>10.9516286801092</v>
+        <v>10.9714019532456</v>
       </c>
       <c r="D61" s="34">
-        <v>7.7199163164864002</v>
+        <v>7.7155342776483096</v>
       </c>
       <c r="E61" s="34">
-        <v>0.49106887315683001</v>
+        <v>0.49152043703244003</v>
       </c>
       <c r="F61" s="34">
-        <v>17.407840957428299</v>
+        <v>17.430032263268998</v>
       </c>
       <c r="G61" s="35">
-        <v>46.228136316192</v>
+        <v>46.404245200733698</v>
       </c>
       <c r="H61" s="36">
-        <v>80964.427993685706</v>
+        <v>81192.315451460905</v>
       </c>
       <c r="I61" s="37">
-        <v>57445.791107076599</v>
+        <v>57463.342975276901</v>
       </c>
       <c r="J61" s="37">
-        <v>3719.4016866299098</v>
+        <v>3720.0214021291399</v>
       </c>
       <c r="K61" s="37">
-        <v>128063.439572961</v>
+        <v>128377.67769698901</v>
       </c>
       <c r="L61" s="38">
-        <v>340082.45455181599</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>341600.37511675898</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="47"/>
       <c r="B62" s="48" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="49">
-        <v>19.1257418776419</v>
+        <v>19.4765431538009</v>
       </c>
       <c r="D62" s="50">
-        <v>14.0446540384548</v>
+        <v>14.0225430350901</v>
       </c>
       <c r="E62" s="50">
-        <v>0.37811046805312998</v>
+        <v>0.37652486227395998</v>
       </c>
       <c r="F62" s="50">
-        <v>24.267732075188</v>
+        <v>24.563924858937899</v>
       </c>
       <c r="G62" s="51">
-        <v>68.108138977844206</v>
+        <v>68.049426734586007</v>
       </c>
       <c r="H62" s="52">
-        <v>527570.42165572406</v>
+        <v>531664.32548628096</v>
       </c>
       <c r="I62" s="53">
-        <v>391027.04758054001</v>
+        <v>390718.260759303</v>
       </c>
       <c r="J62" s="53">
-        <v>10634.583571044899</v>
+        <v>10608.5705318911</v>
       </c>
       <c r="K62" s="53">
-        <v>670881.05227317498</v>
+        <v>674889.14136590296</v>
       </c>
       <c r="L62" s="54">
-        <v>1757024.63195693</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1755181.43996231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="47"/>
       <c r="B63" s="55" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="56">
-        <v>30.6549009989007</v>
+        <v>30.725903336318101</v>
       </c>
       <c r="D63" s="57">
-        <v>18.9615969086408</v>
+        <v>18.929722800455099</v>
       </c>
       <c r="E63" s="57">
-        <v>0.10547499209961</v>
+        <v>0.10533549455526001</v>
       </c>
       <c r="F63" s="57">
-        <v>36.8744654695303</v>
+        <v>36.858618756462903</v>
       </c>
       <c r="G63" s="58">
-        <v>87.640264454458404</v>
+        <v>87.4949069216011</v>
       </c>
       <c r="H63" s="59">
-        <v>30385795.901722599</v>
+        <v>30488902.357737798</v>
       </c>
       <c r="I63" s="60">
-        <v>16891741.339507502</v>
+        <v>16891850.9378733</v>
       </c>
       <c r="J63" s="60">
-        <v>85822.024039857206</v>
+        <v>85812.755400598297</v>
       </c>
       <c r="K63" s="60">
-        <v>36541006.760176398</v>
+        <v>36596194.660029098</v>
       </c>
       <c r="L63" s="61">
-        <v>89829745.410766304</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+        <v>89782367.739647001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="62"/>
       <c r="B64" s="63" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="49">
-        <v>28.657809938986301</v>
+        <v>29.754689926206801</v>
       </c>
       <c r="D64" s="50">
-        <v>18.898887330797301</v>
+        <v>18.7356834823882</v>
       </c>
       <c r="E64" s="50">
-        <v>5.7943903698099999E-2</v>
+        <v>5.7741905963429999E-2</v>
       </c>
       <c r="F64" s="50">
-        <v>33.127505063985801</v>
+        <v>33.613833298980602</v>
       </c>
       <c r="G64" s="51">
-        <v>72.735931580115206</v>
+        <v>71.877427320984694</v>
       </c>
       <c r="H64" s="52">
-        <v>1449599.928389</v>
+        <v>1519268.6218163399</v>
       </c>
       <c r="I64" s="53">
-        <v>955895.00206853496</v>
+        <v>956121.53574577696</v>
       </c>
       <c r="J64" s="53">
-        <v>1752.8489563466801</v>
+        <v>1752.97671809854</v>
       </c>
       <c r="K64" s="53">
-        <v>1674468.2264791001</v>
+        <v>1715019.1805679901</v>
       </c>
       <c r="L64" s="54">
-        <v>3611556.1399519802</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3601980.8269633302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="62"/>
       <c r="B65" s="48" t="s">
         <v>131</v>
       </c>
       <c r="C65" s="64">
-        <v>22.284977487455599</v>
+        <v>22.299670539971199</v>
       </c>
       <c r="D65" s="65">
-        <v>14.3864366969546</v>
+        <v>14.387039290435199</v>
       </c>
       <c r="E65" s="65">
-        <v>2.9273682836550002E-2</v>
+        <v>2.9191831404760001E-2</v>
       </c>
       <c r="F65" s="65">
-        <v>28.775974608906601</v>
+        <v>28.719680781360299</v>
       </c>
       <c r="G65" s="66">
-        <v>68.914918305350497</v>
+        <v>69.111464973069999</v>
       </c>
       <c r="H65" s="67">
-        <v>6101470.9852690697</v>
+        <v>6113075.6819646005</v>
       </c>
       <c r="I65" s="68">
-        <v>3657052.5022327802</v>
+        <v>3657059.3074275502</v>
       </c>
       <c r="J65" s="68">
-        <v>4831.1167965319801</v>
+        <v>4831.0331511272598</v>
       </c>
       <c r="K65" s="68">
-        <v>7706783.4319857601</v>
+        <v>7709247.1886326903</v>
       </c>
       <c r="L65" s="69">
-        <v>17778726.008793499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17821030.850879699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="62"/>
       <c r="B66" s="70" t="s">
         <v>132</v>
       </c>
       <c r="C66" s="71">
-        <v>30.062828204258299</v>
+        <v>30.149083640697398</v>
       </c>
       <c r="D66" s="72">
-        <v>18.694329714749699</v>
+        <v>18.663149719536399</v>
       </c>
       <c r="E66" s="72">
-        <v>0.12089135881713001</v>
+        <v>0.12066890057356</v>
       </c>
       <c r="F66" s="72">
-        <v>36.227054518428403</v>
+        <v>36.228198761311397</v>
       </c>
       <c r="G66" s="73">
-        <v>86.658456253423793</v>
+        <v>86.519560455412901</v>
       </c>
       <c r="H66" s="74">
-        <v>30913366.323378298</v>
+        <v>31020566.683224101</v>
       </c>
       <c r="I66" s="75">
-        <v>17282768.387088101</v>
+        <v>17282569.198632602</v>
       </c>
       <c r="J66" s="75">
-        <v>96456.607610902094</v>
+        <v>96421.325932489402</v>
       </c>
       <c r="K66" s="75">
-        <v>37211887.8124495</v>
+        <v>37271083.801394999</v>
       </c>
       <c r="L66" s="76">
-        <v>91586770.042723194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+        <v>91537549.179609299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="62"/>
       <c r="B67" s="77" t="s">
         <v>133</v>
       </c>
       <c r="C67" s="78">
-        <v>19.072273016724001</v>
+        <v>19.931061956075801</v>
       </c>
       <c r="D67" s="79">
-        <v>12.186401393668101</v>
+        <v>12.150135867870199</v>
       </c>
       <c r="E67" s="79">
-        <v>0.47673970479446998</v>
+        <v>0.47409805006763001</v>
       </c>
       <c r="F67" s="79">
-        <v>23.9730606540144</v>
+        <v>24.6955148973951</v>
       </c>
       <c r="G67" s="80">
-        <v>84.128767271351705</v>
+        <v>84.009468387045501</v>
       </c>
       <c r="H67" s="81">
-        <v>184871.06265407</v>
+        <v>188805.56794156399</v>
       </c>
       <c r="I67" s="82">
-        <v>117609.81253528</v>
+        <v>117283.50522697</v>
       </c>
       <c r="J67" s="82">
-        <v>5145.92515766204</v>
+        <v>5119.2428251144902</v>
       </c>
       <c r="K67" s="82">
-        <v>234023.31868530501</v>
+        <v>237674.37795175501</v>
       </c>
       <c r="L67" s="83">
-        <v>732120.34925125702</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+        <v>729139.67240297596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="62"/>
       <c r="B68" s="48" t="s">
         <v>134</v>
       </c>
       <c r="C68" s="64">
-        <v>16.9452806822372</v>
+        <v>17.593776204497399</v>
       </c>
       <c r="D68" s="65">
-        <v>10.785922990236401</v>
+        <v>10.769927048198101</v>
       </c>
       <c r="E68" s="65">
-        <v>0.31162606658757003</v>
+        <v>0.31087625126735002</v>
       </c>
       <c r="F68" s="65">
-        <v>22.5493270418782</v>
+        <v>23.0741861072989</v>
       </c>
       <c r="G68" s="66">
-        <v>72.002804312095094</v>
+        <v>71.9627350693642</v>
       </c>
       <c r="H68" s="67">
-        <v>239277.95861524099</v>
+        <v>243395.211830858</v>
       </c>
       <c r="I68" s="68">
-        <v>153216.38906856999</v>
+        <v>152920.80906317101</v>
       </c>
       <c r="J68" s="68">
-        <v>4820.3178112482101</v>
+        <v>4796.5944209868803</v>
       </c>
       <c r="K68" s="68">
-        <v>323704.47147148597</v>
+        <v>327062.27313031501</v>
       </c>
       <c r="L68" s="69">
-        <v>935294.40940523904</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+        <v>933168.42956694798</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="62"/>
       <c r="B69" s="48" t="s">
         <v>135</v>
       </c>
       <c r="C69" s="64">
-        <v>15.8636226446054</v>
+        <v>15.881110144154899</v>
       </c>
       <c r="D69" s="65">
-        <v>11.906445762028801</v>
+        <v>11.916715454834501</v>
       </c>
       <c r="E69" s="65">
-        <v>1.0677554833562</v>
+        <v>1.06280659834184</v>
       </c>
       <c r="F69" s="65">
-        <v>21.138483842768899</v>
+        <v>21.352140592809899</v>
       </c>
       <c r="G69" s="66">
-        <v>50.1819099932708</v>
+        <v>50.545480686546902</v>
       </c>
       <c r="H69" s="67">
-        <v>47944.4965545417</v>
+        <v>47972.441020036502</v>
       </c>
       <c r="I69" s="68">
-        <v>34961.298369259799</v>
+        <v>34948.0854648729</v>
       </c>
       <c r="J69" s="68">
-        <v>3215.6203404978401</v>
+        <v>3213.2874469226899</v>
       </c>
       <c r="K69" s="68">
-        <v>63426.873784666597</v>
+        <v>64114.1174916206</v>
       </c>
       <c r="L69" s="69">
-        <v>147365.434117967</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+        <v>147857.72507127799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="62"/>
       <c r="B70" s="48" t="s">
         <v>136</v>
       </c>
       <c r="C70" s="64">
-        <v>18.7504949197325</v>
+        <v>18.643638067316299</v>
       </c>
       <c r="D70" s="65">
-        <v>14.7944422987362</v>
+        <v>14.7027460248707</v>
       </c>
       <c r="E70" s="65">
-        <v>1.05789336343342</v>
+        <v>1.0447870947678799</v>
       </c>
       <c r="F70" s="65">
-        <v>18.5655065939449</v>
+        <v>18.692655677496301</v>
       </c>
       <c r="G70" s="66">
-        <v>60.6119661573766</v>
+        <v>60.3208321588736</v>
       </c>
       <c r="H70" s="67">
-        <v>45484.7330562528</v>
+        <v>45509.742213067402</v>
       </c>
       <c r="I70" s="68">
-        <v>34984.524545458102</v>
+        <v>34984.5324707205</v>
       </c>
       <c r="J70" s="68">
-        <v>2751.5323789723798</v>
+        <v>2751.5963136402202</v>
       </c>
       <c r="K70" s="68">
-        <v>45574.034482720002</v>
+        <v>46310.878138039101</v>
       </c>
       <c r="L70" s="69">
-        <v>144843.92901432101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+        <v>144900.55837582701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="62"/>
       <c r="B71" s="48" t="s">
         <v>137</v>
       </c>
       <c r="C71" s="64">
-        <v>10.9516286801092</v>
+        <v>10.9714019532456</v>
       </c>
       <c r="D71" s="65">
-        <v>7.7199163164864002</v>
+        <v>7.7155342776483096</v>
       </c>
       <c r="E71" s="65">
-        <v>0.49106887315683001</v>
+        <v>0.49152043703244003</v>
       </c>
       <c r="F71" s="65">
-        <v>17.407840957428299</v>
+        <v>17.430032263268998</v>
       </c>
       <c r="G71" s="66">
-        <v>46.228136316192</v>
+        <v>46.404245200733698</v>
       </c>
       <c r="H71" s="67">
-        <v>80964.427993685706</v>
+        <v>81192.315451460905</v>
       </c>
       <c r="I71" s="68">
-        <v>57445.791107076599</v>
+        <v>57463.342975276901</v>
       </c>
       <c r="J71" s="68">
-        <v>3719.4016866299098</v>
+        <v>3720.0214021291399</v>
       </c>
       <c r="K71" s="68">
-        <v>128063.439572961</v>
+        <v>128377.67769698901</v>
       </c>
       <c r="L71" s="69">
-        <v>340082.45455181599</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+        <v>341600.37511675898</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="62"/>
       <c r="B72" s="48" t="s">
         <v>138</v>
       </c>
       <c r="C72" s="64">
-        <v>13.017809664707499</v>
+        <v>12.796837421933301</v>
       </c>
       <c r="D72" s="65">
-        <v>9.5219289699364396</v>
+        <v>9.4272639975279606</v>
       </c>
       <c r="E72" s="65">
-        <v>0.72653033057620997</v>
+        <v>0.72181590745668001</v>
       </c>
       <c r="F72" s="65">
-        <v>17.168561167630799</v>
+        <v>16.927064910180299</v>
       </c>
       <c r="G72" s="66">
-        <v>86.5644075919774</v>
+        <v>86.231419373582199</v>
       </c>
       <c r="H72" s="67">
-        <v>42589.2820932256</v>
+        <v>41886.807634950397</v>
       </c>
       <c r="I72" s="68">
-        <v>31247.034245750601</v>
+        <v>30920.646160247401</v>
       </c>
       <c r="J72" s="68">
-        <v>2058.8155397261999</v>
+        <v>2032.11892019322</v>
       </c>
       <c r="K72" s="68">
-        <v>57359.632351186599</v>
+        <v>56565.453469663204</v>
       </c>
       <c r="L72" s="69">
-        <v>223045.111472694</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+        <v>219814.83184243899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="62"/>
       <c r="B73" s="48" t="s">
         <v>139</v>
       </c>
       <c r="C73" s="64">
-        <v>23.4940625500141</v>
+        <v>23.416952840830199</v>
       </c>
       <c r="D73" s="65">
-        <v>19.970752006034601</v>
+        <v>19.9192463719112</v>
       </c>
       <c r="E73" s="65">
-        <v>0.39411257267978</v>
+        <v>0.39028306182819</v>
       </c>
       <c r="F73" s="65">
-        <v>27.209922879393002</v>
+        <v>27.198053024286502</v>
       </c>
       <c r="G73" s="66">
-        <v>65.745626981264294</v>
+        <v>65.532601824017107</v>
       </c>
       <c r="H73" s="67">
-        <v>182982.73019043301</v>
+        <v>182908.25771524399</v>
       </c>
       <c r="I73" s="68">
-        <v>155578.572671125</v>
+        <v>155578.617611191</v>
       </c>
       <c r="J73" s="68">
-        <v>2894.6496444033301</v>
+        <v>2894.6436862103701</v>
       </c>
       <c r="K73" s="68">
-        <v>213390.270469012</v>
+        <v>213969.490046461</v>
       </c>
       <c r="L73" s="69">
-        <v>499328.08874030598</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+        <v>499054.81044686702</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="62"/>
       <c r="B74" s="48" t="s">
         <v>139</v>
       </c>
       <c r="C74" s="64">
-        <v>31.595369419835301</v>
+        <v>34.110418389301799</v>
       </c>
       <c r="D74" s="65">
-        <v>22.335115185241801</v>
+        <v>22.381206682423201</v>
       </c>
       <c r="E74" s="65">
-        <v>9.7535922445759995E-2</v>
+        <v>9.7778099599750007E-2</v>
       </c>
       <c r="F74" s="65">
-        <v>35.942488042863999</v>
+        <v>38.032116930247199</v>
       </c>
       <c r="G74" s="66">
-        <v>66.829634419518797</v>
+        <v>66.999364300844107</v>
       </c>
       <c r="H74" s="67">
-        <v>122095.416962873</v>
+        <v>126754.487520543</v>
       </c>
       <c r="I74" s="68">
-        <v>79763.742265985595</v>
+        <v>79763.780253262099</v>
       </c>
       <c r="J74" s="68">
-        <v>433.254071576429</v>
+        <v>433.26339517467198</v>
       </c>
       <c r="K74" s="68">
-        <v>141212.56394033099</v>
+        <v>145078.980802298</v>
       </c>
       <c r="L74" s="69">
-        <v>243339.32908367901</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>243352.810207709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="62"/>
       <c r="B75" s="70" t="s">
         <v>140</v>
       </c>
       <c r="C75" s="71">
-        <v>23.9669597877805</v>
+        <v>23.8630644661377</v>
       </c>
       <c r="D75" s="72">
-        <v>21.5231533645007</v>
+        <v>21.453413611942199</v>
       </c>
       <c r="E75" s="72">
-        <v>0.51358367728620002</v>
+        <v>0.50282388413070001</v>
       </c>
       <c r="F75" s="72">
-        <v>21.649104155137302</v>
+        <v>21.547584934758898</v>
       </c>
       <c r="G75" s="73">
-        <v>90.710463519797898</v>
+        <v>90.349004126832995</v>
       </c>
       <c r="H75" s="74">
-        <v>22798.569059999001</v>
+        <v>22782.630525906199</v>
       </c>
       <c r="I75" s="75">
-        <v>20380.6597219461</v>
+        <v>20380.669897114902</v>
       </c>
       <c r="J75" s="75">
-        <v>541.51496806408898</v>
+        <v>541.52568339096604</v>
       </c>
       <c r="K75" s="75">
-        <v>20748.4748677883</v>
+        <v>20752.824624881901</v>
       </c>
       <c r="L75" s="76">
-        <v>86632.144209125996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>86645.433256503893</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="62"/>
       <c r="B76" s="77" t="s">
         <v>141</v>
       </c>
       <c r="C76" s="78">
-        <v>16.934691432422099</v>
+        <v>16.964312721650899</v>
       </c>
       <c r="D76" s="79">
-        <v>12.3742241376202</v>
+        <v>12.3742926959466</v>
       </c>
       <c r="E76" s="79">
-        <v>5.9367003552790003E-2</v>
+        <v>5.9365632648070002E-2</v>
       </c>
       <c r="F76" s="79">
-        <v>21.7933404563829</v>
+        <v>21.563328145515399</v>
       </c>
       <c r="G76" s="80">
-        <v>56.950791879759798</v>
+        <v>56.913570392017597</v>
       </c>
       <c r="H76" s="81">
-        <v>579988.81185688497</v>
+        <v>580978.75126725901</v>
       </c>
       <c r="I76" s="82">
-        <v>374335.74551955302</v>
+        <v>374342.35152445402</v>
       </c>
       <c r="J76" s="82">
-        <v>1523.2619299907301</v>
+        <v>1523.27113346129</v>
       </c>
       <c r="K76" s="82">
-        <v>733402.47187609505</v>
+        <v>726712.51988400298</v>
       </c>
       <c r="L76" s="83">
-        <v>2129485.39241692</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2128767.5585207501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="62"/>
       <c r="B77" s="48" t="s">
         <v>142</v>
       </c>
       <c r="C77" s="64">
-        <v>32.560370557038603</v>
+        <v>34.646991862894602</v>
       </c>
       <c r="D77" s="65">
-        <v>21.8740044604709</v>
+        <v>21.861646660946999</v>
       </c>
       <c r="E77" s="65">
-        <v>2.32069675227E-2</v>
+        <v>2.3196983607410002E-2</v>
       </c>
       <c r="F77" s="65">
-        <v>37.3559679318492</v>
+        <v>38.547047732471498</v>
       </c>
       <c r="G77" s="66">
-        <v>75.916260128425094</v>
+        <v>75.549711827462005</v>
       </c>
       <c r="H77" s="67">
-        <v>1060330.78059807</v>
+        <v>1130144.7659878701</v>
       </c>
       <c r="I77" s="68">
-        <v>711763.81499293505</v>
+        <v>711979.01326742605</v>
       </c>
       <c r="J77" s="68">
-        <v>617.53143006556002</v>
+        <v>617.53149808728494</v>
       </c>
       <c r="K77" s="68">
-        <v>1215070.8733763299</v>
+        <v>1255616.8916573899</v>
       </c>
       <c r="L77" s="69">
-        <v>2450665.4497591201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+        <v>2440797.6618513898</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="62"/>
       <c r="B78" s="48" t="s">
         <v>142</v>
       </c>
       <c r="C78" s="64">
-        <v>46.093375528709799</v>
+        <v>46.014196325759201</v>
       </c>
       <c r="D78" s="65">
-        <v>26.568158029240202</v>
+        <v>26.451575638671901</v>
       </c>
       <c r="E78" s="65">
-        <v>0.55426873648781005</v>
+        <v>0.55174886490750996</v>
       </c>
       <c r="F78" s="65">
-        <v>51.0351420350068</v>
+        <v>50.871281644797101</v>
       </c>
       <c r="G78" s="66">
-        <v>89.420034939483301</v>
+        <v>89.251368463842596</v>
       </c>
       <c r="H78" s="67">
-        <v>8032221.57110833</v>
+        <v>8055400.9045942305</v>
       </c>
       <c r="I78" s="68">
-        <v>4653764.5741235204</v>
+        <v>4653763.8386844303</v>
       </c>
       <c r="J78" s="68">
-        <v>68230.220683038395</v>
+        <v>68230.174483316994</v>
       </c>
       <c r="K78" s="68">
-        <v>8865173.5920156892</v>
+        <v>8875966.65950872</v>
       </c>
       <c r="L78" s="69">
-        <v>15387229.1378369</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>15429966.7758108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="62"/>
       <c r="B79" s="70" t="s">
         <v>143</v>
       </c>
       <c r="C79" s="71">
-        <v>36.668049554346801</v>
+        <v>36.592378318662497</v>
       </c>
       <c r="D79" s="72">
-        <v>22.7883190686318</v>
+        <v>22.711348239759701</v>
       </c>
       <c r="E79" s="72">
-        <v>0.14713499602010999</v>
+        <v>0.1468347937692</v>
       </c>
       <c r="F79" s="72">
-        <v>43.808472254433603</v>
+        <v>43.6907366583022</v>
       </c>
       <c r="G79" s="73">
-        <v>111.007270512597</v>
+        <v>110.567252838587</v>
       </c>
       <c r="H79" s="74">
-        <v>21639376.614122301</v>
+        <v>21660949.7875995</v>
       </c>
       <c r="I79" s="75">
-        <v>11692450.908355599</v>
+        <v>11692450.461555701</v>
       </c>
       <c r="J79" s="75">
-        <v>65457.132230244701</v>
+        <v>65457.101423497697</v>
       </c>
       <c r="K79" s="75">
-        <v>26032518.2556688</v>
+        <v>26040595.516725998</v>
       </c>
       <c r="L79" s="76">
-        <v>67414829.133667603</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+        <v>67333137.174608499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="62"/>
       <c r="B80" s="77" t="s">
         <v>144</v>
       </c>
       <c r="C80" s="78">
-        <v>31.1740714138123</v>
+        <v>33.860197016224397</v>
       </c>
       <c r="D80" s="79">
-        <v>21.532312057950499</v>
+        <v>21.4657248439641</v>
       </c>
       <c r="E80" s="79">
-        <v>0.12528186768874</v>
+        <v>0.12478359078871</v>
       </c>
       <c r="F80" s="79">
-        <v>32.4100874213567</v>
+        <v>34.609612363535298</v>
       </c>
       <c r="G80" s="80">
-        <v>69.233800684390005</v>
+        <v>69.021536551685699</v>
       </c>
       <c r="H80" s="81">
-        <v>104091.092051174</v>
+        <v>108750.04451717201</v>
       </c>
       <c r="I80" s="82">
-        <v>64169.789951062397</v>
+        <v>64169.769748591301</v>
       </c>
       <c r="J80" s="82">
-        <v>534.07175827882395</v>
+        <v>534.07226269137402</v>
       </c>
       <c r="K80" s="82">
-        <v>109028.32150340499</v>
+        <v>112936.830590436</v>
       </c>
       <c r="L80" s="83">
-        <v>217211.732447407</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+        <v>216994.33333411001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="62"/>
       <c r="B81" s="48" t="s">
         <v>145</v>
       </c>
       <c r="C81" s="64">
-        <v>28.9072769083601</v>
+        <v>28.919083418002899</v>
       </c>
       <c r="D81" s="65">
-        <v>15.258329396847</v>
+        <v>15.2646847692683</v>
       </c>
       <c r="E81" s="65">
-        <v>4.0821085018729997E-2</v>
+        <v>4.0422323320260002E-2</v>
       </c>
       <c r="F81" s="65">
-        <v>29.7427207332961</v>
+        <v>29.807647333926099</v>
       </c>
       <c r="G81" s="66">
-        <v>33.091747351383901</v>
+        <v>33.0450683823708</v>
       </c>
       <c r="H81" s="67">
-        <v>1448529.0392473601</v>
+        <v>1450494.2405344399</v>
       </c>
       <c r="I81" s="68">
-        <v>713052.32616694504</v>
+        <v>713015.86592923396</v>
       </c>
       <c r="J81" s="68">
-        <v>2402.97051333426</v>
+        <v>2394.5401094609801</v>
       </c>
       <c r="K81" s="68">
-        <v>1468440.8396067901</v>
+        <v>1474053.09821878</v>
       </c>
       <c r="L81" s="69">
-        <v>1530109.14397986</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1531212.1060188599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="62"/>
       <c r="B82" s="48" t="s">
         <v>146</v>
       </c>
       <c r="C82" s="64">
-        <v>17.158733133683899</v>
+        <v>17.123380770758502</v>
       </c>
       <c r="D82" s="65">
-        <v>12.994432623353401</v>
+        <v>12.975953724408701</v>
       </c>
       <c r="E82" s="65">
-        <v>0.41938723311391002</v>
+        <v>0.41770967497763001</v>
       </c>
       <c r="F82" s="65">
-        <v>22.938412179492499</v>
+        <v>22.920452749992499</v>
       </c>
       <c r="G82" s="66">
-        <v>67.949785664555904</v>
+        <v>67.912151945747695</v>
       </c>
       <c r="H82" s="67">
-        <v>423479.32960454997</v>
+        <v>422914.28096910898</v>
       </c>
       <c r="I82" s="68">
-        <v>326857.257629478</v>
+        <v>326548.49101071199</v>
       </c>
       <c r="J82" s="68">
-        <v>10100.511812766101</v>
+        <v>10074.498269199699</v>
       </c>
       <c r="K82" s="68">
-        <v>561852.73076976999</v>
+        <v>561952.31077546696</v>
       </c>
       <c r="L82" s="69">
-        <v>1539812.89950952</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1538187.1066282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="62"/>
       <c r="B83" s="70" t="s">
         <v>147</v>
       </c>
       <c r="C83" s="71">
-        <v>30.813401211793501</v>
+        <v>30.889249185647301</v>
       </c>
       <c r="D83" s="72">
-        <v>19.326675490369801</v>
+        <v>19.290246666934902</v>
       </c>
       <c r="E83" s="72">
-        <v>0.11198511941213</v>
+        <v>0.11186164132736</v>
       </c>
       <c r="F83" s="72">
-        <v>37.521276797611797</v>
+        <v>37.496062977624902</v>
       </c>
       <c r="G83" s="73">
-        <v>92.587534567622399</v>
+        <v>92.420064624858597</v>
       </c>
       <c r="H83" s="74">
-        <v>28937266.862475201</v>
+        <v>29038408.1172034</v>
       </c>
       <c r="I83" s="75">
-        <v>16178689.0133406</v>
+        <v>16178835.071944101</v>
       </c>
       <c r="J83" s="75">
-        <v>83419.053526522999</v>
+        <v>83418.215291137298</v>
       </c>
       <c r="K83" s="75">
-        <v>35072565.920569599</v>
+        <v>35122141.5618103</v>
       </c>
       <c r="L83" s="76">
-        <v>88299636.266786397</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+        <v>88251155.633628204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="62"/>
       <c r="B84" s="77" t="s">
         <v>148</v>
       </c>
       <c r="C84" s="78">
-        <v>14.8178969842428</v>
+        <v>14.596103963249099</v>
       </c>
       <c r="D84" s="79">
-        <v>10.3024188637725</v>
+        <v>10.196744999140501</v>
       </c>
       <c r="E84" s="79">
-        <v>1.6486549883613499</v>
+        <v>1.6398934547041999</v>
       </c>
       <c r="F84" s="79">
-        <v>18.499562318322301</v>
+        <v>18.356641942813301</v>
       </c>
       <c r="G84" s="80">
-        <v>76.996827937411794</v>
+        <v>76.649150312852996</v>
       </c>
       <c r="H84" s="81">
-        <v>67114.216274803402</v>
+        <v>66354.705512276196</v>
       </c>
       <c r="I84" s="82">
-        <v>46199.424906890803</v>
+        <v>45850.312676793597</v>
       </c>
       <c r="J84" s="82">
-        <v>7745.80522325114</v>
+        <v>7718.6852112016804</v>
       </c>
       <c r="K84" s="82">
-        <v>84080.093804070595</v>
+        <v>83890.509144378695</v>
       </c>
       <c r="L84" s="83">
-        <v>278449.41508325399</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+        <v>275573.180985677</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="62"/>
       <c r="B85" s="48" t="s">
         <v>149</v>
       </c>
       <c r="C85" s="64">
-        <v>8.2925534306547704</v>
+        <v>12.564858627202</v>
       </c>
       <c r="D85" s="65">
-        <v>4.0437588844539096</v>
+        <v>3.5596457500712599</v>
       </c>
       <c r="E85" s="65">
-        <v>0.67775677077467</v>
+        <v>0.59661668205420004</v>
       </c>
       <c r="F85" s="65">
-        <v>9.3348180445351403</v>
+        <v>13.1776866738841</v>
       </c>
       <c r="G85" s="66">
-        <v>85.083023261788796</v>
+        <v>74.4262264671694</v>
       </c>
       <c r="H85" s="67">
-        <v>1406.1285768453899</v>
+        <v>4015.6187474868302</v>
       </c>
       <c r="I85" s="68">
-        <v>685.68083074191702</v>
+        <v>685.69456083622595</v>
       </c>
       <c r="J85" s="68">
-        <v>114.92397022294099</v>
+        <v>114.9262714641</v>
       </c>
       <c r="K85" s="68">
-        <v>1582.8603966000001</v>
+        <v>4241.5824905011996</v>
       </c>
       <c r="L85" s="69">
-        <v>14427.120839588801</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14336.724004370801</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="62"/>
       <c r="B86" s="48" t="s">
         <v>150</v>
       </c>
       <c r="C86" s="64">
-        <v>17.471919620555301</v>
+        <v>17.488232124432599</v>
       </c>
       <c r="D86" s="65">
-        <v>13.223009725918899</v>
+        <v>13.2283002192792</v>
       </c>
       <c r="E86" s="65">
-        <v>0.13757303179985</v>
+        <v>0.13730233367573</v>
       </c>
       <c r="F86" s="65">
-        <v>23.4687429823408</v>
+        <v>23.4922774735894</v>
       </c>
       <c r="G86" s="66">
-        <v>66.096683812586605</v>
+        <v>66.156641769083507</v>
       </c>
       <c r="H86" s="67">
-        <v>305541.80790835299</v>
+        <v>305777.17276147997</v>
       </c>
       <c r="I86" s="68">
-        <v>232985.155932016</v>
+        <v>233025.575453614</v>
       </c>
       <c r="J86" s="68">
-        <v>2748.7878719267501</v>
+        <v>2749.88902023834</v>
       </c>
       <c r="K86" s="68">
-        <v>410834.50838120602</v>
+        <v>411241.31234651001</v>
       </c>
       <c r="L86" s="69">
-        <v>1146328.57675356</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+        <v>1147526.5757426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="62"/>
       <c r="B87" s="48" t="s">
         <v>151</v>
       </c>
       <c r="C87" s="64">
-        <v>17.405873439022798</v>
+        <v>17.480514134420002</v>
       </c>
       <c r="D87" s="65">
-        <v>14.1494564313574</v>
+        <v>14.1457784649273</v>
       </c>
       <c r="E87" s="65">
-        <v>6.4273662132409995E-2</v>
+        <v>6.4140141019659994E-2</v>
       </c>
       <c r="F87" s="65">
-        <v>24.5282441213369</v>
+        <v>24.452830152589101</v>
       </c>
       <c r="G87" s="66">
-        <v>65.653652139539403</v>
+        <v>66.137911112805398</v>
       </c>
       <c r="H87" s="67">
-        <v>1211871.69673795</v>
+        <v>1220784.3695577099</v>
       </c>
       <c r="I87" s="68">
-        <v>964190.462912458</v>
+        <v>964148.17485959094</v>
       </c>
       <c r="J87" s="68">
-        <v>5360.5409313378796</v>
+        <v>5352.3088142469896</v>
       </c>
       <c r="K87" s="68">
-        <v>1698738.1704154699</v>
+        <v>1698484.04319128</v>
       </c>
       <c r="L87" s="69">
-        <v>4475369.9183563804</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+        <v>4517319.8956275396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="62"/>
       <c r="B88" s="48" t="s">
         <v>152</v>
       </c>
       <c r="C88" s="64">
-        <v>30.793457630430598</v>
+        <v>33.169985910397401</v>
       </c>
       <c r="D88" s="65">
-        <v>22.638696752421399</v>
+        <v>22.5729906778984</v>
       </c>
       <c r="E88" s="65">
-        <v>1.9550552849089999E-2</v>
+        <v>1.950261350545E-2</v>
       </c>
       <c r="F88" s="65">
-        <v>33.876377933714103</v>
+        <v>35.796386540558501</v>
       </c>
       <c r="G88" s="66">
-        <v>67.041886668651401</v>
+        <v>66.827944871141</v>
       </c>
       <c r="H88" s="67">
-        <v>154419.01403018599</v>
+        <v>159036.96975957099</v>
       </c>
       <c r="I88" s="68">
-        <v>111444.513855522</v>
+        <v>111444.34296882201</v>
       </c>
       <c r="J88" s="68">
-        <v>98.533390933304304</v>
+        <v>98.531217523725402</v>
       </c>
       <c r="K88" s="68">
-        <v>175390.41903993901</v>
+        <v>179181.18743330499</v>
       </c>
       <c r="L88" s="69">
-        <v>331185.09403712099</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+        <v>331019.962754287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="62"/>
       <c r="B89" s="48" t="s">
         <v>153</v>
       </c>
       <c r="C89" s="64">
-        <v>27.8555550047389</v>
+        <v>28.104127210174799</v>
       </c>
       <c r="D89" s="65">
-        <v>16.9741697263566</v>
+        <v>16.947906544355401</v>
       </c>
       <c r="E89" s="65">
-        <v>2.5756383972289999E-2</v>
+        <v>2.5844156677389998E-2</v>
       </c>
       <c r="F89" s="65">
-        <v>32.6498147288751</v>
+        <v>32.764595531022401</v>
       </c>
       <c r="G89" s="66">
-        <v>63.1398165360199</v>
+        <v>62.988534033374002</v>
       </c>
       <c r="H89" s="67">
-        <v>7339067.6953189503</v>
+        <v>7408837.5300102904</v>
       </c>
       <c r="I89" s="68">
-        <v>4322548.0306030205</v>
+        <v>4322691.9876867998</v>
       </c>
       <c r="J89" s="68">
-        <v>4871.8272509420603</v>
+        <v>4870.6866054449101</v>
       </c>
       <c r="K89" s="68">
-        <v>8691796.6839804593</v>
+        <v>8732346.8262427505</v>
       </c>
       <c r="L89" s="69">
-        <v>17496631.347262502</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17486963.467337701</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="62"/>
       <c r="B90" s="70" t="s">
         <v>154</v>
       </c>
       <c r="C90" s="71">
-        <v>37.228025090159797</v>
+        <v>37.188900210207301</v>
       </c>
       <c r="D90" s="72">
-        <v>22.505844732183601</v>
+        <v>22.4556745547609</v>
       </c>
       <c r="E90" s="72">
-        <v>0.17824217458364</v>
+        <v>0.17787759858367999</v>
       </c>
       <c r="F90" s="72">
-        <v>44.2015619670128</v>
+        <v>44.136271459631999</v>
       </c>
       <c r="G90" s="73">
-        <v>112.58471784515</v>
+        <v>112.254805683464</v>
       </c>
       <c r="H90" s="74">
-        <v>21830549.9769127</v>
+        <v>21852333.675185401</v>
       </c>
       <c r="I90" s="75">
-        <v>11602192.711858399</v>
+        <v>11602191.950014301</v>
       </c>
       <c r="J90" s="75">
-        <v>75516.188972288001</v>
+        <v>75516.298792369693</v>
       </c>
       <c r="K90" s="75">
-        <v>26143437.1955228</v>
+        <v>26155616.0821307</v>
       </c>
       <c r="L90" s="76">
-        <v>67701175.853523701</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+        <v>67621582.540185407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="62"/>
       <c r="B91" s="77" t="s">
         <v>155</v>
       </c>
       <c r="C91" s="78">
-        <v>16.196491451955499</v>
+        <v>16.026285543677702</v>
       </c>
       <c r="D91" s="79">
-        <v>12.2221768033996</v>
+        <v>12.1478896702122</v>
       </c>
       <c r="E91" s="79">
-        <v>1.3150865738328501</v>
+        <v>1.3085255677841801</v>
       </c>
       <c r="F91" s="79">
-        <v>18.982168992613701</v>
+        <v>18.877197065627598</v>
       </c>
       <c r="G91" s="80">
-        <v>73.154078221700203</v>
+        <v>72.899937814862</v>
       </c>
       <c r="H91" s="81">
-        <v>106934.01872112</v>
+        <v>106072.347528396</v>
       </c>
       <c r="I91" s="82">
-        <v>80077.738606769606</v>
+        <v>79728.718229716207</v>
       </c>
       <c r="J91" s="82">
-        <v>9031.7359494668599</v>
+        <v>9004.6425728378108</v>
       </c>
       <c r="K91" s="82">
-        <v>126143.531503199</v>
+        <v>125919.29919880199</v>
       </c>
       <c r="L91" s="83">
-        <v>410533.91257060302</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+        <v>407683.671911021</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="62"/>
       <c r="B92" s="48" t="s">
         <v>156</v>
       </c>
       <c r="C92" s="64">
-        <v>11.898630441198501</v>
+        <v>12.0134497995207</v>
       </c>
       <c r="D92" s="65">
-        <v>8.17584929569529</v>
+        <v>8.1367320706561692</v>
       </c>
       <c r="E92" s="65">
-        <v>0.43294108805988002</v>
+        <v>0.42948130303028997</v>
       </c>
       <c r="F92" s="65">
-        <v>16.665555403604099</v>
+        <v>16.6106851908844</v>
       </c>
       <c r="G92" s="66">
-        <v>44.040763046004898</v>
+        <v>43.633981281479798</v>
       </c>
       <c r="H92" s="67">
-        <v>71444.255610672102</v>
+        <v>73744.802212676004</v>
       </c>
       <c r="I92" s="68">
-        <v>47177.959422862499</v>
+        <v>47177.946632531603</v>
       </c>
       <c r="J92" s="68">
-        <v>2840.7204918645798</v>
+        <v>2840.65706282264</v>
       </c>
       <c r="K92" s="68">
-        <v>99821.387464583997</v>
+        <v>102159.387351472</v>
       </c>
       <c r="L92" s="69">
-        <v>257466.94712611299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+        <v>257390.946744438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="62"/>
       <c r="B93" s="48" t="s">
         <v>157</v>
       </c>
       <c r="C93" s="64">
-        <v>25.170856052048801</v>
+        <v>25.128557051749599</v>
       </c>
       <c r="D93" s="65">
-        <v>19.880375793621699</v>
+        <v>19.909530288082401</v>
       </c>
       <c r="E93" s="65">
-        <v>2.0884420129992001</v>
+        <v>2.0709008007597101</v>
       </c>
       <c r="F93" s="65">
-        <v>29.856184480047901</v>
+        <v>29.9153185290862</v>
       </c>
       <c r="G93" s="66">
-        <v>92.6115402003973</v>
+        <v>92.851804340915294</v>
       </c>
       <c r="H93" s="67">
-        <v>4693.1141619178798</v>
+        <v>4677.1073083490101</v>
       </c>
       <c r="I93" s="68">
-        <v>3700.32240319328</v>
+        <v>3700.26966280435</v>
       </c>
       <c r="J93" s="68">
-        <v>397.26953709522002</v>
+        <v>397.26254091833999</v>
       </c>
       <c r="K93" s="68">
-        <v>5563.1044395688796</v>
+        <v>5567.30984088061</v>
       </c>
       <c r="L93" s="69">
-        <v>17283.1651889368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+        <v>17341.457517238501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="62"/>
       <c r="B94" s="48" t="s">
         <v>158</v>
       </c>
       <c r="C94" s="64">
-        <v>18.4584244215316</v>
+        <v>18.423022270217</v>
       </c>
       <c r="D94" s="65">
-        <v>14.036845996822199</v>
+        <v>14.0361455702262</v>
       </c>
       <c r="E94" s="65">
-        <v>0.38211250438707001</v>
+        <v>0.38207343887564998</v>
       </c>
       <c r="F94" s="65">
-        <v>19.860868049819199</v>
+        <v>19.826425485073901</v>
       </c>
       <c r="G94" s="66">
-        <v>116.432289120996</v>
+        <v>116.478036306557</v>
       </c>
       <c r="H94" s="67">
-        <v>122392.02892256</v>
+        <v>122074.280492376</v>
       </c>
       <c r="I94" s="68">
-        <v>91114.263840997606</v>
+        <v>91069.770717542095</v>
       </c>
       <c r="J94" s="68">
-        <v>2780.6067488346498</v>
+        <v>2772.2222521476801</v>
       </c>
       <c r="K94" s="68">
-        <v>129770.764857951</v>
+        <v>129474.683989311</v>
       </c>
       <c r="L94" s="69">
-        <v>802320.73423742899</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+        <v>802188.52586587297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="62"/>
       <c r="B95" s="48" t="s">
         <v>159</v>
       </c>
       <c r="C95" s="64">
-        <v>16.728867101575101</v>
+        <v>16.697431742593299</v>
       </c>
       <c r="D95" s="65">
-        <v>12.4565297060375</v>
+        <v>12.4517957317785</v>
       </c>
       <c r="E95" s="65">
-        <v>1.44103132961405</v>
+        <v>1.44096220428343</v>
       </c>
       <c r="F95" s="65">
-        <v>21.579549738963699</v>
+        <v>21.561581657723298</v>
       </c>
       <c r="G95" s="66">
-        <v>56.803736951744497</v>
+        <v>57.2311520715946</v>
       </c>
       <c r="H95" s="67">
-        <v>56481.869170482198</v>
+        <v>56346.492588519803</v>
       </c>
       <c r="I95" s="68">
-        <v>41513.895365394499</v>
+        <v>41477.953590419398</v>
       </c>
       <c r="J95" s="68">
-        <v>4577.6162523262301</v>
+        <v>4574.8562322593598</v>
       </c>
       <c r="K95" s="68">
-        <v>72045.887103438406</v>
+        <v>71951.2795772877</v>
       </c>
       <c r="L95" s="69">
-        <v>184024.160914354</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>185081.60630861</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="62"/>
       <c r="B96" s="70" t="s">
         <v>160</v>
       </c>
       <c r="C96" s="71">
-        <v>22.775159554832602</v>
+        <v>22.515958962873</v>
       </c>
       <c r="D96" s="72">
-        <v>15.759198692178099</v>
+        <v>15.7081194952681</v>
       </c>
       <c r="E96" s="72">
-        <v>0.35302241611542001</v>
+        <v>0.35079649962892001</v>
       </c>
       <c r="F96" s="72">
-        <v>26.3582316658445</v>
+        <v>25.9685033517083</v>
       </c>
       <c r="G96" s="73">
-        <v>38.573268300059603</v>
+        <v>38.7296703299562</v>
       </c>
       <c r="H96" s="74">
-        <v>130728.23823910501</v>
+        <v>133376.65278172499</v>
       </c>
       <c r="I96" s="75">
-        <v>85519.957390599797</v>
+        <v>85520.052035985398</v>
       </c>
       <c r="J96" s="75">
-        <v>1511.33071735614</v>
+        <v>1511.3317773814299</v>
       </c>
       <c r="K96" s="75">
-        <v>151574.14212264601</v>
+        <v>154232.34546278199</v>
       </c>
       <c r="L96" s="76">
-        <v>220944.06258140501</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+        <v>222165.032247936</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="62"/>
       <c r="B97" s="77" t="s">
         <v>161</v>
       </c>
       <c r="C97" s="78">
-        <v>15.035757654823</v>
+        <v>16.189297540457002</v>
       </c>
       <c r="D97" s="79">
-        <v>9.6360384266730694</v>
+        <v>10.0172776476641</v>
       </c>
       <c r="E97" s="79">
-        <v>0.62856709420517998</v>
+        <v>0.50633152792320002</v>
       </c>
       <c r="F97" s="79">
-        <v>18.487876880949798</v>
+        <v>19.8664209542656</v>
       </c>
       <c r="G97" s="80">
-        <v>58.569141057820197</v>
+        <v>51.718285335619399</v>
       </c>
       <c r="H97" s="81">
-        <v>200047.45941695501</v>
+        <v>182445.242617004</v>
       </c>
       <c r="I97" s="82">
-        <v>129513.726545734</v>
+        <v>117570.229670299</v>
       </c>
       <c r="J97" s="82">
-        <v>8708.4638092624391</v>
+        <v>6228.0359557963502</v>
       </c>
       <c r="K97" s="82">
-        <v>251042.83271861399</v>
+        <v>231449.30737022599</v>
       </c>
       <c r="L97" s="83">
-        <v>709475.29705450195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>601587.23128021904</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="62"/>
       <c r="B98" s="70" t="s">
         <v>162</v>
       </c>
       <c r="C98" s="71">
-        <v>12.944068438567101</v>
+        <v>10.8808383654975</v>
       </c>
       <c r="D98" s="72">
-        <v>7.2395879634764402</v>
+        <v>7.8430002902840599</v>
       </c>
       <c r="E98" s="72">
-        <v>0.17716661137802001</v>
+        <v>0.17120583984053001</v>
       </c>
       <c r="F98" s="72">
-        <v>17.235649630790601</v>
+        <v>15.594745155006899</v>
       </c>
       <c r="G98" s="73">
-        <v>57.1850464737471</v>
+        <v>56.830336790682502</v>
       </c>
       <c r="H98" s="74">
-        <v>242676.90723545101</v>
+        <v>163596.26787037301</v>
       </c>
       <c r="I98" s="75">
-        <v>121699.74749364</v>
+        <v>117267.316518102</v>
       </c>
       <c r="J98" s="75">
-        <v>3637.3353111986798</v>
+        <v>3029.01189249759</v>
       </c>
       <c r="K98" s="75">
-        <v>309550.61364351102</v>
+        <v>229135.79420548701</v>
       </c>
       <c r="L98" s="76">
-        <v>953989.13854068296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+        <v>811529.773941783</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="84"/>
       <c r="B99" s="85"/>
       <c r="C99" s="53"/>
@@ -5124,7 +5124,7 @@
       <c r="K99" s="53"/>
       <c r="L99" s="53"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="K100" s="86"/>
       <c r="L100" s="86"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
@@ -5154,7 +5154,7 @@
       <c r="K101" s="86"/>
       <c r="L101" s="86"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
@@ -5169,7 +5169,7 @@
       <c r="K102" s="86"/>
       <c r="L102" s="86"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="K103" s="86"/>
       <c r="L103" s="86"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
@@ -5199,7 +5199,7 @@
       <c r="K104" s="86"/>
       <c r="L104" s="86"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C105" s="86"/>
       <c r="D105" s="86"/>
       <c r="E105" s="86"/>
@@ -5211,7 +5211,7 @@
       <c r="K105" s="86"/>
       <c r="L105" s="86"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C106" s="86"/>
       <c r="D106" s="86"/>
       <c r="E106" s="86"/>
@@ -5223,7 +5223,7 @@
       <c r="K106" s="86"/>
       <c r="L106" s="86"/>
     </row>
-    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="87" t="s">
         <v>168</v>
       </c>
@@ -5238,7 +5238,7 @@
       <c r="K107" s="86"/>
       <c r="L107" s="86"/>
     </row>
-    <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="87"/>
       <c r="C108" s="86"/>
       <c r="D108" s="86"/>
@@ -5251,7 +5251,7 @@
       <c r="K108" s="86"/>
       <c r="L108" s="86"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>171</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="K109" s="86"/>
       <c r="L109" s="86"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>172</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="K110" s="86"/>
       <c r="L110" s="86"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>173</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="K111" s="86"/>
       <c r="L111" s="86"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="K112" s="86"/>
       <c r="L112" s="86"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>170</v>
       </c>
@@ -5326,7 +5326,7 @@
       <c r="K113" s="86"/>
       <c r="L113" s="86"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="86"/>
       <c r="D114" s="86"/>
@@ -5341,12 +5341,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F680A27A-545E-4125-A9B5-6776A0A0B0BF}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{C857384E-04BA-4702-8B5A-224766FE1BD4}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{3630875B-F84A-4B64-ADFE-D21A72BC3855}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{35118A51-41A3-4CAC-9CA2-380231CBDE22}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{B1FDA878-465F-4BA7-8009-99F8138FE95B}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{EF1F87AD-4DA4-440F-A7A2-03267E246FC8}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B7396DFC-9BA4-4CFA-9A6C-5832F02078CE}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8CE24D31-EB7B-4569-87AB-CDE45883F88B}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{C011680A-CB12-4424-B79D-D430454284E1}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{6FA6E6CE-B3C9-4493-B075-45D1DF1BC97B}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{D23D08F4-47F8-4184-8DD6-F951A413A16A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{7F20CF02-DD9F-4F9C-B1F5-5F79AF209289}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
